--- a/python/Pi2.xlsx
+++ b/python/Pi2.xlsx
@@ -354,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:ALM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1001">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -406,52 +406,5968 @@
       <c r="O1" s="1">
         <v>15.972</v>
       </c>
+      <c r="P1" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>17.968</v>
+      </c>
+      <c r="R1" s="1">
+        <v>18.966</v>
+      </c>
+      <c r="S1" s="1">
+        <v>19.964</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20.962</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21.96</v>
+      </c>
+      <c r="V1" s="1">
+        <v>22.958</v>
+      </c>
+      <c r="W1" s="1">
+        <v>23.956</v>
+      </c>
+      <c r="X1" s="1">
+        <v>24.954</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25.952</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>26.95</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>27.948</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>28.946</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>29.944</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30.942</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>31.94</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>32.938</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33.936</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>34.934</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35.932</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>37.928</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>38.926</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>39.924</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>40.922</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41.92</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>42.918</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43.916</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44.914</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45.912</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>46.91</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>47.908</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>48.906</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>49.904</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>50.902</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>52.898</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>53.896</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>54.894</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>55.892</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>56.89</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>57.888</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>58.886</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>59.884</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>60.882</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>62.878</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>63.876</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>64.874</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>65.872</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>67.86799999999999</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>68.866</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>69.864</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>70.86199999999999</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>72.858</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>73.85599999999999</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>74.854</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>75.852</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>77.848</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>78.846</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>79.84399999999999</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>80.842</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>81.84</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>82.83799999999999</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>83.836</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>84.834</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>85.83199999999999</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>86.83</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>87.828</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>88.82599999999999</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>89.824</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>90.822</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>92.818</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>93.816</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>94.81399999999999</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>95.812</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>97.80800000000001</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>98.806</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>99.804</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>100.802</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>102.798</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>103.796</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>104.794</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>105.792</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>106.79</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>107.788</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>108.786</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>109.784</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>110.782</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>111.78</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>112.778</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>113.776</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>114.774</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>115.772</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>116.77</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>117.768</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>118.766</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>119.764</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>120.762</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>121.76</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>122.758</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>123.756</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>124.754</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>125.752</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>126.75</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>127.748</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>128.746</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>129.744</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>130.742</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>131.74</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>132.738</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>133.736</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>134.734</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>135.732</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>136.73</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>137.728</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>138.726</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>139.724</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>140.722</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>141.72</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>142.718</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>143.716</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>144.714</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>145.712</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>146.71</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>147.708</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>148.706</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>149.704</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>150.702</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>151.7</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>152.698</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>153.696</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>154.694</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>155.692</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>157.688</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>158.686</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>159.684</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>160.682</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>161.68</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>162.678</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>163.676</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>164.674</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>165.672</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>166.67</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>167.668</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>168.666</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>169.664</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>170.662</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>171.66</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>172.658</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>173.656</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>174.654</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>175.652</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>176.65</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>177.648</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>178.646</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>179.644</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>180.642</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>181.64</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>182.638</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>183.636</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>184.634</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>185.632</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>186.63</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>187.628</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>188.626</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>189.624</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>190.622</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>191.62</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>192.618</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>193.616</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>194.614</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>195.612</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>196.61</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>197.608</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>198.606</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>199.604</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>200.602</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>202.598</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>203.596</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>204.594</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>205.592</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>206.59</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>207.588</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>208.586</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>209.584</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>210.582</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>211.58</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>212.578</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>213.576</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>214.574</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>215.572</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>216.57</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>217.568</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>218.566</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>219.564</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>220.562</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>221.56</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>222.558</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>223.556</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>224.554</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>225.552</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>226.55</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>227.548</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>228.546</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>229.544</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>230.542</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>231.54</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>232.538</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>233.536</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>234.534</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>235.532</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>237.528</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>238.526</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>239.524</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>240.522</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>241.52</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>242.518</v>
+      </c>
+      <c r="II1" s="1">
+        <v>243.516</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>244.514</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>245.512</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>246.51</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>247.508</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>248.506</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>249.504</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>250.502</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>251.5</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>252.498</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>253.496</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>254.494</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>255.492</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>256.49</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>257.488</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>258.486</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>259.484</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>260.482</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>261.48</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>262.478</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>263.476</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>264.474</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>265.472</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>266.47</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>267.468</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>268.466</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>269.464</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>270.462</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>271.46</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>272.458</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>273.456</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>274.454</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>275.452</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>276.45</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>277.448</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>278.446</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>279.444</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>280.442</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>281.44</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>282.438</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>283.436</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>284.434</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>285.432</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>287.428</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>288.426</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>289.424</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>290.422</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>291.42</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>292.418</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>293.416</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>294.414</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>295.412</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>296.41</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>297.408</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>298.406</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>299.404</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>300.402</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>301.4</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>302.398</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>303.396</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>304.394</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>305.392</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>306.39</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>307.388</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>308.386</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>309.384</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>310.382</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>311.38</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>312.378</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>313.376</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>314.374</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>315.372</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>316.37</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>317.368</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>318.366</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>319.364</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>320.362</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>321.36</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>322.358</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>323.356</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>324.354</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>325.352</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>326.35</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>327.348</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>328.346</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>329.344</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>330.342</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>331.34</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>332.338</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>333.336</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>334.334</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>335.332</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>336.33</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>337.328</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>338.326</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>339.324</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>340.322</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>341.32</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>342.318</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>343.316</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>344.314</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>345.312</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>346.31</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>347.308</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>348.306</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>349.304</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>350.302</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>351.3</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>352.298</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>353.296</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>354.294</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>355.292</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>356.29</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>357.288</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>358.286</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>359.284</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>360.282</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>361.28</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>362.278</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>363.276</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>364.274</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>365.272</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>366.27</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>367.268</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>368.266</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>369.264</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>370.262</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>371.26</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>372.258</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>373.256</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>374.254</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>375.252</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>376.25</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>377.248</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>378.246</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>379.244</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>380.242</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>381.24</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>382.238</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>383.236</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>384.234</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>385.232</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>386.23</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>387.228</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>388.226</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>389.224</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>390.222</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>391.22</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>392.218</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>393.216</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>394.214</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>395.212</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>396.21</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>397.208</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>398.206</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>399.204</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>400.202</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>401.2</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>402.198</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>403.196</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>404.194</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>405.192</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>406.19</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>407.188</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>408.186</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>409.184</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>410.182</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>411.18</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>412.178</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>413.176</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>414.174</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>415.172</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>416.17</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>417.168</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>418.166</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>419.164</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>420.162</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>421.16</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>422.158</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>423.156</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>424.154</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>425.152</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>426.15</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>427.148</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>428.146</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>429.144</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>430.142</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>431.14</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>432.138</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>433.136</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>434.134</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>435.132</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>436.13</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>437.128</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>438.126</v>
+      </c>
+      <c r="PW1" s="1">
+        <v>439.124</v>
+      </c>
+      <c r="PX1" s="1">
+        <v>440.122</v>
+      </c>
+      <c r="PY1" s="1">
+        <v>441.12</v>
+      </c>
+      <c r="PZ1" s="1">
+        <v>442.118</v>
+      </c>
+      <c r="QA1" s="1">
+        <v>443.116</v>
+      </c>
+      <c r="QB1" s="1">
+        <v>444.114</v>
+      </c>
+      <c r="QC1" s="1">
+        <v>445.112</v>
+      </c>
+      <c r="QD1" s="1">
+        <v>446.11</v>
+      </c>
+      <c r="QE1" s="1">
+        <v>447.108</v>
+      </c>
+      <c r="QF1" s="1">
+        <v>448.106</v>
+      </c>
+      <c r="QG1" s="1">
+        <v>449.104</v>
+      </c>
+      <c r="QH1" s="1">
+        <v>450.102</v>
+      </c>
+      <c r="QI1" s="1">
+        <v>451.1</v>
+      </c>
+      <c r="QJ1" s="1">
+        <v>452.098</v>
+      </c>
+      <c r="QK1" s="1">
+        <v>453.096</v>
+      </c>
+      <c r="QL1" s="1">
+        <v>454.094</v>
+      </c>
+      <c r="QM1" s="1">
+        <v>455.092</v>
+      </c>
+      <c r="QN1" s="1">
+        <v>456.09</v>
+      </c>
+      <c r="QO1" s="1">
+        <v>457.088</v>
+      </c>
+      <c r="QP1" s="1">
+        <v>458.086</v>
+      </c>
+      <c r="QQ1" s="1">
+        <v>459.084</v>
+      </c>
+      <c r="QR1" s="1">
+        <v>460.082</v>
+      </c>
+      <c r="QS1" s="1">
+        <v>461.08</v>
+      </c>
+      <c r="QT1" s="1">
+        <v>462.078</v>
+      </c>
+      <c r="QU1" s="1">
+        <v>463.076</v>
+      </c>
+      <c r="QV1" s="1">
+        <v>464.074</v>
+      </c>
+      <c r="QW1" s="1">
+        <v>465.072</v>
+      </c>
+      <c r="QX1" s="1">
+        <v>466.07</v>
+      </c>
+      <c r="QY1" s="1">
+        <v>467.068</v>
+      </c>
+      <c r="QZ1" s="1">
+        <v>468.066</v>
+      </c>
+      <c r="RA1" s="1">
+        <v>469.064</v>
+      </c>
+      <c r="RB1" s="1">
+        <v>470.062</v>
+      </c>
+      <c r="RC1" s="1">
+        <v>471.06</v>
+      </c>
+      <c r="RD1" s="1">
+        <v>472.058</v>
+      </c>
+      <c r="RE1" s="1">
+        <v>473.056</v>
+      </c>
+      <c r="RF1" s="1">
+        <v>474.054</v>
+      </c>
+      <c r="RG1" s="1">
+        <v>475.052</v>
+      </c>
+      <c r="RH1" s="1">
+        <v>476.05</v>
+      </c>
+      <c r="RI1" s="1">
+        <v>477.048</v>
+      </c>
+      <c r="RJ1" s="1">
+        <v>478.046</v>
+      </c>
+      <c r="RK1" s="1">
+        <v>479.044</v>
+      </c>
+      <c r="RL1" s="1">
+        <v>480.042</v>
+      </c>
+      <c r="RM1" s="1">
+        <v>481.04</v>
+      </c>
+      <c r="RN1" s="1">
+        <v>482.038</v>
+      </c>
+      <c r="RO1" s="1">
+        <v>483.036</v>
+      </c>
+      <c r="RP1" s="1">
+        <v>484.034</v>
+      </c>
+      <c r="RQ1" s="1">
+        <v>485.032</v>
+      </c>
+      <c r="RR1" s="1">
+        <v>486.03</v>
+      </c>
+      <c r="RS1" s="1">
+        <v>487.028</v>
+      </c>
+      <c r="RT1" s="1">
+        <v>488.026</v>
+      </c>
+      <c r="RU1" s="1">
+        <v>489.024</v>
+      </c>
+      <c r="RV1" s="1">
+        <v>490.022</v>
+      </c>
+      <c r="RW1" s="1">
+        <v>491.02</v>
+      </c>
+      <c r="RX1" s="1">
+        <v>492.018</v>
+      </c>
+      <c r="RY1" s="1">
+        <v>493.016</v>
+      </c>
+      <c r="RZ1" s="1">
+        <v>494.014</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>495.012</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>496.01</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>497.008</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>498.006</v>
+      </c>
+      <c r="SE1" s="1">
+        <v>499.004</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>500.002</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>501</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>501.998</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>502.996</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>503.994</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>504.992</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>505.99</v>
+      </c>
+      <c r="SM1" s="1">
+        <v>506.988</v>
+      </c>
+      <c r="SN1" s="1">
+        <v>507.986</v>
+      </c>
+      <c r="SO1" s="1">
+        <v>508.984</v>
+      </c>
+      <c r="SP1" s="1">
+        <v>509.982</v>
+      </c>
+      <c r="SQ1" s="1">
+        <v>510.98</v>
+      </c>
+      <c r="SR1" s="1">
+        <v>511.978</v>
+      </c>
+      <c r="SS1" s="1">
+        <v>512.976</v>
+      </c>
+      <c r="ST1" s="1">
+        <v>513.974</v>
+      </c>
+      <c r="SU1" s="1">
+        <v>514.972</v>
+      </c>
+      <c r="SV1" s="1">
+        <v>515.97</v>
+      </c>
+      <c r="SW1" s="1">
+        <v>516.968</v>
+      </c>
+      <c r="SX1" s="1">
+        <v>517.966</v>
+      </c>
+      <c r="SY1" s="1">
+        <v>518.9640000000001</v>
+      </c>
+      <c r="SZ1" s="1">
+        <v>519.962</v>
+      </c>
+      <c r="TA1" s="1">
+        <v>520.96</v>
+      </c>
+      <c r="TB1" s="1">
+        <v>521.958</v>
+      </c>
+      <c r="TC1" s="1">
+        <v>522.956</v>
+      </c>
+      <c r="TD1" s="1">
+        <v>523.954</v>
+      </c>
+      <c r="TE1" s="1">
+        <v>524.952</v>
+      </c>
+      <c r="TF1" s="1">
+        <v>525.95</v>
+      </c>
+      <c r="TG1" s="1">
+        <v>526.948</v>
+      </c>
+      <c r="TH1" s="1">
+        <v>527.946</v>
+      </c>
+      <c r="TI1" s="1">
+        <v>528.944</v>
+      </c>
+      <c r="TJ1" s="1">
+        <v>529.942</v>
+      </c>
+      <c r="TK1" s="1">
+        <v>530.9400000000001</v>
+      </c>
+      <c r="TL1" s="1">
+        <v>531.938</v>
+      </c>
+      <c r="TM1" s="1">
+        <v>532.936</v>
+      </c>
+      <c r="TN1" s="1">
+        <v>533.934</v>
+      </c>
+      <c r="TO1" s="1">
+        <v>534.932</v>
+      </c>
+      <c r="TP1" s="1">
+        <v>535.9299999999999</v>
+      </c>
+      <c r="TQ1" s="1">
+        <v>536.928</v>
+      </c>
+      <c r="TR1" s="1">
+        <v>537.926</v>
+      </c>
+      <c r="TS1" s="1">
+        <v>538.924</v>
+      </c>
+      <c r="TT1" s="1">
+        <v>539.922</v>
+      </c>
+      <c r="TU1" s="1">
+        <v>540.92</v>
+      </c>
+      <c r="TV1" s="1">
+        <v>541.918</v>
+      </c>
+      <c r="TW1" s="1">
+        <v>542.9160000000001</v>
+      </c>
+      <c r="TX1" s="1">
+        <v>543.914</v>
+      </c>
+      <c r="TY1" s="1">
+        <v>544.912</v>
+      </c>
+      <c r="TZ1" s="1">
+        <v>545.91</v>
+      </c>
+      <c r="UA1" s="1">
+        <v>546.908</v>
+      </c>
+      <c r="UB1" s="1">
+        <v>547.9059999999999</v>
+      </c>
+      <c r="UC1" s="1">
+        <v>548.904</v>
+      </c>
+      <c r="UD1" s="1">
+        <v>549.902</v>
+      </c>
+      <c r="UE1" s="1">
+        <v>550.9</v>
+      </c>
+      <c r="UF1" s="1">
+        <v>551.898</v>
+      </c>
+      <c r="UG1" s="1">
+        <v>552.896</v>
+      </c>
+      <c r="UH1" s="1">
+        <v>553.894</v>
+      </c>
+      <c r="UI1" s="1">
+        <v>554.8920000000001</v>
+      </c>
+      <c r="UJ1" s="1">
+        <v>555.89</v>
+      </c>
+      <c r="UK1" s="1">
+        <v>556.888</v>
+      </c>
+      <c r="UL1" s="1">
+        <v>557.886</v>
+      </c>
+      <c r="UM1" s="1">
+        <v>558.884</v>
+      </c>
+      <c r="UN1" s="1">
+        <v>559.8819999999999</v>
+      </c>
+      <c r="UO1" s="1">
+        <v>560.88</v>
+      </c>
+      <c r="UP1" s="1">
+        <v>561.878</v>
+      </c>
+      <c r="UQ1" s="1">
+        <v>562.876</v>
+      </c>
+      <c r="UR1" s="1">
+        <v>563.874</v>
+      </c>
+      <c r="US1" s="1">
+        <v>564.872</v>
+      </c>
+      <c r="UT1" s="1">
+        <v>565.87</v>
+      </c>
+      <c r="UU1" s="1">
+        <v>566.8680000000001</v>
+      </c>
+      <c r="UV1" s="1">
+        <v>567.866</v>
+      </c>
+      <c r="UW1" s="1">
+        <v>568.864</v>
+      </c>
+      <c r="UX1" s="1">
+        <v>569.862</v>
+      </c>
+      <c r="UY1" s="1">
+        <v>570.86</v>
+      </c>
+      <c r="UZ1" s="1">
+        <v>571.8579999999999</v>
+      </c>
+      <c r="VA1" s="1">
+        <v>572.856</v>
+      </c>
+      <c r="VB1" s="1">
+        <v>573.854</v>
+      </c>
+      <c r="VC1" s="1">
+        <v>574.852</v>
+      </c>
+      <c r="VD1" s="1">
+        <v>575.85</v>
+      </c>
+      <c r="VE1" s="1">
+        <v>576.848</v>
+      </c>
+      <c r="VF1" s="1">
+        <v>577.846</v>
+      </c>
+      <c r="VG1" s="1">
+        <v>578.8440000000001</v>
+      </c>
+      <c r="VH1" s="1">
+        <v>579.842</v>
+      </c>
+      <c r="VI1" s="1">
+        <v>580.84</v>
+      </c>
+      <c r="VJ1" s="1">
+        <v>581.838</v>
+      </c>
+      <c r="VK1" s="1">
+        <v>582.836</v>
+      </c>
+      <c r="VL1" s="1">
+        <v>583.8339999999999</v>
+      </c>
+      <c r="VM1" s="1">
+        <v>584.832</v>
+      </c>
+      <c r="VN1" s="1">
+        <v>585.83</v>
+      </c>
+      <c r="VO1" s="1">
+        <v>586.828</v>
+      </c>
+      <c r="VP1" s="1">
+        <v>587.826</v>
+      </c>
+      <c r="VQ1" s="1">
+        <v>588.824</v>
+      </c>
+      <c r="VR1" s="1">
+        <v>589.822</v>
+      </c>
+      <c r="VS1" s="1">
+        <v>590.8200000000001</v>
+      </c>
+      <c r="VT1" s="1">
+        <v>591.818</v>
+      </c>
+      <c r="VU1" s="1">
+        <v>592.816</v>
+      </c>
+      <c r="VV1" s="1">
+        <v>593.814</v>
+      </c>
+      <c r="VW1" s="1">
+        <v>594.812</v>
+      </c>
+      <c r="VX1" s="1">
+        <v>595.8099999999999</v>
+      </c>
+      <c r="VY1" s="1">
+        <v>596.808</v>
+      </c>
+      <c r="VZ1" s="1">
+        <v>597.806</v>
+      </c>
+      <c r="WA1" s="1">
+        <v>598.804</v>
+      </c>
+      <c r="WB1" s="1">
+        <v>599.802</v>
+      </c>
+      <c r="WC1" s="1">
+        <v>600.8</v>
+      </c>
+      <c r="WD1" s="1">
+        <v>601.798</v>
+      </c>
+      <c r="WE1" s="1">
+        <v>602.796</v>
+      </c>
+      <c r="WF1" s="1">
+        <v>603.794</v>
+      </c>
+      <c r="WG1" s="1">
+        <v>604.792</v>
+      </c>
+      <c r="WH1" s="1">
+        <v>605.79</v>
+      </c>
+      <c r="WI1" s="1">
+        <v>606.788</v>
+      </c>
+      <c r="WJ1" s="1">
+        <v>607.7859999999999</v>
+      </c>
+      <c r="WK1" s="1">
+        <v>608.784</v>
+      </c>
+      <c r="WL1" s="1">
+        <v>609.782</v>
+      </c>
+      <c r="WM1" s="1">
+        <v>610.78</v>
+      </c>
+      <c r="WN1" s="1">
+        <v>611.778</v>
+      </c>
+      <c r="WO1" s="1">
+        <v>612.776</v>
+      </c>
+      <c r="WP1" s="1">
+        <v>613.774</v>
+      </c>
+      <c r="WQ1" s="1">
+        <v>614.772</v>
+      </c>
+      <c r="WR1" s="1">
+        <v>615.77</v>
+      </c>
+      <c r="WS1" s="1">
+        <v>616.768</v>
+      </c>
+      <c r="WT1" s="1">
+        <v>617.766</v>
+      </c>
+      <c r="WU1" s="1">
+        <v>618.764</v>
+      </c>
+      <c r="WV1" s="1">
+        <v>619.7619999999999</v>
+      </c>
+      <c r="WW1" s="1">
+        <v>620.76</v>
+      </c>
+      <c r="WX1" s="1">
+        <v>621.758</v>
+      </c>
+      <c r="WY1" s="1">
+        <v>622.756</v>
+      </c>
+      <c r="WZ1" s="1">
+        <v>623.754</v>
+      </c>
+      <c r="XA1" s="1">
+        <v>624.752</v>
+      </c>
+      <c r="XB1" s="1">
+        <v>625.75</v>
+      </c>
+      <c r="XC1" s="1">
+        <v>626.748</v>
+      </c>
+      <c r="XD1" s="1">
+        <v>627.746</v>
+      </c>
+      <c r="XE1" s="1">
+        <v>628.744</v>
+      </c>
+      <c r="XF1" s="1">
+        <v>629.742</v>
+      </c>
+      <c r="XG1" s="1">
+        <v>630.74</v>
+      </c>
+      <c r="XH1" s="1">
+        <v>631.7380000000001</v>
+      </c>
+      <c r="XI1" s="1">
+        <v>632.736</v>
+      </c>
+      <c r="XJ1" s="1">
+        <v>633.734</v>
+      </c>
+      <c r="XK1" s="1">
+        <v>634.732</v>
+      </c>
+      <c r="XL1" s="1">
+        <v>635.73</v>
+      </c>
+      <c r="XM1" s="1">
+        <v>636.728</v>
+      </c>
+      <c r="XN1" s="1">
+        <v>637.726</v>
+      </c>
+      <c r="XO1" s="1">
+        <v>638.724</v>
+      </c>
+      <c r="XP1" s="1">
+        <v>639.722</v>
+      </c>
+      <c r="XQ1" s="1">
+        <v>640.72</v>
+      </c>
+      <c r="XR1" s="1">
+        <v>641.718</v>
+      </c>
+      <c r="XS1" s="1">
+        <v>642.716</v>
+      </c>
+      <c r="XT1" s="1">
+        <v>643.7140000000001</v>
+      </c>
+      <c r="XU1" s="1">
+        <v>644.712</v>
+      </c>
+      <c r="XV1" s="1">
+        <v>645.71</v>
+      </c>
+      <c r="XW1" s="1">
+        <v>646.708</v>
+      </c>
+      <c r="XX1" s="1">
+        <v>647.706</v>
+      </c>
+      <c r="XY1" s="1">
+        <v>648.704</v>
+      </c>
+      <c r="XZ1" s="1">
+        <v>649.702</v>
+      </c>
+      <c r="YA1" s="1">
+        <v>650.7</v>
+      </c>
+      <c r="YB1" s="1">
+        <v>651.698</v>
+      </c>
+      <c r="YC1" s="1">
+        <v>652.696</v>
+      </c>
+      <c r="YD1" s="1">
+        <v>653.694</v>
+      </c>
+      <c r="YE1" s="1">
+        <v>654.692</v>
+      </c>
+      <c r="YF1" s="1">
+        <v>655.6900000000001</v>
+      </c>
+      <c r="YG1" s="1">
+        <v>656.688</v>
+      </c>
+      <c r="YH1" s="1">
+        <v>657.686</v>
+      </c>
+      <c r="YI1" s="1">
+        <v>658.684</v>
+      </c>
+      <c r="YJ1" s="1">
+        <v>659.682</v>
+      </c>
+      <c r="YK1" s="1">
+        <v>660.6799999999999</v>
+      </c>
+      <c r="YL1" s="1">
+        <v>661.678</v>
+      </c>
+      <c r="YM1" s="1">
+        <v>662.676</v>
+      </c>
+      <c r="YN1" s="1">
+        <v>663.674</v>
+      </c>
+      <c r="YO1" s="1">
+        <v>664.672</v>
+      </c>
+      <c r="YP1" s="1">
+        <v>665.67</v>
+      </c>
+      <c r="YQ1" s="1">
+        <v>666.668</v>
+      </c>
+      <c r="YR1" s="1">
+        <v>667.6660000000001</v>
+      </c>
+      <c r="YS1" s="1">
+        <v>668.664</v>
+      </c>
+      <c r="YT1" s="1">
+        <v>669.662</v>
+      </c>
+      <c r="YU1" s="1">
+        <v>670.66</v>
+      </c>
+      <c r="YV1" s="1">
+        <v>671.658</v>
+      </c>
+      <c r="YW1" s="1">
+        <v>672.6559999999999</v>
+      </c>
+      <c r="YX1" s="1">
+        <v>673.654</v>
+      </c>
+      <c r="YY1" s="1">
+        <v>674.652</v>
+      </c>
+      <c r="YZ1" s="1">
+        <v>675.65</v>
+      </c>
+      <c r="ZA1" s="1">
+        <v>676.648</v>
+      </c>
+      <c r="ZB1" s="1">
+        <v>677.646</v>
+      </c>
+      <c r="ZC1" s="1">
+        <v>678.644</v>
+      </c>
+      <c r="ZD1" s="1">
+        <v>679.6420000000001</v>
+      </c>
+      <c r="ZE1" s="1">
+        <v>680.64</v>
+      </c>
+      <c r="ZF1" s="1">
+        <v>681.638</v>
+      </c>
+      <c r="ZG1" s="1">
+        <v>682.636</v>
+      </c>
+      <c r="ZH1" s="1">
+        <v>683.634</v>
+      </c>
+      <c r="ZI1" s="1">
+        <v>684.6319999999999</v>
+      </c>
+      <c r="ZJ1" s="1">
+        <v>685.63</v>
+      </c>
+      <c r="ZK1" s="1">
+        <v>686.628</v>
+      </c>
+      <c r="ZL1" s="1">
+        <v>687.626</v>
+      </c>
+      <c r="ZM1" s="1">
+        <v>688.624</v>
+      </c>
+      <c r="ZN1" s="1">
+        <v>689.622</v>
+      </c>
+      <c r="ZO1" s="1">
+        <v>690.62</v>
+      </c>
+      <c r="ZP1" s="1">
+        <v>691.6180000000001</v>
+      </c>
+      <c r="ZQ1" s="1">
+        <v>692.616</v>
+      </c>
+      <c r="ZR1" s="1">
+        <v>693.614</v>
+      </c>
+      <c r="ZS1" s="1">
+        <v>694.612</v>
+      </c>
+      <c r="ZT1" s="1">
+        <v>695.61</v>
+      </c>
+      <c r="ZU1" s="1">
+        <v>696.6079999999999</v>
+      </c>
+      <c r="ZV1" s="1">
+        <v>697.606</v>
+      </c>
+      <c r="ZW1" s="1">
+        <v>698.604</v>
+      </c>
+      <c r="ZX1" s="1">
+        <v>699.602</v>
+      </c>
+      <c r="ZY1" s="1">
+        <v>700.6</v>
+      </c>
+      <c r="ZZ1" s="1">
+        <v>701.598</v>
+      </c>
+      <c r="AAA1" s="1">
+        <v>702.596</v>
+      </c>
+      <c r="AAB1" s="1">
+        <v>703.5940000000001</v>
+      </c>
+      <c r="AAC1" s="1">
+        <v>704.592</v>
+      </c>
+      <c r="AAD1" s="1">
+        <v>705.59</v>
+      </c>
+      <c r="AAE1" s="1">
+        <v>706.588</v>
+      </c>
+      <c r="AAF1" s="1">
+        <v>707.586</v>
+      </c>
+      <c r="AAG1" s="1">
+        <v>708.5839999999999</v>
+      </c>
+      <c r="AAH1" s="1">
+        <v>709.582</v>
+      </c>
+      <c r="AAI1" s="1">
+        <v>710.58</v>
+      </c>
+      <c r="AAJ1" s="1">
+        <v>711.578</v>
+      </c>
+      <c r="AAK1" s="1">
+        <v>712.576</v>
+      </c>
+      <c r="AAL1" s="1">
+        <v>713.574</v>
+      </c>
+      <c r="AAM1" s="1">
+        <v>714.572</v>
+      </c>
+      <c r="AAN1" s="1">
+        <v>715.5700000000001</v>
+      </c>
+      <c r="AAO1" s="1">
+        <v>716.568</v>
+      </c>
+      <c r="AAP1" s="1">
+        <v>717.566</v>
+      </c>
+      <c r="AAQ1" s="1">
+        <v>718.564</v>
+      </c>
+      <c r="AAR1" s="1">
+        <v>719.562</v>
+      </c>
+      <c r="AAS1" s="1">
+        <v>720.5599999999999</v>
+      </c>
+      <c r="AAT1" s="1">
+        <v>721.558</v>
+      </c>
+      <c r="AAU1" s="1">
+        <v>722.556</v>
+      </c>
+      <c r="AAV1" s="1">
+        <v>723.554</v>
+      </c>
+      <c r="AAW1" s="1">
+        <v>724.552</v>
+      </c>
+      <c r="AAX1" s="1">
+        <v>725.55</v>
+      </c>
+      <c r="AAY1" s="1">
+        <v>726.548</v>
+      </c>
+      <c r="AAZ1" s="1">
+        <v>727.546</v>
+      </c>
+      <c r="ABA1" s="1">
+        <v>728.544</v>
+      </c>
+      <c r="ABB1" s="1">
+        <v>729.542</v>
+      </c>
+      <c r="ABC1" s="1">
+        <v>730.54</v>
+      </c>
+      <c r="ABD1" s="1">
+        <v>731.538</v>
+      </c>
+      <c r="ABE1" s="1">
+        <v>732.5359999999999</v>
+      </c>
+      <c r="ABF1" s="1">
+        <v>733.534</v>
+      </c>
+      <c r="ABG1" s="1">
+        <v>734.532</v>
+      </c>
+      <c r="ABH1" s="1">
+        <v>735.53</v>
+      </c>
+      <c r="ABI1" s="1">
+        <v>736.528</v>
+      </c>
+      <c r="ABJ1" s="1">
+        <v>737.526</v>
+      </c>
+      <c r="ABK1" s="1">
+        <v>738.524</v>
+      </c>
+      <c r="ABL1" s="1">
+        <v>739.522</v>
+      </c>
+      <c r="ABM1" s="1">
+        <v>740.52</v>
+      </c>
+      <c r="ABN1" s="1">
+        <v>741.518</v>
+      </c>
+      <c r="ABO1" s="1">
+        <v>742.516</v>
+      </c>
+      <c r="ABP1" s="1">
+        <v>743.514</v>
+      </c>
+      <c r="ABQ1" s="1">
+        <v>744.5119999999999</v>
+      </c>
+      <c r="ABR1" s="1">
+        <v>745.51</v>
+      </c>
+      <c r="ABS1" s="1">
+        <v>746.508</v>
+      </c>
+      <c r="ABT1" s="1">
+        <v>747.506</v>
+      </c>
+      <c r="ABU1" s="1">
+        <v>748.504</v>
+      </c>
+      <c r="ABV1" s="1">
+        <v>749.502</v>
+      </c>
+      <c r="ABW1" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="ABX1" s="1">
+        <v>751.498</v>
+      </c>
+      <c r="ABY1" s="1">
+        <v>752.496</v>
+      </c>
+      <c r="ABZ1" s="1">
+        <v>753.494</v>
+      </c>
+      <c r="ACA1" s="1">
+        <v>754.492</v>
+      </c>
+      <c r="ACB1" s="1">
+        <v>755.49</v>
+      </c>
+      <c r="ACC1" s="1">
+        <v>756.4880000000001</v>
+      </c>
+      <c r="ACD1" s="1">
+        <v>757.486</v>
+      </c>
+      <c r="ACE1" s="1">
+        <v>758.484</v>
+      </c>
+      <c r="ACF1" s="1">
+        <v>759.482</v>
+      </c>
+      <c r="ACG1" s="1">
+        <v>760.48</v>
+      </c>
+      <c r="ACH1" s="1">
+        <v>761.478</v>
+      </c>
+      <c r="ACI1" s="1">
+        <v>762.476</v>
+      </c>
+      <c r="ACJ1" s="1">
+        <v>763.474</v>
+      </c>
+      <c r="ACK1" s="1">
+        <v>764.472</v>
+      </c>
+      <c r="ACL1" s="1">
+        <v>765.47</v>
+      </c>
+      <c r="ACM1" s="1">
+        <v>766.468</v>
+      </c>
+      <c r="ACN1" s="1">
+        <v>767.466</v>
+      </c>
+      <c r="ACO1" s="1">
+        <v>768.4640000000001</v>
+      </c>
+      <c r="ACP1" s="1">
+        <v>769.462</v>
+      </c>
+      <c r="ACQ1" s="1">
+        <v>770.46</v>
+      </c>
+      <c r="ACR1" s="1">
+        <v>771.458</v>
+      </c>
+      <c r="ACS1" s="1">
+        <v>772.456</v>
+      </c>
+      <c r="ACT1" s="1">
+        <v>773.454</v>
+      </c>
+      <c r="ACU1" s="1">
+        <v>774.452</v>
+      </c>
+      <c r="ACV1" s="1">
+        <v>775.45</v>
+      </c>
+      <c r="ACW1" s="1">
+        <v>776.448</v>
+      </c>
+      <c r="ACX1" s="1">
+        <v>777.446</v>
+      </c>
+      <c r="ACY1" s="1">
+        <v>778.444</v>
+      </c>
+      <c r="ACZ1" s="1">
+        <v>779.442</v>
+      </c>
+      <c r="ADA1" s="1">
+        <v>780.4400000000001</v>
+      </c>
+      <c r="ADB1" s="1">
+        <v>781.438</v>
+      </c>
+      <c r="ADC1" s="1">
+        <v>782.436</v>
+      </c>
+      <c r="ADD1" s="1">
+        <v>783.434</v>
+      </c>
+      <c r="ADE1" s="1">
+        <v>784.432</v>
+      </c>
+      <c r="ADF1" s="1">
+        <v>785.4299999999999</v>
+      </c>
+      <c r="ADG1" s="1">
+        <v>786.428</v>
+      </c>
+      <c r="ADH1" s="1">
+        <v>787.426</v>
+      </c>
+      <c r="ADI1" s="1">
+        <v>788.424</v>
+      </c>
+      <c r="ADJ1" s="1">
+        <v>789.422</v>
+      </c>
+      <c r="ADK1" s="1">
+        <v>790.42</v>
+      </c>
+      <c r="ADL1" s="1">
+        <v>791.418</v>
+      </c>
+      <c r="ADM1" s="1">
+        <v>792.4160000000001</v>
+      </c>
+      <c r="ADN1" s="1">
+        <v>793.414</v>
+      </c>
+      <c r="ADO1" s="1">
+        <v>794.412</v>
+      </c>
+      <c r="ADP1" s="1">
+        <v>795.41</v>
+      </c>
+      <c r="ADQ1" s="1">
+        <v>796.408</v>
+      </c>
+      <c r="ADR1" s="1">
+        <v>797.4059999999999</v>
+      </c>
+      <c r="ADS1" s="1">
+        <v>798.404</v>
+      </c>
+      <c r="ADT1" s="1">
+        <v>799.402</v>
+      </c>
+      <c r="ADU1" s="1">
+        <v>800.4</v>
+      </c>
+      <c r="ADV1" s="1">
+        <v>801.398</v>
+      </c>
+      <c r="ADW1" s="1">
+        <v>802.396</v>
+      </c>
+      <c r="ADX1" s="1">
+        <v>803.394</v>
+      </c>
+      <c r="ADY1" s="1">
+        <v>804.3920000000001</v>
+      </c>
+      <c r="ADZ1" s="1">
+        <v>805.39</v>
+      </c>
+      <c r="AEA1" s="1">
+        <v>806.388</v>
+      </c>
+      <c r="AEB1" s="1">
+        <v>807.386</v>
+      </c>
+      <c r="AEC1" s="1">
+        <v>808.384</v>
+      </c>
+      <c r="AED1" s="1">
+        <v>809.3819999999999</v>
+      </c>
+      <c r="AEE1" s="1">
+        <v>810.38</v>
+      </c>
+      <c r="AEF1" s="1">
+        <v>811.378</v>
+      </c>
+      <c r="AEG1" s="1">
+        <v>812.376</v>
+      </c>
+      <c r="AEH1" s="1">
+        <v>813.374</v>
+      </c>
+      <c r="AEI1" s="1">
+        <v>814.372</v>
+      </c>
+      <c r="AEJ1" s="1">
+        <v>815.37</v>
+      </c>
+      <c r="AEK1" s="1">
+        <v>816.3680000000001</v>
+      </c>
+      <c r="AEL1" s="1">
+        <v>817.366</v>
+      </c>
+      <c r="AEM1" s="1">
+        <v>818.364</v>
+      </c>
+      <c r="AEN1" s="1">
+        <v>819.362</v>
+      </c>
+      <c r="AEO1" s="1">
+        <v>820.36</v>
+      </c>
+      <c r="AEP1" s="1">
+        <v>821.3579999999999</v>
+      </c>
+      <c r="AEQ1" s="1">
+        <v>822.356</v>
+      </c>
+      <c r="AER1" s="1">
+        <v>823.354</v>
+      </c>
+      <c r="AES1" s="1">
+        <v>824.352</v>
+      </c>
+      <c r="AET1" s="1">
+        <v>825.35</v>
+      </c>
+      <c r="AEU1" s="1">
+        <v>826.348</v>
+      </c>
+      <c r="AEV1" s="1">
+        <v>827.346</v>
+      </c>
+      <c r="AEW1" s="1">
+        <v>828.3440000000001</v>
+      </c>
+      <c r="AEX1" s="1">
+        <v>829.342</v>
+      </c>
+      <c r="AEY1" s="1">
+        <v>830.34</v>
+      </c>
+      <c r="AEZ1" s="1">
+        <v>831.338</v>
+      </c>
+      <c r="AFA1" s="1">
+        <v>832.336</v>
+      </c>
+      <c r="AFB1" s="1">
+        <v>833.3339999999999</v>
+      </c>
+      <c r="AFC1" s="1">
+        <v>834.332</v>
+      </c>
+      <c r="AFD1" s="1">
+        <v>835.33</v>
+      </c>
+      <c r="AFE1" s="1">
+        <v>836.328</v>
+      </c>
+      <c r="AFF1" s="1">
+        <v>837.326</v>
+      </c>
+      <c r="AFG1" s="1">
+        <v>838.324</v>
+      </c>
+      <c r="AFH1" s="1">
+        <v>839.322</v>
+      </c>
+      <c r="AFI1" s="1">
+        <v>840.3200000000001</v>
+      </c>
+      <c r="AFJ1" s="1">
+        <v>841.318</v>
+      </c>
+      <c r="AFK1" s="1">
+        <v>842.316</v>
+      </c>
+      <c r="AFL1" s="1">
+        <v>843.314</v>
+      </c>
+      <c r="AFM1" s="1">
+        <v>844.312</v>
+      </c>
+      <c r="AFN1" s="1">
+        <v>845.3099999999999</v>
+      </c>
+      <c r="AFO1" s="1">
+        <v>846.308</v>
+      </c>
+      <c r="AFP1" s="1">
+        <v>847.306</v>
+      </c>
+      <c r="AFQ1" s="1">
+        <v>848.304</v>
+      </c>
+      <c r="AFR1" s="1">
+        <v>849.302</v>
+      </c>
+      <c r="AFS1" s="1">
+        <v>850.3</v>
+      </c>
+      <c r="AFT1" s="1">
+        <v>851.298</v>
+      </c>
+      <c r="AFU1" s="1">
+        <v>852.296</v>
+      </c>
+      <c r="AFV1" s="1">
+        <v>853.294</v>
+      </c>
+      <c r="AFW1" s="1">
+        <v>854.292</v>
+      </c>
+      <c r="AFX1" s="1">
+        <v>855.29</v>
+      </c>
+      <c r="AFY1" s="1">
+        <v>856.288</v>
+      </c>
+      <c r="AFZ1" s="1">
+        <v>857.2859999999999</v>
+      </c>
+      <c r="AGA1" s="1">
+        <v>858.284</v>
+      </c>
+      <c r="AGB1" s="1">
+        <v>859.282</v>
+      </c>
+      <c r="AGC1" s="1">
+        <v>860.28</v>
+      </c>
+      <c r="AGD1" s="1">
+        <v>861.278</v>
+      </c>
+      <c r="AGE1" s="1">
+        <v>862.276</v>
+      </c>
+      <c r="AGF1" s="1">
+        <v>863.274</v>
+      </c>
+      <c r="AGG1" s="1">
+        <v>864.272</v>
+      </c>
+      <c r="AGH1" s="1">
+        <v>865.27</v>
+      </c>
+      <c r="AGI1" s="1">
+        <v>866.268</v>
+      </c>
+      <c r="AGJ1" s="1">
+        <v>867.266</v>
+      </c>
+      <c r="AGK1" s="1">
+        <v>868.264</v>
+      </c>
+      <c r="AGL1" s="1">
+        <v>869.2619999999999</v>
+      </c>
+      <c r="AGM1" s="1">
+        <v>870.26</v>
+      </c>
+      <c r="AGN1" s="1">
+        <v>871.258</v>
+      </c>
+      <c r="AGO1" s="1">
+        <v>872.256</v>
+      </c>
+      <c r="AGP1" s="1">
+        <v>873.254</v>
+      </c>
+      <c r="AGQ1" s="1">
+        <v>874.252</v>
+      </c>
+      <c r="AGR1" s="1">
+        <v>875.25</v>
+      </c>
+      <c r="AGS1" s="1">
+        <v>876.248</v>
+      </c>
+      <c r="AGT1" s="1">
+        <v>877.246</v>
+      </c>
+      <c r="AGU1" s="1">
+        <v>878.244</v>
+      </c>
+      <c r="AGV1" s="1">
+        <v>879.242</v>
+      </c>
+      <c r="AGW1" s="1">
+        <v>880.24</v>
+      </c>
+      <c r="AGX1" s="1">
+        <v>881.2380000000001</v>
+      </c>
+      <c r="AGY1" s="1">
+        <v>882.236</v>
+      </c>
+      <c r="AGZ1" s="1">
+        <v>883.234</v>
+      </c>
+      <c r="AHA1" s="1">
+        <v>884.232</v>
+      </c>
+      <c r="AHB1" s="1">
+        <v>885.23</v>
+      </c>
+      <c r="AHC1" s="1">
+        <v>886.228</v>
+      </c>
+      <c r="AHD1" s="1">
+        <v>887.226</v>
+      </c>
+      <c r="AHE1" s="1">
+        <v>888.224</v>
+      </c>
+      <c r="AHF1" s="1">
+        <v>889.222</v>
+      </c>
+      <c r="AHG1" s="1">
+        <v>890.22</v>
+      </c>
+      <c r="AHH1" s="1">
+        <v>891.218</v>
+      </c>
+      <c r="AHI1" s="1">
+        <v>892.216</v>
+      </c>
+      <c r="AHJ1" s="1">
+        <v>893.2140000000001</v>
+      </c>
+      <c r="AHK1" s="1">
+        <v>894.212</v>
+      </c>
+      <c r="AHL1" s="1">
+        <v>895.21</v>
+      </c>
+      <c r="AHM1" s="1">
+        <v>896.208</v>
+      </c>
+      <c r="AHN1" s="1">
+        <v>897.206</v>
+      </c>
+      <c r="AHO1" s="1">
+        <v>898.204</v>
+      </c>
+      <c r="AHP1" s="1">
+        <v>899.202</v>
+      </c>
+      <c r="AHQ1" s="1">
+        <v>900.2</v>
+      </c>
+      <c r="AHR1" s="1">
+        <v>901.198</v>
+      </c>
+      <c r="AHS1" s="1">
+        <v>902.196</v>
+      </c>
+      <c r="AHT1" s="1">
+        <v>903.194</v>
+      </c>
+      <c r="AHU1" s="1">
+        <v>904.192</v>
+      </c>
+      <c r="AHV1" s="1">
+        <v>905.1900000000001</v>
+      </c>
+      <c r="AHW1" s="1">
+        <v>906.188</v>
+      </c>
+      <c r="AHX1" s="1">
+        <v>907.186</v>
+      </c>
+      <c r="AHY1" s="1">
+        <v>908.184</v>
+      </c>
+      <c r="AHZ1" s="1">
+        <v>909.182</v>
+      </c>
+      <c r="AIA1" s="1">
+        <v>910.1799999999999</v>
+      </c>
+      <c r="AIB1" s="1">
+        <v>911.178</v>
+      </c>
+      <c r="AIC1" s="1">
+        <v>912.176</v>
+      </c>
+      <c r="AID1" s="1">
+        <v>913.174</v>
+      </c>
+      <c r="AIE1" s="1">
+        <v>914.172</v>
+      </c>
+      <c r="AIF1" s="1">
+        <v>915.17</v>
+      </c>
+      <c r="AIG1" s="1">
+        <v>916.168</v>
+      </c>
+      <c r="AIH1" s="1">
+        <v>917.1660000000001</v>
+      </c>
+      <c r="AII1" s="1">
+        <v>918.164</v>
+      </c>
+      <c r="AIJ1" s="1">
+        <v>919.162</v>
+      </c>
+      <c r="AIK1" s="1">
+        <v>920.16</v>
+      </c>
+      <c r="AIL1" s="1">
+        <v>921.158</v>
+      </c>
+      <c r="AIM1" s="1">
+        <v>922.1559999999999</v>
+      </c>
+      <c r="AIN1" s="1">
+        <v>923.154</v>
+      </c>
+      <c r="AIO1" s="1">
+        <v>924.152</v>
+      </c>
+      <c r="AIP1" s="1">
+        <v>925.15</v>
+      </c>
+      <c r="AIQ1" s="1">
+        <v>926.148</v>
+      </c>
+      <c r="AIR1" s="1">
+        <v>927.146</v>
+      </c>
+      <c r="AIS1" s="1">
+        <v>928.144</v>
+      </c>
+      <c r="AIT1" s="1">
+        <v>929.1420000000001</v>
+      </c>
+      <c r="AIU1" s="1">
+        <v>930.14</v>
+      </c>
+      <c r="AIV1" s="1">
+        <v>931.138</v>
+      </c>
+      <c r="AIW1" s="1">
+        <v>932.136</v>
+      </c>
+      <c r="AIX1" s="1">
+        <v>933.134</v>
+      </c>
+      <c r="AIY1" s="1">
+        <v>934.1319999999999</v>
+      </c>
+      <c r="AIZ1" s="1">
+        <v>935.13</v>
+      </c>
+      <c r="AJA1" s="1">
+        <v>936.128</v>
+      </c>
+      <c r="AJB1" s="1">
+        <v>937.126</v>
+      </c>
+      <c r="AJC1" s="1">
+        <v>938.124</v>
+      </c>
+      <c r="AJD1" s="1">
+        <v>939.122</v>
+      </c>
+      <c r="AJE1" s="1">
+        <v>940.12</v>
+      </c>
+      <c r="AJF1" s="1">
+        <v>941.1180000000001</v>
+      </c>
+      <c r="AJG1" s="1">
+        <v>942.116</v>
+      </c>
+      <c r="AJH1" s="1">
+        <v>943.114</v>
+      </c>
+      <c r="AJI1" s="1">
+        <v>944.112</v>
+      </c>
+      <c r="AJJ1" s="1">
+        <v>945.11</v>
+      </c>
+      <c r="AJK1" s="1">
+        <v>946.1079999999999</v>
+      </c>
+      <c r="AJL1" s="1">
+        <v>947.106</v>
+      </c>
+      <c r="AJM1" s="1">
+        <v>948.104</v>
+      </c>
+      <c r="AJN1" s="1">
+        <v>949.102</v>
+      </c>
+      <c r="AJO1" s="1">
+        <v>950.1</v>
+      </c>
+      <c r="AJP1" s="1">
+        <v>951.098</v>
+      </c>
+      <c r="AJQ1" s="1">
+        <v>952.096</v>
+      </c>
+      <c r="AJR1" s="1">
+        <v>953.0940000000001</v>
+      </c>
+      <c r="AJS1" s="1">
+        <v>954.092</v>
+      </c>
+      <c r="AJT1" s="1">
+        <v>955.09</v>
+      </c>
+      <c r="AJU1" s="1">
+        <v>956.088</v>
+      </c>
+      <c r="AJV1" s="1">
+        <v>957.086</v>
+      </c>
+      <c r="AJW1" s="1">
+        <v>958.0839999999999</v>
+      </c>
+      <c r="AJX1" s="1">
+        <v>959.082</v>
+      </c>
+      <c r="AJY1" s="1">
+        <v>960.08</v>
+      </c>
+      <c r="AJZ1" s="1">
+        <v>961.078</v>
+      </c>
+      <c r="AKA1" s="1">
+        <v>962.076</v>
+      </c>
+      <c r="AKB1" s="1">
+        <v>963.074</v>
+      </c>
+      <c r="AKC1" s="1">
+        <v>964.072</v>
+      </c>
+      <c r="AKD1" s="1">
+        <v>965.0700000000001</v>
+      </c>
+      <c r="AKE1" s="1">
+        <v>966.068</v>
+      </c>
+      <c r="AKF1" s="1">
+        <v>967.066</v>
+      </c>
+      <c r="AKG1" s="1">
+        <v>968.064</v>
+      </c>
+      <c r="AKH1" s="1">
+        <v>969.062</v>
+      </c>
+      <c r="AKI1" s="1">
+        <v>970.0599999999999</v>
+      </c>
+      <c r="AKJ1" s="1">
+        <v>971.058</v>
+      </c>
+      <c r="AKK1" s="1">
+        <v>972.056</v>
+      </c>
+      <c r="AKL1" s="1">
+        <v>973.054</v>
+      </c>
+      <c r="AKM1" s="1">
+        <v>974.052</v>
+      </c>
+      <c r="AKN1" s="1">
+        <v>975.05</v>
+      </c>
+      <c r="AKO1" s="1">
+        <v>976.048</v>
+      </c>
+      <c r="AKP1" s="1">
+        <v>977.046</v>
+      </c>
+      <c r="AKQ1" s="1">
+        <v>978.044</v>
+      </c>
+      <c r="AKR1" s="1">
+        <v>979.042</v>
+      </c>
+      <c r="AKS1" s="1">
+        <v>980.04</v>
+      </c>
+      <c r="AKT1" s="1">
+        <v>981.038</v>
+      </c>
+      <c r="AKU1" s="1">
+        <v>982.0359999999999</v>
+      </c>
+      <c r="AKV1" s="1">
+        <v>983.034</v>
+      </c>
+      <c r="AKW1" s="1">
+        <v>984.032</v>
+      </c>
+      <c r="AKX1" s="1">
+        <v>985.03</v>
+      </c>
+      <c r="AKY1" s="1">
+        <v>986.028</v>
+      </c>
+      <c r="AKZ1" s="1">
+        <v>987.026</v>
+      </c>
+      <c r="ALA1" s="1">
+        <v>988.024</v>
+      </c>
+      <c r="ALB1" s="1">
+        <v>989.022</v>
+      </c>
+      <c r="ALC1" s="1">
+        <v>990.02</v>
+      </c>
+      <c r="ALD1" s="1">
+        <v>991.018</v>
+      </c>
+      <c r="ALE1" s="1">
+        <v>992.016</v>
+      </c>
+      <c r="ALF1" s="1">
+        <v>993.014</v>
+      </c>
+      <c r="ALG1" s="1">
+        <v>994.0119999999999</v>
+      </c>
+      <c r="ALH1" s="1">
+        <v>995.01</v>
+      </c>
+      <c r="ALI1" s="1">
+        <v>996.008</v>
+      </c>
+      <c r="ALJ1" s="1">
+        <v>997.006</v>
+      </c>
+      <c r="ALK1" s="1">
+        <v>998.004</v>
+      </c>
+      <c r="ALL1" s="1">
+        <v>999.002</v>
+      </c>
+      <c r="ALM1" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-2.17641368640834</v>
+        <v>-3.27866681006136</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.80897410561851</v>
+        <v>-6.60667859026095</v>
       </c>
       <c r="C2" s="2">
-        <v>-2.81539781902261</v>
+        <v>-13.5270957317652</v>
       </c>
       <c r="D2" s="2">
-        <v>-2.81257927991902</v>
+        <v>-13.9112666200353</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.82915217241298</v>
+        <v>-7.51271876249105</v>
       </c>
       <c r="F2" s="2">
-        <v>-2.82789038372421</v>
+        <v>-4.80196666051545</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.83093765861587</v>
+        <v>-3.64535973660424</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.82588086048765</v>
+        <v>-3.25717876696855</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.82332191661965</v>
+        <v>-3.32606095526722</v>
       </c>
       <c r="J2" s="2">
-        <v>-2.8540236899681</v>
+        <v>-3.71149134587743</v>
       </c>
       <c r="K2" s="2">
-        <v>-2.9249786700427</v>
+        <v>-4.37343474834321</v>
       </c>
       <c r="L2" s="2">
-        <v>-2.97746217478478</v>
+        <v>-5.24321714777945</v>
       </c>
       <c r="M2" s="2">
-        <v>-3.05662932409349</v>
+        <v>-6.17985526223242</v>
       </c>
       <c r="N2" s="2">
-        <v>-3.21596528408126</v>
+        <v>-6.79986737782985</v>
       </c>
       <c r="O2" s="2">
-        <v>-3.48111062568795</v>
+        <v>-6.93492007711932</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-6.53028365952229</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5.9084945229544</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-5.39939133311631</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-5.06989655820819</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-4.93812955071955</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-5.03812350224634</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-5.19760054160452</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-5.54284156437476</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-5.92019187408741</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-6.3320820312319</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-6.73881113121105</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-7.11108982838801</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-7.42536044044166</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-7.71001318439026</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-8.034360534220241</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>-8.382139860092479</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-8.80698818549009</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-9.346434774969371</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>-9.92295037347977</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>-10.401295908251</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>-10.8675694796391</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>-11.0904746227903</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>-11.062245030336</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-10.7050484630964</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>-10.1606699856954</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>-9.51633316483808</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-8.885935601345871</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-8.28400743866834</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>-7.74136841554618</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>-7.23956241229793</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>-6.8156964365265</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>-6.47377876908668</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>-6.15373020701194</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>-5.89643236017485</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>-5.69039081376892</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>-5.48915042986515</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>-5.31990172701624</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-5.19122567245643</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>-5.08711590439087</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>-4.9616080059726</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>-4.88919474884683</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>-4.81193466294337</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>-4.73993243954982</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>-4.69653696130133</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-4.64109792162796</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>-4.59923818982323</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>-4.54350177197944</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-4.49878490555284</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-4.46648096146389</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>-4.45314624870138</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>-4.43423372493157</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>-4.38672052050505</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>-4.37542850122114</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>-4.35842349204162</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>-4.32675328973243</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>-4.30014018278301</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>-4.28592194330308</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>-4.25823812791723</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>-4.21884553882228</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>-4.19380120456426</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>-4.18394740374172</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>-4.16851643417415</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>-4.10541117350453</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>-4.116485913563</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>-4.07621235674053</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>-4.06341453829895</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>-4.01610598704995</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>-4.01480877859205</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>-4.00174459035568</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>-3.97493143974973</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>-3.94665425827628</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>-3.90492414471151</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>-3.94172152307357</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>-3.88845755224767</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>-3.86536983767309</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>-3.86909165405699</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>-3.8335855157067</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>-3.82474482075435</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>-3.80866477425386</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>-3.80557210159307</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>-3.77543104480976</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>-3.79474534825005</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>-3.79030197439756</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>-3.76907784036525</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>-3.74752909954473</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>-3.74729851000066</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>-3.73871491623196</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>-3.7730259622452</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>-3.72253044875111</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>-3.75059030284598</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>-3.73194544739352</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>-3.72047906532833</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>-3.68602476029379</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>-3.72002670992425</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>-3.70912357710828</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>-3.70265066670216</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>-3.69720387429009</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>-3.68744965031207</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>-3.68701595955508</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>-3.66686955719615</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>-3.68141326604369</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>-3.65712087015883</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>-3.66115718216943</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>-3.64733280852233</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>-3.62716338320729</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>-3.62396818231612</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>-3.61232506386181</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>-3.60844680647767</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>-3.59766210604854</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>-3.58315425982666</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>-3.57892920477515</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>-3.5411141809731</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>-3.54201303798462</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>-3.53135039601301</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>-3.52932897338021</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>-3.53757250587963</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>-3.52113849557033</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>-3.49632604720401</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>-3.49909731759621</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>-3.49507993482915</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>-3.49401660187784</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>-3.49760307960924</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>-3.50631689459353</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>-3.47702368897288</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>-3.49013378215761</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>-3.49717011923298</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>-3.50975685328945</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>-3.51225958856019</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>-3.50973168421074</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>-3.52198297292901</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>-3.5373295017756</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>-3.56419843756943</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>-3.58400830352694</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>-3.58622279706377</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>-3.61711736024559</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>-3.64360420706131</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>-3.67589416020974</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>-3.67801012384649</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>-3.69302914694108</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>-3.73588851546221</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>-3.76323710335723</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>-3.80034941436537</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>-3.82305077423852</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>-3.85022358862703</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>-3.8903876196593</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>-3.9057094492336</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>-3.96302836730516</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>-3.98405236723993</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>-4.00562447627334</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>-4.0572879578166</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>-4.08772561774353</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>-4.0989911460529</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>-4.11801178907706</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>-4.15536749127603</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>-4.16590063988479</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>-4.23916457764452</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>-4.22902872381975</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>-4.28207817129742</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>-4.26042039690741</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>-4.30219545711604</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>-4.34246556936415</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>-4.36809758792359</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>-4.36527667311124</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>-4.39412329894757</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>-4.41982133346171</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>-4.37826154774638</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>-4.40681258411054</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>-4.43308092469419</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>-4.43608990840821</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>-4.44543052506973</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>-4.44089608061546</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>-4.42796928911533</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>-4.4135144863216</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>-4.42177810919234</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>-4.41664255483776</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>-4.40877734549067</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>-4.39325808265171</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>-4.38810695252039</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>-4.32435553100947</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>-4.33018811296645</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>-4.31470111382563</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>-4.26949456292613</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>-4.23252152292776</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>-4.21469588093636</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>-4.18046002259814</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>-4.173402784638</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>-4.11097371185697</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>-4.08522213124889</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>-4.03710754302422</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>-4.01302397687861</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>-3.96305908748725</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>-3.93732531999364</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>-3.89340951980716</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>-3.86062031871969</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>-3.79468647360875</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>-3.81223662831408</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>-3.74216040661473</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>-3.72715275130675</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>-3.68606472636433</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>-3.65630466407067</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>-3.62602578883179</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>-3.57785529230668</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>-3.57490509080702</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>-3.53441938726423</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>-3.49534337800087</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>-3.48497266106525</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>-3.4638744418204</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>-3.42219438076126</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>-3.40784920644743</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>-3.38037713915571</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>-3.35796879455538</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>-3.31957360772388</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>-3.330664023645</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>-3.28056418864782</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>-3.29458205674426</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>-3.28848529071546</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>-3.25770683997178</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>-3.22451991454229</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>-3.21456628977752</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>-3.2205690173263</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>-3.18759381623272</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>-3.20214588504329</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>-3.15751920805993</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>-3.15790547218304</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>-3.14818867911786</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>-3.11735604168886</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>-3.12473678298487</v>
+      </c>
+      <c r="II2" s="2">
+        <v>-3.1229691794113</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>-3.12272307630269</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>-3.10875420256041</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>-3.11151035428233</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>-3.09695486206302</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>-3.07752422319686</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>-3.0953409046594</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>-3.07047281027889</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>-3.08529807667259</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>-3.06469469667373</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>-3.05819453814513</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>-3.09036329787177</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>-3.03630671463773</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>-3.0822434842602</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>-3.0451350765084</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>-3.05771701076499</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>-3.0647943349829</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>-3.07795350228618</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>-3.07675503850168</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>-3.0480529133019</v>
+      </c>
+      <c r="JC2" s="2">
+        <v>-3.05855463820618</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>-3.06407216850875</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>-3.03575356862898</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>-3.03365137349057</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>-3.05489859571105</v>
+      </c>
+      <c r="JH2" s="2">
+        <v>-3.05617998511383</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>-3.0654741796543</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>-3.06038455988451</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>-3.08114702200785</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>-3.05539825888617</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>-3.05371646977223</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>-3.06849619311179</v>
+      </c>
+      <c r="JO2" s="2">
+        <v>-3.05854009706327</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>-3.04397946399314</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>-3.06009695962516</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>-3.07791205077232</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>-3.09667786805499</v>
+      </c>
+      <c r="JT2" s="2">
+        <v>-3.04561797548375</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>-3.08089929594961</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>-3.06602970521894</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>-3.08738919204045</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>-3.08698457390874</v>
+      </c>
+      <c r="JY2" s="2">
+        <v>-3.07272307500633</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>-3.08722680424245</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>-3.08995193288413</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>-3.06752687660104</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>-3.09303230832703</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>-3.08735547627288</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>-3.08430856127564</v>
+      </c>
+      <c r="KF2" s="2">
+        <v>-3.10975600285841</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>-3.09449871595105</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>-3.1051585566364</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>-3.10470345770284</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>-3.12314463257113</v>
+      </c>
+      <c r="KK2" s="2">
+        <v>-3.12124422774063</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>-3.12406237343147</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>-3.14709310902396</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>-3.13874563607478</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>-3.10383163159444</v>
+      </c>
+      <c r="KP2" s="2">
+        <v>-3.14835021896031</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>-3.12491913121969</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>-3.14722028369147</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>-3.16057584604101</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>-3.14395309237425</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>-3.18082221485922</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>-3.16292897854047</v>
+      </c>
+      <c r="KW2" s="2">
+        <v>-3.16782247715022</v>
+      </c>
+      <c r="KX2" s="2">
+        <v>-3.17194296321901</v>
+      </c>
+      <c r="KY2" s="2">
+        <v>-3.19318293351813</v>
+      </c>
+      <c r="KZ2" s="2">
+        <v>-3.18366109252036</v>
+      </c>
+      <c r="LA2" s="2">
+        <v>-3.17831176047256</v>
+      </c>
+      <c r="LB2" s="2">
+        <v>-3.19364829492602</v>
+      </c>
+      <c r="LC2" s="2">
+        <v>-3.21098087377667</v>
+      </c>
+      <c r="LD2" s="2">
+        <v>-3.23582917834629</v>
+      </c>
+      <c r="LE2" s="2">
+        <v>-3.22255775862356</v>
+      </c>
+      <c r="LF2" s="2">
+        <v>-3.23700089897362</v>
+      </c>
+      <c r="LG2" s="2">
+        <v>-3.23079272002176</v>
+      </c>
+      <c r="LH2" s="2">
+        <v>-3.23647172437404</v>
+      </c>
+      <c r="LI2" s="2">
+        <v>-3.25049785834082</v>
+      </c>
+      <c r="LJ2" s="2">
+        <v>-3.25384993417764</v>
+      </c>
+      <c r="LK2" s="2">
+        <v>-3.27051199995773</v>
+      </c>
+      <c r="LL2" s="2">
+        <v>-3.28445545049978</v>
+      </c>
+      <c r="LM2" s="2">
+        <v>-3.27956746911476</v>
+      </c>
+      <c r="LN2" s="2">
+        <v>-3.29695347408416</v>
+      </c>
+      <c r="LO2" s="2">
+        <v>-3.30257253292992</v>
+      </c>
+      <c r="LP2" s="2">
+        <v>-3.3239293895054</v>
+      </c>
+      <c r="LQ2" s="2">
+        <v>-3.31799920654073</v>
+      </c>
+      <c r="LR2" s="2">
+        <v>-3.32832712182373</v>
+      </c>
+      <c r="LS2" s="2">
+        <v>-3.35737321104565</v>
+      </c>
+      <c r="LT2" s="2">
+        <v>-3.35184528283093</v>
+      </c>
+      <c r="LU2" s="2">
+        <v>-3.38024329596369</v>
+      </c>
+      <c r="LV2" s="2">
+        <v>-3.37152247841659</v>
+      </c>
+      <c r="LW2" s="2">
+        <v>-3.38065297829583</v>
+      </c>
+      <c r="LX2" s="2">
+        <v>-3.38698968783595</v>
+      </c>
+      <c r="LY2" s="2">
+        <v>-3.40065968643872</v>
+      </c>
+      <c r="LZ2" s="2">
+        <v>-3.42393929890189</v>
+      </c>
+      <c r="MA2" s="2">
+        <v>-3.44923634115631</v>
+      </c>
+      <c r="MB2" s="2">
+        <v>-3.43255395373883</v>
+      </c>
+      <c r="MC2" s="2">
+        <v>-3.43259171523799</v>
+      </c>
+      <c r="MD2" s="2">
+        <v>-3.43791478417969</v>
+      </c>
+      <c r="ME2" s="2">
+        <v>-3.45661172431525</v>
+      </c>
+      <c r="MF2" s="2">
+        <v>-3.43591632698745</v>
+      </c>
+      <c r="MG2" s="2">
+        <v>-3.46744466580308</v>
+      </c>
+      <c r="MH2" s="2">
+        <v>-3.44860088912217</v>
+      </c>
+      <c r="MI2" s="2">
+        <v>-3.4635721898552</v>
+      </c>
+      <c r="MJ2" s="2">
+        <v>-3.48874903303235</v>
+      </c>
+      <c r="MK2" s="2">
+        <v>-3.48039436073437</v>
+      </c>
+      <c r="ML2" s="2">
+        <v>-3.46819989696165</v>
+      </c>
+      <c r="MM2" s="2">
+        <v>-3.49734639335871</v>
+      </c>
+      <c r="MN2" s="2">
+        <v>-3.506135509276</v>
+      </c>
+      <c r="MO2" s="2">
+        <v>-3.50533275932462</v>
+      </c>
+      <c r="MP2" s="2">
+        <v>-3.50463427240027</v>
+      </c>
+      <c r="MQ2" s="2">
+        <v>-3.51627266753809</v>
+      </c>
+      <c r="MR2" s="2">
+        <v>-3.53341792569851</v>
+      </c>
+      <c r="MS2" s="2">
+        <v>-3.50247858215269</v>
+      </c>
+      <c r="MT2" s="2">
+        <v>-3.50340770076244</v>
+      </c>
+      <c r="MU2" s="2">
+        <v>-3.48908002981459</v>
+      </c>
+      <c r="MV2" s="2">
+        <v>-3.4807656214327</v>
+      </c>
+      <c r="MW2" s="2">
+        <v>-3.50199846041723</v>
+      </c>
+      <c r="MX2" s="2">
+        <v>-3.51486345891584</v>
+      </c>
+      <c r="MY2" s="2">
+        <v>-3.50620959228694</v>
+      </c>
+      <c r="MZ2" s="2">
+        <v>-3.50955923751355</v>
+      </c>
+      <c r="NA2" s="2">
+        <v>-3.51658914574446</v>
+      </c>
+      <c r="NB2" s="2">
+        <v>-3.4980326142126</v>
+      </c>
+      <c r="NC2" s="2">
+        <v>-3.51438711166636</v>
+      </c>
+      <c r="ND2" s="2">
+        <v>-3.51265596876621</v>
+      </c>
+      <c r="NE2" s="2">
+        <v>-3.50395301859842</v>
+      </c>
+      <c r="NF2" s="2">
+        <v>-3.49488875931126</v>
+      </c>
+      <c r="NG2" s="2">
+        <v>-3.48885893868453</v>
+      </c>
+      <c r="NH2" s="2">
+        <v>-3.50601509028997</v>
+      </c>
+      <c r="NI2" s="2">
+        <v>-3.4962794989175</v>
+      </c>
+      <c r="NJ2" s="2">
+        <v>-3.49000105657109</v>
+      </c>
+      <c r="NK2" s="2">
+        <v>-3.48059855028695</v>
+      </c>
+      <c r="NL2" s="2">
+        <v>-3.44585019075004</v>
+      </c>
+      <c r="NM2" s="2">
+        <v>-3.46028100972684</v>
+      </c>
+      <c r="NN2" s="2">
+        <v>-3.43941507667791</v>
+      </c>
+      <c r="NO2" s="2">
+        <v>-3.4307504257756</v>
+      </c>
+      <c r="NP2" s="2">
+        <v>-3.42101896097281</v>
+      </c>
+      <c r="NQ2" s="2">
+        <v>-3.43550183833104</v>
+      </c>
+      <c r="NR2" s="2">
+        <v>-3.42774022757707</v>
+      </c>
+      <c r="NS2" s="2">
+        <v>-3.40583680313758</v>
+      </c>
+      <c r="NT2" s="2">
+        <v>-3.39942588010354</v>
+      </c>
+      <c r="NU2" s="2">
+        <v>-3.39711996922615</v>
+      </c>
+      <c r="NV2" s="2">
+        <v>-3.36791432372517</v>
+      </c>
+      <c r="NW2" s="2">
+        <v>-3.36904037644127</v>
+      </c>
+      <c r="NX2" s="2">
+        <v>-3.36024138092452</v>
+      </c>
+      <c r="NY2" s="2">
+        <v>-3.34955052689947</v>
+      </c>
+      <c r="NZ2" s="2">
+        <v>-3.34393642351776</v>
+      </c>
+      <c r="OA2" s="2">
+        <v>-3.32045266395855</v>
+      </c>
+      <c r="OB2" s="2">
+        <v>-3.3140075824283</v>
+      </c>
+      <c r="OC2" s="2">
+        <v>-3.3343058540589</v>
+      </c>
+      <c r="OD2" s="2">
+        <v>-3.27966800196277</v>
+      </c>
+      <c r="OE2" s="2">
+        <v>-3.2902679617756</v>
+      </c>
+      <c r="OF2" s="2">
+        <v>-3.2604904540258</v>
+      </c>
+      <c r="OG2" s="2">
+        <v>-3.26416710426802</v>
+      </c>
+      <c r="OH2" s="2">
+        <v>-3.24806345021923</v>
+      </c>
+      <c r="OI2" s="2">
+        <v>-3.24637774033495</v>
+      </c>
+      <c r="OJ2" s="2">
+        <v>-3.24017486987849</v>
+      </c>
+      <c r="OK2" s="2">
+        <v>-3.22104752546093</v>
+      </c>
+      <c r="OL2" s="2">
+        <v>-3.18692469122031</v>
+      </c>
+      <c r="OM2" s="2">
+        <v>-3.18347823456488</v>
+      </c>
+      <c r="ON2" s="2">
+        <v>-3.1572204425832</v>
+      </c>
+      <c r="OO2" s="2">
+        <v>-3.14006373669057</v>
+      </c>
+      <c r="OP2" s="2">
+        <v>-3.14829374343258</v>
+      </c>
+      <c r="OQ2" s="2">
+        <v>-3.1582867710888</v>
+      </c>
+      <c r="OR2" s="2">
+        <v>-3.11003024820741</v>
+      </c>
+      <c r="OS2" s="2">
+        <v>-3.10873820372846</v>
+      </c>
+      <c r="OT2" s="2">
+        <v>-3.11933925477745</v>
+      </c>
+      <c r="OU2" s="2">
+        <v>-3.08691601693016</v>
+      </c>
+      <c r="OV2" s="2">
+        <v>-3.07821325369171</v>
+      </c>
+      <c r="OW2" s="2">
+        <v>-3.0485462688741</v>
+      </c>
+      <c r="OX2" s="2">
+        <v>-3.05167545557688</v>
+      </c>
+      <c r="OY2" s="2">
+        <v>-3.02800465940725</v>
+      </c>
+      <c r="OZ2" s="2">
+        <v>-3.00919902443674</v>
+      </c>
+      <c r="PA2" s="2">
+        <v>-2.98326052511406</v>
+      </c>
+      <c r="PB2" s="2">
+        <v>-2.98556504229082</v>
+      </c>
+      <c r="PC2" s="2">
+        <v>-2.96233050585181</v>
+      </c>
+      <c r="PD2" s="2">
+        <v>-2.96965445750919</v>
+      </c>
+      <c r="PE2" s="2">
+        <v>-2.9421518159413</v>
+      </c>
+      <c r="PF2" s="2">
+        <v>-2.93605323180174</v>
+      </c>
+      <c r="PG2" s="2">
+        <v>-2.90608801626937</v>
+      </c>
+      <c r="PH2" s="2">
+        <v>-2.90785229247331</v>
+      </c>
+      <c r="PI2" s="2">
+        <v>-2.89250076566614</v>
+      </c>
+      <c r="PJ2" s="2">
+        <v>-2.87576924214484</v>
+      </c>
+      <c r="PK2" s="2">
+        <v>-2.8396071937426</v>
+      </c>
+      <c r="PL2" s="2">
+        <v>-2.850115545856</v>
+      </c>
+      <c r="PM2" s="2">
+        <v>-2.83122058072545</v>
+      </c>
+      <c r="PN2" s="2">
+        <v>-2.82559362699729</v>
+      </c>
+      <c r="PO2" s="2">
+        <v>-2.80967615173046</v>
+      </c>
+      <c r="PP2" s="2">
+        <v>-2.82325684798493</v>
+      </c>
+      <c r="PQ2" s="2">
+        <v>-2.80749700088891</v>
+      </c>
+      <c r="PR2" s="2">
+        <v>-2.78123972589367</v>
+      </c>
+      <c r="PS2" s="2">
+        <v>-2.77249055484416</v>
+      </c>
+      <c r="PT2" s="2">
+        <v>-2.75137706697334</v>
+      </c>
+      <c r="PU2" s="2">
+        <v>-2.74510443253468</v>
+      </c>
+      <c r="PV2" s="2">
+        <v>-2.73628431294474</v>
+      </c>
+      <c r="PW2" s="2">
+        <v>-2.74146497182722</v>
+      </c>
+      <c r="PX2" s="2">
+        <v>-2.70450234762676</v>
+      </c>
+      <c r="PY2" s="2">
+        <v>-2.70872123057354</v>
+      </c>
+      <c r="PZ2" s="2">
+        <v>-2.70346489379832</v>
+      </c>
+      <c r="QA2" s="2">
+        <v>-2.6983758806462</v>
+      </c>
+      <c r="QB2" s="2">
+        <v>-2.68378854487599</v>
+      </c>
+      <c r="QC2" s="2">
+        <v>-2.68155083459372</v>
+      </c>
+      <c r="QD2" s="2">
+        <v>-2.65728220361273</v>
+      </c>
+      <c r="QE2" s="2">
+        <v>-2.68010213260988</v>
+      </c>
+      <c r="QF2" s="2">
+        <v>-2.65116929804077</v>
+      </c>
+      <c r="QG2" s="2">
+        <v>-2.65891659816163</v>
+      </c>
+      <c r="QH2" s="2">
+        <v>-2.66238391293526</v>
+      </c>
+      <c r="QI2" s="2">
+        <v>-2.67009103684556</v>
+      </c>
+      <c r="QJ2" s="2">
+        <v>-2.64731636844263</v>
+      </c>
+      <c r="QK2" s="2">
+        <v>-2.64256473255847</v>
+      </c>
+      <c r="QL2" s="2">
+        <v>-2.67394823420928</v>
+      </c>
+      <c r="QM2" s="2">
+        <v>-2.64939588002584</v>
+      </c>
+      <c r="QN2" s="2">
+        <v>-2.6604130459532</v>
+      </c>
+      <c r="QO2" s="2">
+        <v>-2.66291994418088</v>
+      </c>
+      <c r="QP2" s="2">
+        <v>-2.65831200467433</v>
+      </c>
+      <c r="QQ2" s="2">
+        <v>-2.63962300768018</v>
+      </c>
+      <c r="QR2" s="2">
+        <v>-2.63356936276518</v>
+      </c>
+      <c r="QS2" s="2">
+        <v>-2.66800648861401</v>
+      </c>
+      <c r="QT2" s="2">
+        <v>-2.66884693010105</v>
+      </c>
+      <c r="QU2" s="2">
+        <v>-2.66910708366067</v>
+      </c>
+      <c r="QV2" s="2">
+        <v>-2.70400782129512</v>
+      </c>
+      <c r="QW2" s="2">
+        <v>-2.67643680647291</v>
+      </c>
+      <c r="QX2" s="2">
+        <v>-2.6860313469574</v>
+      </c>
+      <c r="QY2" s="2">
+        <v>-2.69031866132937</v>
+      </c>
+      <c r="QZ2" s="2">
+        <v>-2.68685267547489</v>
+      </c>
+      <c r="RA2" s="2">
+        <v>-2.71183493382711</v>
+      </c>
+      <c r="RB2" s="2">
+        <v>-2.71342668392089</v>
+      </c>
+      <c r="RC2" s="2">
+        <v>-2.72625004491581</v>
+      </c>
+      <c r="RD2" s="2">
+        <v>-2.72881624928386</v>
+      </c>
+      <c r="RE2" s="2">
+        <v>-2.78096880148112</v>
+      </c>
+      <c r="RF2" s="2">
+        <v>-2.76746851365599</v>
+      </c>
+      <c r="RG2" s="2">
+        <v>-2.77933930017322</v>
+      </c>
+      <c r="RH2" s="2">
+        <v>-2.78366541958044</v>
+      </c>
+      <c r="RI2" s="2">
+        <v>-2.81232036609779</v>
+      </c>
+      <c r="RJ2" s="2">
+        <v>-2.83159764366079</v>
+      </c>
+      <c r="RK2" s="2">
+        <v>-2.85128878849892</v>
+      </c>
+      <c r="RL2" s="2">
+        <v>-2.83170306390667</v>
+      </c>
+      <c r="RM2" s="2">
+        <v>-2.8557243934324</v>
+      </c>
+      <c r="RN2" s="2">
+        <v>-2.87046142717758</v>
+      </c>
+      <c r="RO2" s="2">
+        <v>-2.89753429132713</v>
+      </c>
+      <c r="RP2" s="2">
+        <v>-2.89197014574498</v>
+      </c>
+      <c r="RQ2" s="2">
+        <v>-2.91392838016097</v>
+      </c>
+      <c r="RR2" s="2">
+        <v>-2.88150475109441</v>
+      </c>
+      <c r="RS2" s="2">
+        <v>-2.91532044758412</v>
+      </c>
+      <c r="RT2" s="2">
+        <v>-2.92063232137034</v>
+      </c>
+      <c r="RU2" s="2">
+        <v>-2.94129012810895</v>
+      </c>
+      <c r="RV2" s="2">
+        <v>-2.97134202050389</v>
+      </c>
+      <c r="RW2" s="2">
+        <v>-2.94429574495304</v>
+      </c>
+      <c r="RX2" s="2">
+        <v>-2.96450115385665</v>
+      </c>
+      <c r="RY2" s="2">
+        <v>-2.98172366597608</v>
+      </c>
+      <c r="RZ2" s="2">
+        <v>-2.95989911495768</v>
+      </c>
+      <c r="SA2" s="2">
+        <v>-2.97099540900776</v>
+      </c>
+      <c r="SB2" s="2">
+        <v>-2.95550685016847</v>
+      </c>
+      <c r="SC2" s="2">
+        <v>-2.95450032574863</v>
+      </c>
+      <c r="SD2" s="2">
+        <v>-2.97044400571061</v>
+      </c>
+      <c r="SE2" s="2">
+        <v>-2.96490989135382</v>
+      </c>
+      <c r="SF2" s="2">
+        <v>-2.94797139970993</v>
+      </c>
+      <c r="SG2" s="2">
+        <v>-2.97114969990816</v>
+      </c>
+      <c r="SH2" s="2">
+        <v>-2.93933846363643</v>
+      </c>
+      <c r="SI2" s="2">
+        <v>-2.9134781639805</v>
+      </c>
+      <c r="SJ2" s="2">
+        <v>-2.92298127444143</v>
+      </c>
+      <c r="SK2" s="2">
+        <v>-2.90743463085586</v>
+      </c>
+      <c r="SL2" s="2">
+        <v>-2.89946471604308</v>
+      </c>
+      <c r="SM2" s="2">
+        <v>-2.87466865982204</v>
+      </c>
+      <c r="SN2" s="2">
+        <v>-2.87604553414076</v>
+      </c>
+      <c r="SO2" s="2">
+        <v>-2.85561076800359</v>
+      </c>
+      <c r="SP2" s="2">
+        <v>-2.83768698958018</v>
+      </c>
+      <c r="SQ2" s="2">
+        <v>-2.8259672928314</v>
+      </c>
+      <c r="SR2" s="2">
+        <v>-2.80779783400219</v>
+      </c>
+      <c r="SS2" s="2">
+        <v>-2.7803069161774</v>
+      </c>
+      <c r="ST2" s="2">
+        <v>-2.77847617471972</v>
+      </c>
+      <c r="SU2" s="2">
+        <v>-2.75037856119519</v>
+      </c>
+      <c r="SV2" s="2">
+        <v>-2.73256653735845</v>
+      </c>
+      <c r="SW2" s="2">
+        <v>-2.72710956494884</v>
+      </c>
+      <c r="SX2" s="2">
+        <v>-2.72984094503143</v>
+      </c>
+      <c r="SY2" s="2">
+        <v>-2.69113879960888</v>
+      </c>
+      <c r="SZ2" s="2">
+        <v>-2.67561208569044</v>
+      </c>
+      <c r="TA2" s="2">
+        <v>-2.64579093400229</v>
+      </c>
+      <c r="TB2" s="2">
+        <v>-2.64433141206281</v>
+      </c>
+      <c r="TC2" s="2">
+        <v>-2.62532003774113</v>
+      </c>
+      <c r="TD2" s="2">
+        <v>-2.62454416210838</v>
+      </c>
+      <c r="TE2" s="2">
+        <v>-2.59930189721339</v>
+      </c>
+      <c r="TF2" s="2">
+        <v>-2.57956096461111</v>
+      </c>
+      <c r="TG2" s="2">
+        <v>-2.58562433421969</v>
+      </c>
+      <c r="TH2" s="2">
+        <v>-2.56844582024432</v>
+      </c>
+      <c r="TI2" s="2">
+        <v>-2.53242234647536</v>
+      </c>
+      <c r="TJ2" s="2">
+        <v>-2.53549727540752</v>
+      </c>
+      <c r="TK2" s="2">
+        <v>-2.5387316577465</v>
+      </c>
+      <c r="TL2" s="2">
+        <v>-2.49003248852833</v>
+      </c>
+      <c r="TM2" s="2">
+        <v>-2.49211984336523</v>
+      </c>
+      <c r="TN2" s="2">
+        <v>-2.46764514197245</v>
+      </c>
+      <c r="TO2" s="2">
+        <v>-2.45185166601627</v>
+      </c>
+      <c r="TP2" s="2">
+        <v>-2.40680386730677</v>
+      </c>
+      <c r="TQ2" s="2">
+        <v>-2.41700973693618</v>
+      </c>
+      <c r="TR2" s="2">
+        <v>-2.4284482341617</v>
+      </c>
+      <c r="TS2" s="2">
+        <v>-2.41788709614812</v>
+      </c>
+      <c r="TT2" s="2">
+        <v>-2.41963633191729</v>
+      </c>
+      <c r="TU2" s="2">
+        <v>-2.40047894866656</v>
+      </c>
+      <c r="TV2" s="2">
+        <v>-2.3863705205876</v>
+      </c>
+      <c r="TW2" s="2">
+        <v>-2.39135428568638</v>
+      </c>
+      <c r="TX2" s="2">
+        <v>-2.39003432171002</v>
+      </c>
+      <c r="TY2" s="2">
+        <v>-2.38701476656562</v>
+      </c>
+      <c r="TZ2" s="2">
+        <v>-2.37001811285539</v>
+      </c>
+      <c r="UA2" s="2">
+        <v>-2.35552165186258</v>
+      </c>
+      <c r="UB2" s="2">
+        <v>-2.36255085959992</v>
+      </c>
+      <c r="UC2" s="2">
+        <v>-2.3478941793452</v>
+      </c>
+      <c r="UD2" s="2">
+        <v>-2.34580416191283</v>
+      </c>
+      <c r="UE2" s="2">
+        <v>-2.33342902831229</v>
+      </c>
+      <c r="UF2" s="2">
+        <v>-2.35970412822425</v>
+      </c>
+      <c r="UG2" s="2">
+        <v>-2.32725473413384</v>
+      </c>
+      <c r="UH2" s="2">
+        <v>-2.33061352967521</v>
+      </c>
+      <c r="UI2" s="2">
+        <v>-2.34164377517771</v>
+      </c>
+      <c r="UJ2" s="2">
+        <v>-2.30924391146264</v>
+      </c>
+      <c r="UK2" s="2">
+        <v>-2.3310927204442</v>
+      </c>
+      <c r="UL2" s="2">
+        <v>-2.34259028404654</v>
+      </c>
+      <c r="UM2" s="2">
+        <v>-2.33312877275433</v>
+      </c>
+      <c r="UN2" s="2">
+        <v>-2.32788440304995</v>
+      </c>
+      <c r="UO2" s="2">
+        <v>-2.31725647238262</v>
+      </c>
+      <c r="UP2" s="2">
+        <v>-2.34621207587925</v>
+      </c>
+      <c r="UQ2" s="2">
+        <v>-2.32495582030026</v>
+      </c>
+      <c r="UR2" s="2">
+        <v>-2.31114309706844</v>
+      </c>
+      <c r="US2" s="2">
+        <v>-2.3000180343087</v>
+      </c>
+      <c r="UT2" s="2">
+        <v>-2.3242643564342</v>
+      </c>
+      <c r="UU2" s="2">
+        <v>-2.31858008669427</v>
+      </c>
+      <c r="UV2" s="2">
+        <v>-2.33420906898023</v>
+      </c>
+      <c r="UW2" s="2">
+        <v>-2.32254884712145</v>
+      </c>
+      <c r="UX2" s="2">
+        <v>-2.34433276869285</v>
+      </c>
+      <c r="UY2" s="2">
+        <v>-2.33391809476052</v>
+      </c>
+      <c r="UZ2" s="2">
+        <v>-2.32355028703798</v>
+      </c>
+      <c r="VA2" s="2">
+        <v>-2.32154337795278</v>
+      </c>
+      <c r="VB2" s="2">
+        <v>-2.33330857137768</v>
+      </c>
+      <c r="VC2" s="2">
+        <v>-2.34328548765322</v>
+      </c>
+      <c r="VD2" s="2">
+        <v>-2.34187285518891</v>
+      </c>
+      <c r="VE2" s="2">
+        <v>-2.33996249469605</v>
+      </c>
+      <c r="VF2" s="2">
+        <v>-2.36201821217367</v>
+      </c>
+      <c r="VG2" s="2">
+        <v>-2.37726263172446</v>
+      </c>
+      <c r="VH2" s="2">
+        <v>-2.35580051414825</v>
+      </c>
+      <c r="VI2" s="2">
+        <v>-2.36966052429342</v>
+      </c>
+      <c r="VJ2" s="2">
+        <v>-2.37484992345485</v>
+      </c>
+      <c r="VK2" s="2">
+        <v>-2.38516346999799</v>
+      </c>
+      <c r="VL2" s="2">
+        <v>-2.39402880275475</v>
+      </c>
+      <c r="VM2" s="2">
+        <v>-2.38049875220644</v>
+      </c>
+      <c r="VN2" s="2">
+        <v>-2.40458059994204</v>
+      </c>
+      <c r="VO2" s="2">
+        <v>-2.41470725458408</v>
+      </c>
+      <c r="VP2" s="2">
+        <v>-2.41109045586987</v>
+      </c>
+      <c r="VQ2" s="2">
+        <v>-2.40458217643201</v>
+      </c>
+      <c r="VR2" s="2">
+        <v>-2.41676460848211</v>
+      </c>
+      <c r="VS2" s="2">
+        <v>-2.42868571536585</v>
+      </c>
+      <c r="VT2" s="2">
+        <v>-2.45376908180931</v>
+      </c>
+      <c r="VU2" s="2">
+        <v>-2.46953420707681</v>
+      </c>
+      <c r="VV2" s="2">
+        <v>-2.47604513808828</v>
+      </c>
+      <c r="VW2" s="2">
+        <v>-2.46830325371745</v>
+      </c>
+      <c r="VX2" s="2">
+        <v>-2.4746147777642</v>
+      </c>
+      <c r="VY2" s="2">
+        <v>-2.47468620624873</v>
+      </c>
+      <c r="VZ2" s="2">
+        <v>-2.50739042040172</v>
+      </c>
+      <c r="WA2" s="2">
+        <v>-2.50571958554909</v>
+      </c>
+      <c r="WB2" s="2">
+        <v>-2.53845322041754</v>
+      </c>
+      <c r="WC2" s="2">
+        <v>-2.54227257573842</v>
+      </c>
+      <c r="WD2" s="2">
+        <v>-2.56531565051108</v>
+      </c>
+      <c r="WE2" s="2">
+        <v>-2.54797741388025</v>
+      </c>
+      <c r="WF2" s="2">
+        <v>-2.58526092133343</v>
+      </c>
+      <c r="WG2" s="2">
+        <v>-2.58497487842242</v>
+      </c>
+      <c r="WH2" s="2">
+        <v>-2.58544866221788</v>
+      </c>
+      <c r="WI2" s="2">
+        <v>-2.58557893734537</v>
+      </c>
+      <c r="WJ2" s="2">
+        <v>-2.62998904373078</v>
+      </c>
+      <c r="WK2" s="2">
+        <v>-2.63660588290082</v>
+      </c>
+      <c r="WL2" s="2">
+        <v>-2.61975725970907</v>
+      </c>
+      <c r="WM2" s="2">
+        <v>-2.65091557466567</v>
+      </c>
+      <c r="WN2" s="2">
+        <v>-2.65338186371196</v>
+      </c>
+      <c r="WO2" s="2">
+        <v>-2.65569575756056</v>
+      </c>
+      <c r="WP2" s="2">
+        <v>-2.6668276933719</v>
+      </c>
+      <c r="WQ2" s="2">
+        <v>-2.67843582479781</v>
+      </c>
+      <c r="WR2" s="2">
+        <v>-2.72107578358357</v>
+      </c>
+      <c r="WS2" s="2">
+        <v>-2.7055319732295</v>
+      </c>
+      <c r="WT2" s="2">
+        <v>-2.71265202194205</v>
+      </c>
+      <c r="WU2" s="2">
+        <v>-2.73305850684057</v>
+      </c>
+      <c r="WV2" s="2">
+        <v>-2.72468316248853</v>
+      </c>
+      <c r="WW2" s="2">
+        <v>-2.74896351042018</v>
+      </c>
+      <c r="WX2" s="2">
+        <v>-2.72794681361373</v>
+      </c>
+      <c r="WY2" s="2">
+        <v>-2.73895341073078</v>
+      </c>
+      <c r="WZ2" s="2">
+        <v>-2.74716910756374</v>
+      </c>
+      <c r="XA2" s="2">
+        <v>-2.77212708427564</v>
+      </c>
+      <c r="XB2" s="2">
+        <v>-2.75314865879458</v>
+      </c>
+      <c r="XC2" s="2">
+        <v>-2.76309731971833</v>
+      </c>
+      <c r="XD2" s="2">
+        <v>-2.76182491253369</v>
+      </c>
+      <c r="XE2" s="2">
+        <v>-2.74516301200201</v>
+      </c>
+      <c r="XF2" s="2">
+        <v>-2.75005588346105</v>
+      </c>
+      <c r="XG2" s="2">
+        <v>-2.76903840957942</v>
+      </c>
+      <c r="XH2" s="2">
+        <v>-2.8153616446076</v>
+      </c>
+      <c r="XI2" s="2">
+        <v>-2.77432763235432</v>
+      </c>
+      <c r="XJ2" s="2">
+        <v>-2.77855301850951</v>
+      </c>
+      <c r="XK2" s="2">
+        <v>-2.7685024836678</v>
+      </c>
+      <c r="XL2" s="2">
+        <v>-2.77015622446238</v>
+      </c>
+      <c r="XM2" s="2">
+        <v>-2.73001148855374</v>
+      </c>
+      <c r="XN2" s="2">
+        <v>-2.74904186677388</v>
+      </c>
+      <c r="XO2" s="2">
+        <v>-2.75176289889973</v>
+      </c>
+      <c r="XP2" s="2">
+        <v>-2.73267653919714</v>
+      </c>
+      <c r="XQ2" s="2">
+        <v>-2.74950025675065</v>
+      </c>
+      <c r="XR2" s="2">
+        <v>-2.70930401464729</v>
+      </c>
+      <c r="XS2" s="2">
+        <v>-2.71698451115256</v>
+      </c>
+      <c r="XT2" s="2">
+        <v>-2.72900389409669</v>
+      </c>
+      <c r="XU2" s="2">
+        <v>-2.69629354907675</v>
+      </c>
+      <c r="XV2" s="2">
+        <v>-2.71701855551372</v>
+      </c>
+      <c r="XW2" s="2">
+        <v>-2.66787435568179</v>
+      </c>
+      <c r="XX2" s="2">
+        <v>-2.68231806564681</v>
+      </c>
+      <c r="XY2" s="2">
+        <v>-2.66703035683699</v>
+      </c>
+      <c r="XZ2" s="2">
+        <v>-2.67248532187292</v>
+      </c>
+      <c r="YA2" s="2">
+        <v>-2.65011483866755</v>
+      </c>
+      <c r="YB2" s="2">
+        <v>-2.63401873898779</v>
+      </c>
+      <c r="YC2" s="2">
+        <v>-2.6483385883515</v>
+      </c>
+      <c r="YD2" s="2">
+        <v>-2.64263298918456</v>
+      </c>
+      <c r="YE2" s="2">
+        <v>-2.62726086501837</v>
+      </c>
+      <c r="YF2" s="2">
+        <v>-2.60234095933659</v>
+      </c>
+      <c r="YG2" s="2">
+        <v>-2.61377008230361</v>
+      </c>
+      <c r="YH2" s="2">
+        <v>-2.59800516769061</v>
+      </c>
+      <c r="YI2" s="2">
+        <v>-2.57124182214029</v>
+      </c>
+      <c r="YJ2" s="2">
+        <v>-2.57010670268416</v>
+      </c>
+      <c r="YK2" s="2">
+        <v>-2.54232791911692</v>
+      </c>
+      <c r="YL2" s="2">
+        <v>-2.54467061379018</v>
+      </c>
+      <c r="YM2" s="2">
+        <v>-2.54635432994517</v>
+      </c>
+      <c r="YN2" s="2">
+        <v>-2.52616338383096</v>
+      </c>
+      <c r="YO2" s="2">
+        <v>-2.53641163857433</v>
+      </c>
+      <c r="YP2" s="2">
+        <v>-2.50523546143896</v>
+      </c>
+      <c r="YQ2" s="2">
+        <v>-2.50054882281222</v>
+      </c>
+      <c r="YR2" s="2">
+        <v>-2.48871196159295</v>
+      </c>
+      <c r="YS2" s="2">
+        <v>-2.49604662373139</v>
+      </c>
+      <c r="YT2" s="2">
+        <v>-2.48371604691104</v>
+      </c>
+      <c r="YU2" s="2">
+        <v>-2.43803923808082</v>
+      </c>
+      <c r="YV2" s="2">
+        <v>-2.46255681324147</v>
+      </c>
+      <c r="YW2" s="2">
+        <v>-2.46531731738057</v>
+      </c>
+      <c r="YX2" s="2">
+        <v>-2.46792374160914</v>
+      </c>
+      <c r="YY2" s="2">
+        <v>-2.42860702894012</v>
+      </c>
+      <c r="YZ2" s="2">
+        <v>-2.45333136811053</v>
+      </c>
+      <c r="ZA2" s="2">
+        <v>-2.44283459398776</v>
+      </c>
+      <c r="ZB2" s="2">
+        <v>-2.44269718770461</v>
+      </c>
+      <c r="ZC2" s="2">
+        <v>-2.44816456290256</v>
+      </c>
+      <c r="ZD2" s="2">
+        <v>-2.40869732546968</v>
+      </c>
+      <c r="ZE2" s="2">
+        <v>-2.4171723152665</v>
+      </c>
+      <c r="ZF2" s="2">
+        <v>-2.41619456585331</v>
+      </c>
+      <c r="ZG2" s="2">
+        <v>-2.38547473660076</v>
+      </c>
+      <c r="ZH2" s="2">
+        <v>-2.39885705457076</v>
+      </c>
+      <c r="ZI2" s="2">
+        <v>-2.41051003891781</v>
+      </c>
+      <c r="ZJ2" s="2">
+        <v>-2.39598338593474</v>
+      </c>
+      <c r="ZK2" s="2">
+        <v>-2.3728192945405</v>
+      </c>
+      <c r="ZL2" s="2">
+        <v>-2.38089461136609</v>
+      </c>
+      <c r="ZM2" s="2">
+        <v>-2.38295312204797</v>
+      </c>
+      <c r="ZN2" s="2">
+        <v>-2.35881926195109</v>
+      </c>
+      <c r="ZO2" s="2">
+        <v>-2.34992052545351</v>
+      </c>
+      <c r="ZP2" s="2">
+        <v>-2.36677184214012</v>
+      </c>
+      <c r="ZQ2" s="2">
+        <v>-2.37061168461172</v>
+      </c>
+      <c r="ZR2" s="2">
+        <v>-2.35792463525664</v>
+      </c>
+      <c r="ZS2" s="2">
+        <v>-2.33590491577731</v>
+      </c>
+      <c r="ZT2" s="2">
+        <v>-2.35049293187904</v>
+      </c>
+      <c r="ZU2" s="2">
+        <v>-2.35791151078514</v>
+      </c>
+      <c r="ZV2" s="2">
+        <v>-2.3580209501355</v>
+      </c>
+      <c r="ZW2" s="2">
+        <v>-2.35393970827332</v>
+      </c>
+      <c r="ZX2" s="2">
+        <v>-2.36111363591928</v>
+      </c>
+      <c r="ZY2" s="2">
+        <v>-2.34272138416337</v>
+      </c>
+      <c r="ZZ2" s="2">
+        <v>-2.33959259916513</v>
+      </c>
+      <c r="AAA2" s="2">
+        <v>-2.32731528993285</v>
+      </c>
+      <c r="AAB2" s="2">
+        <v>-2.32166967531328</v>
+      </c>
+      <c r="AAC2" s="2">
+        <v>-2.33878506136917</v>
+      </c>
+      <c r="AAD2" s="2">
+        <v>-2.33860362618496</v>
+      </c>
+      <c r="AAE2" s="2">
+        <v>-2.31634767284365</v>
+      </c>
+      <c r="AAF2" s="2">
+        <v>-2.33380527936834</v>
+      </c>
+      <c r="AAG2" s="2">
+        <v>-2.32234206327614</v>
+      </c>
+      <c r="AAH2" s="2">
+        <v>-2.31489420285484</v>
+      </c>
+      <c r="AAI2" s="2">
+        <v>-2.30960863931106</v>
+      </c>
+      <c r="AAJ2" s="2">
+        <v>-2.33021713534195</v>
+      </c>
+      <c r="AAK2" s="2">
+        <v>-2.304777204034</v>
+      </c>
+      <c r="AAL2" s="2">
+        <v>-2.3026050477541</v>
+      </c>
+      <c r="AAM2" s="2">
+        <v>-2.3255109911955</v>
+      </c>
+      <c r="AAN2" s="2">
+        <v>-2.30234926784799</v>
+      </c>
+      <c r="AAO2" s="2">
+        <v>-2.29008945129268</v>
+      </c>
+      <c r="AAP2" s="2">
+        <v>-2.29938467798005</v>
+      </c>
+      <c r="AAQ2" s="2">
+        <v>-2.29742185801362</v>
+      </c>
+      <c r="AAR2" s="2">
+        <v>-2.32021296495692</v>
+      </c>
+      <c r="AAS2" s="2">
+        <v>-2.31116240820932</v>
+      </c>
+      <c r="AAT2" s="2">
+        <v>-2.31398334265407</v>
+      </c>
+      <c r="AAU2" s="2">
+        <v>-2.30431219114398</v>
+      </c>
+      <c r="AAV2" s="2">
+        <v>-2.30587764320951</v>
+      </c>
+      <c r="AAW2" s="2">
+        <v>-2.30401789699422</v>
+      </c>
+      <c r="AAX2" s="2">
+        <v>-2.30597626018252</v>
+      </c>
+      <c r="AAY2" s="2">
+        <v>-2.30536144108326</v>
+      </c>
+      <c r="AAZ2" s="2">
+        <v>-2.28935976987376</v>
+      </c>
+      <c r="ABA2" s="2">
+        <v>-2.29272551144945</v>
+      </c>
+      <c r="ABB2" s="2">
+        <v>-2.29142849761618</v>
+      </c>
+      <c r="ABC2" s="2">
+        <v>-2.30392912347271</v>
+      </c>
+      <c r="ABD2" s="2">
+        <v>-2.30929365885942</v>
+      </c>
+      <c r="ABE2" s="2">
+        <v>-2.3087230152204</v>
+      </c>
+      <c r="ABF2" s="2">
+        <v>-2.30907454292955</v>
+      </c>
+      <c r="ABG2" s="2">
+        <v>-2.31870504186075</v>
+      </c>
+      <c r="ABH2" s="2">
+        <v>-2.28617516252784</v>
+      </c>
+      <c r="ABI2" s="2">
+        <v>-2.32854737034113</v>
+      </c>
+      <c r="ABJ2" s="2">
+        <v>-2.32554938214685</v>
+      </c>
+      <c r="ABK2" s="2">
+        <v>-2.28688789507689</v>
+      </c>
+      <c r="ABL2" s="2">
+        <v>-2.31305431173027</v>
+      </c>
+      <c r="ABM2" s="2">
+        <v>-2.31731360992408</v>
+      </c>
+      <c r="ABN2" s="2">
+        <v>-2.30059271496923</v>
+      </c>
+      <c r="ABO2" s="2">
+        <v>-2.30061108266863</v>
+      </c>
+      <c r="ABP2" s="2">
+        <v>-2.32646595594366</v>
+      </c>
+      <c r="ABQ2" s="2">
+        <v>-2.33016160994964</v>
+      </c>
+      <c r="ABR2" s="2">
+        <v>-2.32459925204574</v>
+      </c>
+      <c r="ABS2" s="2">
+        <v>-2.3333366482678</v>
+      </c>
+      <c r="ABT2" s="2">
+        <v>-2.32141976481984</v>
+      </c>
+      <c r="ABU2" s="2">
+        <v>-2.33431756656957</v>
+      </c>
+      <c r="ABV2" s="2">
+        <v>-2.33961708927688</v>
+      </c>
+      <c r="ABW2" s="2">
+        <v>-2.32996340541546</v>
+      </c>
+      <c r="ABX2" s="2">
+        <v>-2.33861015910975</v>
+      </c>
+      <c r="ABY2" s="2">
+        <v>-2.36397489726148</v>
+      </c>
+      <c r="ABZ2" s="2">
+        <v>-2.34435507352214</v>
+      </c>
+      <c r="ACA2" s="2">
+        <v>-2.37257515488086</v>
+      </c>
+      <c r="ACB2" s="2">
+        <v>-2.35826197828551</v>
+      </c>
+      <c r="ACC2" s="2">
+        <v>-2.37748453064699</v>
+      </c>
+      <c r="ACD2" s="2">
+        <v>-2.40287239476397</v>
+      </c>
+      <c r="ACE2" s="2">
+        <v>-2.38490469819287</v>
+      </c>
+      <c r="ACF2" s="2">
+        <v>-2.38855365873079</v>
+      </c>
+      <c r="ACG2" s="2">
+        <v>-2.38541780229474</v>
+      </c>
+      <c r="ACH2" s="2">
+        <v>-2.38995887145115</v>
+      </c>
+      <c r="ACI2" s="2">
+        <v>-2.38901755859699</v>
+      </c>
+      <c r="ACJ2" s="2">
+        <v>-2.41053932066587</v>
+      </c>
+      <c r="ACK2" s="2">
+        <v>-2.3905066682878</v>
+      </c>
+      <c r="ACL2" s="2">
+        <v>-2.40697597636565</v>
+      </c>
+      <c r="ACM2" s="2">
+        <v>-2.38519124048661</v>
+      </c>
+      <c r="ACN2" s="2">
+        <v>-2.42944942045415</v>
+      </c>
+      <c r="ACO2" s="2">
+        <v>-2.41084603207354</v>
+      </c>
+      <c r="ACP2" s="2">
+        <v>-2.44786584859679</v>
+      </c>
+      <c r="ACQ2" s="2">
+        <v>-2.44357565755338</v>
+      </c>
+      <c r="ACR2" s="2">
+        <v>-2.44052053258618</v>
+      </c>
+      <c r="ACS2" s="2">
+        <v>-2.43858383657552</v>
+      </c>
+      <c r="ACT2" s="2">
+        <v>-2.43662339582789</v>
+      </c>
+      <c r="ACU2" s="2">
+        <v>-2.4477042327332</v>
+      </c>
+      <c r="ACV2" s="2">
+        <v>-2.45355067538688</v>
+      </c>
+      <c r="ACW2" s="2">
+        <v>-2.44738094345989</v>
+      </c>
+      <c r="ACX2" s="2">
+        <v>-2.45423302506679</v>
+      </c>
+      <c r="ACY2" s="2">
+        <v>-2.47323086902237</v>
+      </c>
+      <c r="ACZ2" s="2">
+        <v>-2.45549079923564</v>
+      </c>
+      <c r="ADA2" s="2">
+        <v>-2.48531163380033</v>
+      </c>
+      <c r="ADB2" s="2">
+        <v>-2.44970656680054</v>
+      </c>
+      <c r="ADC2" s="2">
+        <v>-2.50083466047696</v>
+      </c>
+      <c r="ADD2" s="2">
+        <v>-2.45242871065143</v>
+      </c>
+      <c r="ADE2" s="2">
+        <v>-2.47294859749577</v>
+      </c>
+      <c r="ADF2" s="2">
+        <v>-2.4629947334689</v>
+      </c>
+      <c r="ADG2" s="2">
+        <v>-2.45979861476061</v>
+      </c>
+      <c r="ADH2" s="2">
+        <v>-2.47639961869486</v>
+      </c>
+      <c r="ADI2" s="2">
+        <v>-2.46083069981487</v>
+      </c>
+      <c r="ADJ2" s="2">
+        <v>-2.48268566224661</v>
+      </c>
+      <c r="ADK2" s="2">
+        <v>-2.46540134454626</v>
+      </c>
+      <c r="ADL2" s="2">
+        <v>-2.4463991871794</v>
+      </c>
+      <c r="ADM2" s="2">
+        <v>-2.44575317038097</v>
+      </c>
+      <c r="ADN2" s="2">
+        <v>-2.45401696143878</v>
+      </c>
+      <c r="ADO2" s="2">
+        <v>-2.43572404824685</v>
+      </c>
+      <c r="ADP2" s="2">
+        <v>-2.45169824452604</v>
+      </c>
+      <c r="ADQ2" s="2">
+        <v>-2.43116171331546</v>
+      </c>
+      <c r="ADR2" s="2">
+        <v>-2.44296118473176</v>
+      </c>
+      <c r="ADS2" s="2">
+        <v>-2.4241655596857</v>
+      </c>
+      <c r="ADT2" s="2">
+        <v>-2.41120827100606</v>
+      </c>
+      <c r="ADU2" s="2">
+        <v>-2.40346090426048</v>
+      </c>
+      <c r="ADV2" s="2">
+        <v>-2.40526345827289</v>
+      </c>
+      <c r="ADW2" s="2">
+        <v>-2.39823412328054</v>
+      </c>
+      <c r="ADX2" s="2">
+        <v>-2.39798003431349</v>
+      </c>
+      <c r="ADY2" s="2">
+        <v>-2.37995616220984</v>
+      </c>
+      <c r="ADZ2" s="2">
+        <v>-2.37376538591243</v>
+      </c>
+      <c r="AEA2" s="2">
+        <v>-2.3501010395047</v>
+      </c>
+      <c r="AEB2" s="2">
+        <v>-2.35732524730063</v>
+      </c>
+      <c r="AEC2" s="2">
+        <v>-2.34742358701557</v>
+      </c>
+      <c r="AED2" s="2">
+        <v>-2.35348851101655</v>
+      </c>
+      <c r="AEE2" s="2">
+        <v>-2.34248368144959</v>
+      </c>
+      <c r="AEF2" s="2">
+        <v>-2.32319046373301</v>
+      </c>
+      <c r="AEG2" s="2">
+        <v>-2.3225058206175</v>
+      </c>
+      <c r="AEH2" s="2">
+        <v>-2.30403953961981</v>
+      </c>
+      <c r="AEI2" s="2">
+        <v>-2.29322282979747</v>
+      </c>
+      <c r="AEJ2" s="2">
+        <v>-2.30345383324905</v>
+      </c>
+      <c r="AEK2" s="2">
+        <v>-2.29139351671853</v>
+      </c>
+      <c r="AEL2" s="2">
+        <v>-2.26989118482708</v>
+      </c>
+      <c r="AEM2" s="2">
+        <v>-2.26646231768301</v>
+      </c>
+      <c r="AEN2" s="2">
+        <v>-2.2479834376445</v>
+      </c>
+      <c r="AEO2" s="2">
+        <v>-2.26346776578908</v>
+      </c>
+      <c r="AEP2" s="2">
+        <v>-2.22190491589149</v>
+      </c>
+      <c r="AEQ2" s="2">
+        <v>-2.20091885234476</v>
+      </c>
+      <c r="AER2" s="2">
+        <v>-2.23462592007596</v>
+      </c>
+      <c r="AES2" s="2">
+        <v>-2.24099246560065</v>
+      </c>
+      <c r="AET2" s="2">
+        <v>-2.22145562588353</v>
+      </c>
+      <c r="AEU2" s="2">
+        <v>-2.21567239986961</v>
+      </c>
+      <c r="AEV2" s="2">
+        <v>-2.2062857268522</v>
+      </c>
+      <c r="AEW2" s="2">
+        <v>-2.1985953072161</v>
+      </c>
+      <c r="AEX2" s="2">
+        <v>-2.17556841003789</v>
+      </c>
+      <c r="AEY2" s="2">
+        <v>-2.19465996406033</v>
+      </c>
+      <c r="AEZ2" s="2">
+        <v>-2.17184107374175</v>
+      </c>
+      <c r="AFA2" s="2">
+        <v>-2.17345625358636</v>
+      </c>
+      <c r="AFB2" s="2">
+        <v>-2.1804370745389</v>
+      </c>
+      <c r="AFC2" s="2">
+        <v>-2.16675764081395</v>
+      </c>
+      <c r="AFD2" s="2">
+        <v>-2.14965088186201</v>
+      </c>
+      <c r="AFE2" s="2">
+        <v>-2.14207550877607</v>
+      </c>
+      <c r="AFF2" s="2">
+        <v>-2.1377930313399</v>
+      </c>
+      <c r="AFG2" s="2">
+        <v>-2.12299894179522</v>
+      </c>
+      <c r="AFH2" s="2">
+        <v>-2.13958985193567</v>
+      </c>
+      <c r="AFI2" s="2">
+        <v>-2.14897988123904</v>
+      </c>
+      <c r="AFJ2" s="2">
+        <v>-2.13816920553589</v>
+      </c>
+      <c r="AFK2" s="2">
+        <v>-2.13364177632079</v>
+      </c>
+      <c r="AFL2" s="2">
+        <v>-2.11678806343313</v>
+      </c>
+      <c r="AFM2" s="2">
+        <v>-2.12340767211779</v>
+      </c>
+      <c r="AFN2" s="2">
+        <v>-2.11002696113851</v>
+      </c>
+      <c r="AFO2" s="2">
+        <v>-2.11412643172631</v>
+      </c>
+      <c r="AFP2" s="2">
+        <v>-2.12186763878749</v>
+      </c>
+      <c r="AFQ2" s="2">
+        <v>-2.1071238709226</v>
+      </c>
+      <c r="AFR2" s="2">
+        <v>-2.11633541681875</v>
+      </c>
+      <c r="AFS2" s="2">
+        <v>-2.10009406183794</v>
+      </c>
+      <c r="AFT2" s="2">
+        <v>-2.11012310827445</v>
+      </c>
+      <c r="AFU2" s="2">
+        <v>-2.10660564979172</v>
+      </c>
+      <c r="AFV2" s="2">
+        <v>-2.12186749987351</v>
+      </c>
+      <c r="AFW2" s="2">
+        <v>-2.12704227436207</v>
+      </c>
+      <c r="AFX2" s="2">
+        <v>-2.10552587737829</v>
+      </c>
+      <c r="AFY2" s="2">
+        <v>-2.09726927780127</v>
+      </c>
+      <c r="AFZ2" s="2">
+        <v>-2.09608839156801</v>
+      </c>
+      <c r="AGA2" s="2">
+        <v>-2.10694129799978</v>
+      </c>
+      <c r="AGB2" s="2">
+        <v>-2.08191243658815</v>
+      </c>
+      <c r="AGC2" s="2">
+        <v>-2.09818399380402</v>
+      </c>
+      <c r="AGD2" s="2">
+        <v>-2.07789254823074</v>
+      </c>
+      <c r="AGE2" s="2">
+        <v>-2.10204623121268</v>
+      </c>
+      <c r="AGF2" s="2">
+        <v>-2.12350194511049</v>
+      </c>
+      <c r="AGG2" s="2">
+        <v>-2.07887929472808</v>
+      </c>
+      <c r="AGH2" s="2">
+        <v>-2.12233295884041</v>
+      </c>
+      <c r="AGI2" s="2">
+        <v>-2.0982334748062</v>
+      </c>
+      <c r="AGJ2" s="2">
+        <v>-2.0871259356264</v>
+      </c>
+      <c r="AGK2" s="2">
+        <v>-2.0914841033817</v>
+      </c>
+      <c r="AGL2" s="2">
+        <v>-2.09954494246954</v>
+      </c>
+      <c r="AGM2" s="2">
+        <v>-2.0918223658211</v>
+      </c>
+      <c r="AGN2" s="2">
+        <v>-2.10436516722515</v>
+      </c>
+      <c r="AGO2" s="2">
+        <v>-2.10216667626311</v>
+      </c>
+      <c r="AGP2" s="2">
+        <v>-2.09471486556697</v>
+      </c>
+      <c r="AGQ2" s="2">
+        <v>-2.07657241999152</v>
+      </c>
+      <c r="AGR2" s="2">
+        <v>-2.11299516881058</v>
+      </c>
+      <c r="AGS2" s="2">
+        <v>-2.08420350423834</v>
+      </c>
+      <c r="AGT2" s="2">
+        <v>-2.08486137941483</v>
+      </c>
+      <c r="AGU2" s="2">
+        <v>-2.11252400988043</v>
+      </c>
+      <c r="AGV2" s="2">
+        <v>-2.11264997507322</v>
+      </c>
+      <c r="AGW2" s="2">
+        <v>-2.11798065109477</v>
+      </c>
+      <c r="AGX2" s="2">
+        <v>-2.11298956431111</v>
+      </c>
+      <c r="AGY2" s="2">
+        <v>-2.12585745279694</v>
+      </c>
+      <c r="AGZ2" s="2">
+        <v>-2.1126682456811</v>
+      </c>
+      <c r="AHA2" s="2">
+        <v>-2.13556593293472</v>
+      </c>
+      <c r="AHB2" s="2">
+        <v>-2.12760529780839</v>
+      </c>
+      <c r="AHC2" s="2">
+        <v>-2.11544139935949</v>
+      </c>
+      <c r="AHD2" s="2">
+        <v>-2.12640841127635</v>
+      </c>
+      <c r="AHE2" s="2">
+        <v>-2.14642147327323</v>
+      </c>
+      <c r="AHF2" s="2">
+        <v>-2.11598221436186</v>
+      </c>
+      <c r="AHG2" s="2">
+        <v>-2.15494815962876</v>
+      </c>
+      <c r="AHH2" s="2">
+        <v>-2.13758598095431</v>
+      </c>
+      <c r="AHI2" s="2">
+        <v>-2.1564300584705</v>
+      </c>
+      <c r="AHJ2" s="2">
+        <v>-2.15489422037608</v>
+      </c>
+      <c r="AHK2" s="2">
+        <v>-2.16799726265281</v>
+      </c>
+      <c r="AHL2" s="2">
+        <v>-2.14837241254461</v>
+      </c>
+      <c r="AHM2" s="2">
+        <v>-2.18679761204372</v>
+      </c>
+      <c r="AHN2" s="2">
+        <v>-2.16983386118118</v>
+      </c>
+      <c r="AHO2" s="2">
+        <v>-2.17771245059587</v>
+      </c>
+      <c r="AHP2" s="2">
+        <v>-2.17965753840465</v>
+      </c>
+      <c r="AHQ2" s="2">
+        <v>-2.17383464702851</v>
+      </c>
+      <c r="AHR2" s="2">
+        <v>-2.18132204033971</v>
+      </c>
+      <c r="AHS2" s="2">
+        <v>-2.19098145259812</v>
+      </c>
+      <c r="AHT2" s="2">
+        <v>-2.18187520667581</v>
+      </c>
+      <c r="AHU2" s="2">
+        <v>-2.19534936649803</v>
+      </c>
+      <c r="AHV2" s="2">
+        <v>-2.23182240755558</v>
+      </c>
+      <c r="AHW2" s="2">
+        <v>-2.20290043123858</v>
+      </c>
+      <c r="AHX2" s="2">
+        <v>-2.21192143920332</v>
+      </c>
+      <c r="AHY2" s="2">
+        <v>-2.21412967835548</v>
+      </c>
+      <c r="AHZ2" s="2">
+        <v>-2.22095960355852</v>
+      </c>
+      <c r="AIA2" s="2">
+        <v>-2.23069435719884</v>
+      </c>
+      <c r="AIB2" s="2">
+        <v>-2.25377546553119</v>
+      </c>
+      <c r="AIC2" s="2">
+        <v>-2.24430829201503</v>
+      </c>
+      <c r="AID2" s="2">
+        <v>-2.2620225069027</v>
+      </c>
+      <c r="AIE2" s="2">
+        <v>-2.25036202984041</v>
+      </c>
+      <c r="AIF2" s="2">
+        <v>-2.27187050528847</v>
+      </c>
+      <c r="AIG2" s="2">
+        <v>-2.28410724635557</v>
+      </c>
+      <c r="AIH2" s="2">
+        <v>-2.29104055090821</v>
+      </c>
+      <c r="AII2" s="2">
+        <v>-2.27736365756926</v>
+      </c>
+      <c r="AIJ2" s="2">
+        <v>-2.28783866395237</v>
+      </c>
+      <c r="AIK2" s="2">
+        <v>-2.30315299299847</v>
+      </c>
+      <c r="AIL2" s="2">
+        <v>-2.29148962065351</v>
+      </c>
+      <c r="AIM2" s="2">
+        <v>-2.31735333148</v>
+      </c>
+      <c r="AIN2" s="2">
+        <v>-2.30647190500419</v>
+      </c>
+      <c r="AIO2" s="2">
+        <v>-2.31230856207416</v>
+      </c>
+      <c r="AIP2" s="2">
+        <v>-2.3166133083387</v>
+      </c>
+      <c r="AIQ2" s="2">
+        <v>-2.30022340384211</v>
+      </c>
+      <c r="AIR2" s="2">
+        <v>-2.32638420847823</v>
+      </c>
+      <c r="AIS2" s="2">
+        <v>-2.31148802456318</v>
+      </c>
+      <c r="AIT2" s="2">
+        <v>-2.30394057745148</v>
+      </c>
+      <c r="AIU2" s="2">
+        <v>-2.32630862627094</v>
+      </c>
+      <c r="AIV2" s="2">
+        <v>-2.32807834378764</v>
+      </c>
+      <c r="AIW2" s="2">
+        <v>-2.35180728094049</v>
+      </c>
+      <c r="AIX2" s="2">
+        <v>-2.33918927360127</v>
+      </c>
+      <c r="AIY2" s="2">
+        <v>-2.33233290844597</v>
+      </c>
+      <c r="AIZ2" s="2">
+        <v>-2.33358664640559</v>
+      </c>
+      <c r="AJA2" s="2">
+        <v>-2.32655533830581</v>
+      </c>
+      <c r="AJB2" s="2">
+        <v>-2.32593852332483</v>
+      </c>
+      <c r="AJC2" s="2">
+        <v>-2.32803436966802</v>
+      </c>
+      <c r="AJD2" s="2">
+        <v>-2.32698117284977</v>
+      </c>
+      <c r="AJE2" s="2">
+        <v>-2.31893701416362</v>
+      </c>
+      <c r="AJF2" s="2">
+        <v>-2.32825212210014</v>
+      </c>
+      <c r="AJG2" s="2">
+        <v>-2.33808247421044</v>
+      </c>
+      <c r="AJH2" s="2">
+        <v>-2.35411836150583</v>
+      </c>
+      <c r="AJI2" s="2">
+        <v>-2.31325212396892</v>
+      </c>
+      <c r="AJJ2" s="2">
+        <v>-2.3312493206771</v>
+      </c>
+      <c r="AJK2" s="2">
+        <v>-2.31182255855229</v>
+      </c>
+      <c r="AJL2" s="2">
+        <v>-2.32457104235183</v>
+      </c>
+      <c r="AJM2" s="2">
+        <v>-2.32603184402379</v>
+      </c>
+      <c r="AJN2" s="2">
+        <v>-2.31056055805511</v>
+      </c>
+      <c r="AJO2" s="2">
+        <v>-2.31501755838325</v>
+      </c>
+      <c r="AJP2" s="2">
+        <v>-2.31922942038647</v>
+      </c>
+      <c r="AJQ2" s="2">
+        <v>-2.30140166996645</v>
+      </c>
+      <c r="AJR2" s="2">
+        <v>-2.32111183666405</v>
+      </c>
+      <c r="AJS2" s="2">
+        <v>-2.31081937108002</v>
+      </c>
+      <c r="AJT2" s="2">
+        <v>-2.29474802008675</v>
+      </c>
+      <c r="AJU2" s="2">
+        <v>-2.29848508033103</v>
+      </c>
+      <c r="AJV2" s="2">
+        <v>-2.27973954563109</v>
+      </c>
+      <c r="AJW2" s="2">
+        <v>-2.29158218178973</v>
+      </c>
+      <c r="AJX2" s="2">
+        <v>-2.2764844416565</v>
+      </c>
+      <c r="AJY2" s="2">
+        <v>-2.29062335791991</v>
+      </c>
+      <c r="AJZ2" s="2">
+        <v>-2.2541161544807</v>
+      </c>
+      <c r="AKA2" s="2">
+        <v>-2.27630148985993</v>
+      </c>
+      <c r="AKB2" s="2">
+        <v>-2.25737626638823</v>
+      </c>
+      <c r="AKC2" s="2">
+        <v>-2.27389068909846</v>
+      </c>
+      <c r="AKD2" s="2">
+        <v>-2.23363402813432</v>
+      </c>
+      <c r="AKE2" s="2">
+        <v>-2.26197766287566</v>
+      </c>
+      <c r="AKF2" s="2">
+        <v>-2.25807488340261</v>
+      </c>
+      <c r="AKG2" s="2">
+        <v>-2.24795580737137</v>
+      </c>
+      <c r="AKH2" s="2">
+        <v>-2.24190763825664</v>
+      </c>
+      <c r="AKI2" s="2">
+        <v>-2.22604772192497</v>
+      </c>
+      <c r="AKJ2" s="2">
+        <v>-2.24455585540654</v>
+      </c>
+      <c r="AKK2" s="2">
+        <v>-2.21832063686132</v>
+      </c>
+      <c r="AKL2" s="2">
+        <v>-2.2149782199742</v>
+      </c>
+      <c r="AKM2" s="2">
+        <v>-2.22934010221335</v>
+      </c>
+      <c r="AKN2" s="2">
+        <v>-2.23452804670547</v>
+      </c>
+      <c r="AKO2" s="2">
+        <v>-2.20261775727779</v>
+      </c>
+      <c r="AKP2" s="2">
+        <v>-2.20299819220574</v>
+      </c>
+      <c r="AKQ2" s="2">
+        <v>-2.21363944412477</v>
+      </c>
+      <c r="AKR2" s="2">
+        <v>-2.18059921886511</v>
+      </c>
+      <c r="AKS2" s="2">
+        <v>-2.18880650390261</v>
+      </c>
+      <c r="AKT2" s="2">
+        <v>-2.19132914527786</v>
+      </c>
+      <c r="AKU2" s="2">
+        <v>-2.17962197242296</v>
+      </c>
+      <c r="AKV2" s="2">
+        <v>-2.17184302871224</v>
+      </c>
+      <c r="AKW2" s="2">
+        <v>-2.17835594353992</v>
+      </c>
+      <c r="AKX2" s="2">
+        <v>-2.15830482979984</v>
+      </c>
+      <c r="AKY2" s="2">
+        <v>-2.16662782577498</v>
+      </c>
+      <c r="AKZ2" s="2">
+        <v>-2.18393858532326</v>
+      </c>
+      <c r="ALA2" s="2">
+        <v>-2.16981529617728</v>
+      </c>
+      <c r="ALB2" s="2">
+        <v>-2.14519148907164</v>
+      </c>
+      <c r="ALC2" s="2">
+        <v>-2.15641604770261</v>
+      </c>
+      <c r="ALD2" s="2">
+        <v>-2.14893226870733</v>
+      </c>
+      <c r="ALE2" s="2">
+        <v>-2.13865728868081</v>
+      </c>
+      <c r="ALF2" s="2">
+        <v>-2.11883125905869</v>
+      </c>
+      <c r="ALG2" s="2">
+        <v>-2.13842961547668</v>
+      </c>
+      <c r="ALH2" s="2">
+        <v>-2.1194483086218</v>
+      </c>
+      <c r="ALI2" s="2">
+        <v>-2.11616545985252</v>
+      </c>
+      <c r="ALJ2" s="2">
+        <v>-2.10938346584451</v>
+      </c>
+      <c r="ALK2" s="2">
+        <v>-2.12756990444057</v>
+      </c>
+      <c r="ALL2" s="2">
+        <v>-2.12388686738009</v>
+      </c>
+      <c r="ALM2" s="2">
+        <v>-2.10450996659874</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi2.xlsx
+++ b/python/Pi2.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-3.27866681006136</v>
+        <v>0.139248256665389</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.60667859026095</v>
+        <v>0.0295947716699865</v>
       </c>
       <c r="C2" s="2">
-        <v>-13.5270957317652</v>
+        <v>0.0187168463667705</v>
       </c>
       <c r="D2" s="2">
-        <v>-13.9112666200353</v>
+        <v>0.0135141871363862</v>
       </c>
       <c r="E2" s="2">
-        <v>-7.51271876249105</v>
+        <v>0.0264012356850779</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.80196666051545</v>
+        <v>0.00044459836928299</v>
       </c>
       <c r="G2" s="2">
-        <v>-3.64535973660424</v>
+        <v>0.0271007067471758</v>
       </c>
       <c r="H2" s="2">
-        <v>-3.25717876696855</v>
+        <v>0.0133648671488399</v>
       </c>
       <c r="I2" s="2">
-        <v>-3.32606095526722</v>
+        <v>-0.00310662258292192</v>
       </c>
       <c r="J2" s="2">
-        <v>-3.71149134587743</v>
+        <v>0.00953809913010902</v>
       </c>
       <c r="K2" s="2">
-        <v>-4.37343474834321</v>
+        <v>0.00675043286428442</v>
       </c>
       <c r="L2" s="2">
-        <v>-5.24321714777945</v>
+        <v>0.0187534256272214</v>
       </c>
       <c r="M2" s="2">
-        <v>-6.17985526223242</v>
+        <v>-0.00757553441400605</v>
       </c>
       <c r="N2" s="2">
-        <v>-6.79986737782985</v>
+        <v>0.00764650777618832</v>
       </c>
       <c r="O2" s="2">
-        <v>-6.93492007711932</v>
+        <v>-0.00729143658795858</v>
       </c>
       <c r="P2" s="2">
-        <v>-6.53028365952229</v>
+        <v>0.000204638850415093</v>
       </c>
       <c r="Q2" s="2">
-        <v>-5.9084945229544</v>
+        <v>-0.0113383536878367</v>
       </c>
       <c r="R2" s="2">
-        <v>-5.39939133311631</v>
+        <v>-0.0021408760825405</v>
       </c>
       <c r="S2" s="2">
-        <v>-5.06989655820819</v>
+        <v>-0.0168778541288187</v>
       </c>
       <c r="T2" s="2">
-        <v>-4.93812955071955</v>
+        <v>-0.0168782683840298</v>
       </c>
       <c r="U2" s="2">
-        <v>-5.03812350224634</v>
+        <v>-0.0189722732805514</v>
       </c>
       <c r="V2" s="2">
-        <v>-5.19760054160452</v>
+        <v>-0.0192249757350994</v>
       </c>
       <c r="W2" s="2">
-        <v>-5.54284156437476</v>
+        <v>-0.0295308019532431</v>
       </c>
       <c r="X2" s="2">
-        <v>-5.92019187408741</v>
+        <v>-0.0244595040842894</v>
       </c>
       <c r="Y2" s="2">
-        <v>-6.3320820312319</v>
+        <v>-0.0303117459418013</v>
       </c>
       <c r="Z2" s="2">
-        <v>-6.73881113121105</v>
+        <v>-0.0475030409987339</v>
       </c>
       <c r="AA2" s="2">
-        <v>-7.11108982838801</v>
+        <v>-0.0464594976493712</v>
       </c>
       <c r="AB2" s="2">
-        <v>-7.42536044044166</v>
+        <v>-0.052110811698963</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.71001318439026</v>
+        <v>-0.0723227791623737</v>
       </c>
       <c r="AD2" s="2">
-        <v>-8.034360534220241</v>
+        <v>-0.0637113694626294</v>
       </c>
       <c r="AE2" s="2">
-        <v>-8.382139860092479</v>
+        <v>-0.0807192830219861</v>
       </c>
       <c r="AF2" s="2">
-        <v>-8.80698818549009</v>
+        <v>-0.0843768051142301</v>
       </c>
       <c r="AG2" s="2">
-        <v>-9.346434774969371</v>
+        <v>-0.08217617750007621</v>
       </c>
       <c r="AH2" s="2">
-        <v>-9.92295037347977</v>
+        <v>-0.106473850396682</v>
       </c>
       <c r="AI2" s="2">
-        <v>-10.401295908251</v>
+        <v>-0.100877999963828</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-10.8675694796391</v>
+        <v>-0.107254385551848</v>
       </c>
       <c r="AK2" s="2">
-        <v>-11.0904746227903</v>
+        <v>-0.125386296132163</v>
       </c>
       <c r="AL2" s="2">
-        <v>-11.062245030336</v>
+        <v>-0.126742753676377</v>
       </c>
       <c r="AM2" s="2">
-        <v>-10.7050484630964</v>
+        <v>-0.12809824413487</v>
       </c>
       <c r="AN2" s="2">
-        <v>-10.1606699856954</v>
+        <v>-0.129512717570993</v>
       </c>
       <c r="AO2" s="2">
-        <v>-9.51633316483808</v>
+        <v>-0.146426230216286</v>
       </c>
       <c r="AP2" s="2">
-        <v>-8.885935601345871</v>
+        <v>-0.139171146180299</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-8.28400743866834</v>
+        <v>-0.150019485503095</v>
       </c>
       <c r="AR2" s="2">
-        <v>-7.74136841554618</v>
+        <v>-0.177297140529794</v>
       </c>
       <c r="AS2" s="2">
-        <v>-7.23956241229793</v>
+        <v>-0.172841795366857</v>
       </c>
       <c r="AT2" s="2">
-        <v>-6.8156964365265</v>
+        <v>-0.173222218772464</v>
       </c>
       <c r="AU2" s="2">
-        <v>-6.47377876908668</v>
+        <v>-0.187285667798751</v>
       </c>
       <c r="AV2" s="2">
-        <v>-6.15373020701194</v>
+        <v>-0.182792907181519</v>
       </c>
       <c r="AW2" s="2">
-        <v>-5.89643236017485</v>
+        <v>-0.194968947755068</v>
       </c>
       <c r="AX2" s="2">
-        <v>-5.69039081376892</v>
+        <v>-0.200858956585481</v>
       </c>
       <c r="AY2" s="2">
-        <v>-5.48915042986515</v>
+        <v>-0.203697237895955</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-5.31990172701624</v>
+        <v>-0.222093632406999</v>
       </c>
       <c r="BA2" s="2">
-        <v>-5.19122567245643</v>
+        <v>-0.224233551164142</v>
       </c>
       <c r="BB2" s="2">
-        <v>-5.08711590439087</v>
+        <v>-0.222415384566582</v>
       </c>
       <c r="BC2" s="2">
-        <v>-4.9616080059726</v>
+        <v>-0.239777210122594</v>
       </c>
       <c r="BD2" s="2">
-        <v>-4.88919474884683</v>
+        <v>-0.236706112718729</v>
       </c>
       <c r="BE2" s="2">
-        <v>-4.81193466294337</v>
+        <v>-0.247666099045214</v>
       </c>
       <c r="BF2" s="2">
-        <v>-4.73993243954982</v>
+        <v>-0.254263520353961</v>
       </c>
       <c r="BG2" s="2">
-        <v>-4.69653696130133</v>
+        <v>-0.24779171385191</v>
       </c>
       <c r="BH2" s="2">
-        <v>-4.64109792162796</v>
+        <v>-0.267229229639557</v>
       </c>
       <c r="BI2" s="2">
-        <v>-4.59923818982323</v>
+        <v>-0.261870399752353</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-4.54350177197944</v>
+        <v>-0.282841530549384</v>
       </c>
       <c r="BK2" s="2">
-        <v>-4.49878490555284</v>
+        <v>-0.269908821542104</v>
       </c>
       <c r="BL2" s="2">
-        <v>-4.46648096146389</v>
+        <v>-0.272920480388163</v>
       </c>
       <c r="BM2" s="2">
-        <v>-4.45314624870138</v>
+        <v>-0.287905493005559</v>
       </c>
       <c r="BN2" s="2">
-        <v>-4.43423372493157</v>
+        <v>-0.271665942086917</v>
       </c>
       <c r="BO2" s="2">
-        <v>-4.38672052050505</v>
+        <v>-0.294618674554859</v>
       </c>
       <c r="BP2" s="2">
-        <v>-4.37542850122114</v>
+        <v>-0.297046050594627</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-4.35842349204162</v>
+        <v>-0.283296938369809</v>
       </c>
       <c r="BR2" s="2">
-        <v>-4.32675328973243</v>
+        <v>-0.287169676175632</v>
       </c>
       <c r="BS2" s="2">
-        <v>-4.30014018278301</v>
+        <v>-0.279681955188607</v>
       </c>
       <c r="BT2" s="2">
-        <v>-4.28592194330308</v>
+        <v>-0.292072483666397</v>
       </c>
       <c r="BU2" s="2">
-        <v>-4.25823812791723</v>
+        <v>-0.292508878340018</v>
       </c>
       <c r="BV2" s="2">
-        <v>-4.21884553882228</v>
+        <v>-0.276740793486457</v>
       </c>
       <c r="BW2" s="2">
-        <v>-4.19380120456426</v>
+        <v>-0.295749398574773</v>
       </c>
       <c r="BX2" s="2">
-        <v>-4.18394740374172</v>
+        <v>-0.285771741362028</v>
       </c>
       <c r="BY2" s="2">
-        <v>-4.16851643417415</v>
+        <v>-0.300235518494263</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-4.10541117350453</v>
+        <v>-0.284508501844783</v>
       </c>
       <c r="CA2" s="2">
-        <v>-4.116485913563</v>
+        <v>-0.295880840360152</v>
       </c>
       <c r="CB2" s="2">
-        <v>-4.07621235674053</v>
+        <v>-0.289574808839556</v>
       </c>
       <c r="CC2" s="2">
-        <v>-4.06341453829895</v>
+        <v>-0.28585863027055</v>
       </c>
       <c r="CD2" s="2">
-        <v>-4.01610598704995</v>
+        <v>-0.273245350130649</v>
       </c>
       <c r="CE2" s="2">
-        <v>-4.01480877859205</v>
+        <v>-0.284492034853739</v>
       </c>
       <c r="CF2" s="2">
-        <v>-4.00174459035568</v>
+        <v>-0.264665543346907</v>
       </c>
       <c r="CG2" s="2">
-        <v>-3.97493143974973</v>
+        <v>-0.284235362294692</v>
       </c>
       <c r="CH2" s="2">
-        <v>-3.94665425827628</v>
+        <v>-0.271487901913738</v>
       </c>
       <c r="CI2" s="2">
-        <v>-3.90492414471151</v>
+        <v>-0.274734559339263</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-3.94172152307357</v>
+        <v>-0.286109764412066</v>
       </c>
       <c r="CK2" s="2">
-        <v>-3.88845755224767</v>
+        <v>-0.26760926371368</v>
       </c>
       <c r="CL2" s="2">
-        <v>-3.86536983767309</v>
+        <v>-0.266144816573504</v>
       </c>
       <c r="CM2" s="2">
-        <v>-3.86909165405699</v>
+        <v>-0.258432271336572</v>
       </c>
       <c r="CN2" s="2">
-        <v>-3.8335855157067</v>
+        <v>-0.272857734381825</v>
       </c>
       <c r="CO2" s="2">
-        <v>-3.82474482075435</v>
+        <v>-0.252291457930599</v>
       </c>
       <c r="CP2" s="2">
-        <v>-3.80866477425386</v>
+        <v>-0.242424863242399</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-3.80557210159307</v>
+        <v>-0.246837524888011</v>
       </c>
       <c r="CR2" s="2">
-        <v>-3.77543104480976</v>
+        <v>-0.251161037453427</v>
       </c>
       <c r="CS2" s="2">
-        <v>-3.79474534825005</v>
+        <v>-0.240281041485057</v>
       </c>
       <c r="CT2" s="2">
-        <v>-3.79030197439756</v>
+        <v>-0.226407549495259</v>
       </c>
       <c r="CU2" s="2">
-        <v>-3.76907784036525</v>
+        <v>-0.226962607270922</v>
       </c>
       <c r="CV2" s="2">
-        <v>-3.74752909954473</v>
+        <v>-0.237832371201713</v>
       </c>
       <c r="CW2" s="2">
-        <v>-3.74729851000066</v>
+        <v>-0.236817309944975</v>
       </c>
       <c r="CX2" s="2">
-        <v>-3.73871491623196</v>
+        <v>-0.231633823810123</v>
       </c>
       <c r="CY2" s="2">
-        <v>-3.7730259622452</v>
+        <v>-0.221321162256169</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-3.72253044875111</v>
+        <v>-0.217556728549616</v>
       </c>
       <c r="DA2" s="2">
-        <v>-3.75059030284598</v>
+        <v>-0.217670241240939</v>
       </c>
       <c r="DB2" s="2">
-        <v>-3.73194544739352</v>
+        <v>-0.222544534870514</v>
       </c>
       <c r="DC2" s="2">
-        <v>-3.72047906532833</v>
+        <v>-0.212324286260935</v>
       </c>
       <c r="DD2" s="2">
-        <v>-3.68602476029379</v>
+        <v>-0.216742891633052</v>
       </c>
       <c r="DE2" s="2">
-        <v>-3.72002670992425</v>
+        <v>-0.208877381962437</v>
       </c>
       <c r="DF2" s="2">
-        <v>-3.70912357710828</v>
+        <v>-0.212767457974577</v>
       </c>
       <c r="DG2" s="2">
-        <v>-3.70265066670216</v>
+        <v>-0.22975666500724</v>
       </c>
       <c r="DH2" s="2">
-        <v>-3.69720387429009</v>
+        <v>-0.212369394312028</v>
       </c>
       <c r="DI2" s="2">
-        <v>-3.68744965031207</v>
+        <v>-0.20003725792297</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-3.68701595955508</v>
+        <v>-0.217279483534611</v>
       </c>
       <c r="DK2" s="2">
-        <v>-3.66686955719615</v>
+        <v>-0.217864443838519</v>
       </c>
       <c r="DL2" s="2">
-        <v>-3.68141326604369</v>
+        <v>-0.214573987653886</v>
       </c>
       <c r="DM2" s="2">
-        <v>-3.65712087015883</v>
+        <v>-0.207669700499515</v>
       </c>
       <c r="DN2" s="2">
-        <v>-3.66115718216943</v>
+        <v>-0.210449555724692</v>
       </c>
       <c r="DO2" s="2">
-        <v>-3.64733280852233</v>
+        <v>-0.221420037102042</v>
       </c>
       <c r="DP2" s="2">
-        <v>-3.62716338320729</v>
+        <v>-0.205448041640152</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-3.62396818231612</v>
+        <v>-0.214302923055944</v>
       </c>
       <c r="DR2" s="2">
-        <v>-3.61232506386181</v>
+        <v>-0.201646231861889</v>
       </c>
       <c r="DS2" s="2">
-        <v>-3.60844680647767</v>
+        <v>-0.213967137534835</v>
       </c>
       <c r="DT2" s="2">
-        <v>-3.59766210604854</v>
+        <v>-0.213867331590216</v>
       </c>
       <c r="DU2" s="2">
-        <v>-3.58315425982666</v>
+        <v>-0.218902850268932</v>
       </c>
       <c r="DV2" s="2">
-        <v>-3.57892920477515</v>
+        <v>-0.215940221079224</v>
       </c>
       <c r="DW2" s="2">
-        <v>-3.5411141809731</v>
+        <v>-0.228438130843259</v>
       </c>
       <c r="DX2" s="2">
-        <v>-3.54201303798462</v>
+        <v>-0.231017262105309</v>
       </c>
       <c r="DY2" s="2">
-        <v>-3.53135039601301</v>
+        <v>-0.226368983403243</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-3.52932897338021</v>
+        <v>-0.231589537930116</v>
       </c>
       <c r="EA2" s="2">
-        <v>-3.53757250587963</v>
+        <v>-0.245323300691883</v>
       </c>
       <c r="EB2" s="2">
-        <v>-3.52113849557033</v>
+        <v>-0.238526855265507</v>
       </c>
       <c r="EC2" s="2">
-        <v>-3.49632604720401</v>
+        <v>-0.245828236129813</v>
       </c>
       <c r="ED2" s="2">
-        <v>-3.49909731759621</v>
+        <v>-0.24133238947233</v>
       </c>
       <c r="EE2" s="2">
-        <v>-3.49507993482915</v>
+        <v>-0.247354295313848</v>
       </c>
       <c r="EF2" s="2">
-        <v>-3.49401660187784</v>
+        <v>-0.253168339158266</v>
       </c>
       <c r="EG2" s="2">
-        <v>-3.49760307960924</v>
+        <v>-0.258939334002941</v>
       </c>
       <c r="EH2" s="2">
-        <v>-3.50631689459353</v>
+        <v>-0.275093414851233</v>
       </c>
       <c r="EI2" s="2">
-        <v>-3.47702368897288</v>
+        <v>-0.270263708655623</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-3.49013378215761</v>
+        <v>-0.273467311585807</v>
       </c>
       <c r="EK2" s="2">
-        <v>-3.49717011923298</v>
+        <v>-0.290914154922081</v>
       </c>
       <c r="EL2" s="2">
-        <v>-3.50975685328945</v>
+        <v>-0.294324078794849</v>
       </c>
       <c r="EM2" s="2">
-        <v>-3.51225958856019</v>
+        <v>-0.295312873611812</v>
       </c>
       <c r="EN2" s="2">
-        <v>-3.50973168421074</v>
+        <v>-0.302927573917087</v>
       </c>
       <c r="EO2" s="2">
-        <v>-3.52198297292901</v>
+        <v>-0.314175597825495</v>
       </c>
       <c r="EP2" s="2">
-        <v>-3.5373295017756</v>
+        <v>-0.313666120136143</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-3.56419843756943</v>
+        <v>-0.318004673374392</v>
       </c>
       <c r="ER2" s="2">
-        <v>-3.58400830352694</v>
+        <v>-0.329288067580449</v>
       </c>
       <c r="ES2" s="2">
-        <v>-3.58622279706377</v>
+        <v>-0.331481404758843</v>
       </c>
       <c r="ET2" s="2">
-        <v>-3.61711736024559</v>
+        <v>-0.345116443736404</v>
       </c>
       <c r="EU2" s="2">
-        <v>-3.64360420706131</v>
+        <v>-0.33852057834306</v>
       </c>
       <c r="EV2" s="2">
-        <v>-3.67589416020974</v>
+        <v>-0.351300179679467</v>
       </c>
       <c r="EW2" s="2">
-        <v>-3.67801012384649</v>
+        <v>-0.362173393337207</v>
       </c>
       <c r="EX2" s="2">
-        <v>-3.69302914694108</v>
+        <v>-0.363802629504421</v>
       </c>
       <c r="EY2" s="2">
-        <v>-3.73588851546221</v>
+        <v>-0.375910530870855</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-3.76323710335723</v>
+        <v>-0.370421137792458</v>
       </c>
       <c r="FA2" s="2">
-        <v>-3.80034941436537</v>
+        <v>-0.383386787729443</v>
       </c>
       <c r="FB2" s="2">
-        <v>-3.82305077423852</v>
+        <v>-0.394249143240403</v>
       </c>
       <c r="FC2" s="2">
-        <v>-3.85022358862703</v>
+        <v>-0.381364564906388</v>
       </c>
       <c r="FD2" s="2">
-        <v>-3.8903876196593</v>
+        <v>-0.393103071095076</v>
       </c>
       <c r="FE2" s="2">
-        <v>-3.9057094492336</v>
+        <v>-0.415209798975767</v>
       </c>
       <c r="FF2" s="2">
-        <v>-3.96302836730516</v>
+        <v>-0.415011683315447</v>
       </c>
       <c r="FG2" s="2">
-        <v>-3.98405236723993</v>
+        <v>-0.411012959183436</v>
       </c>
       <c r="FH2" s="2">
-        <v>-4.00562447627334</v>
+        <v>-0.426118254627141</v>
       </c>
       <c r="FI2" s="2">
-        <v>-4.0572879578166</v>
+        <v>-0.436895888018945</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-4.08772561774353</v>
+        <v>-0.435021757952237</v>
       </c>
       <c r="FK2" s="2">
-        <v>-4.0989911460529</v>
+        <v>-0.446064796355941</v>
       </c>
       <c r="FL2" s="2">
-        <v>-4.11801178907706</v>
+        <v>-0.438148196273924</v>
       </c>
       <c r="FM2" s="2">
-        <v>-4.15536749127603</v>
+        <v>-0.443420597578295</v>
       </c>
       <c r="FN2" s="2">
-        <v>-4.16590063988479</v>
+        <v>-0.442109586267101</v>
       </c>
       <c r="FO2" s="2">
-        <v>-4.23916457764452</v>
+        <v>-0.454653788555968</v>
       </c>
       <c r="FP2" s="2">
-        <v>-4.22902872381975</v>
+        <v>-0.450094473563968</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-4.28207817129742</v>
+        <v>-0.453522373926844</v>
       </c>
       <c r="FR2" s="2">
-        <v>-4.26042039690741</v>
+        <v>-0.470430320468721</v>
       </c>
       <c r="FS2" s="2">
-        <v>-4.30219545711604</v>
+        <v>-0.468160698665327</v>
       </c>
       <c r="FT2" s="2">
-        <v>-4.34246556936415</v>
+        <v>-0.456930465594662</v>
       </c>
       <c r="FU2" s="2">
-        <v>-4.36809758792359</v>
+        <v>-0.470866459443466</v>
       </c>
       <c r="FV2" s="2">
-        <v>-4.36527667311124</v>
+        <v>-0.453182783548308</v>
       </c>
       <c r="FW2" s="2">
-        <v>-4.39412329894757</v>
+        <v>-0.473321756525315</v>
       </c>
       <c r="FX2" s="2">
-        <v>-4.41982133346171</v>
+        <v>-0.469304919433772</v>
       </c>
       <c r="FY2" s="2">
-        <v>-4.37826154774638</v>
+        <v>-0.469649610339065</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-4.40681258411054</v>
+        <v>-0.47207389558083</v>
       </c>
       <c r="GA2" s="2">
-        <v>-4.43308092469419</v>
+        <v>-0.458661240639482</v>
       </c>
       <c r="GB2" s="2">
-        <v>-4.43608990840821</v>
+        <v>-0.462503543488358</v>
       </c>
       <c r="GC2" s="2">
-        <v>-4.44543052506973</v>
+        <v>-0.470883304195204</v>
       </c>
       <c r="GD2" s="2">
-        <v>-4.44089608061546</v>
+        <v>-0.460733542445552</v>
       </c>
       <c r="GE2" s="2">
-        <v>-4.42796928911533</v>
+        <v>-0.45879815148511</v>
       </c>
       <c r="GF2" s="2">
-        <v>-4.4135144863216</v>
+        <v>-0.475013032487485</v>
       </c>
       <c r="GG2" s="2">
-        <v>-4.42177810919234</v>
+        <v>-0.470207347749602</v>
       </c>
       <c r="GH2" s="2">
-        <v>-4.41664255483776</v>
+        <v>-0.455648423722655</v>
       </c>
       <c r="GI2" s="2">
-        <v>-4.40877734549067</v>
+        <v>-0.443177712257086</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-4.39325808265171</v>
+        <v>-0.454255485418782</v>
       </c>
       <c r="GK2" s="2">
-        <v>-4.38810695252039</v>
+        <v>-0.458756910338942</v>
       </c>
       <c r="GL2" s="2">
-        <v>-4.32435553100947</v>
+        <v>-0.452988598158796</v>
       </c>
       <c r="GM2" s="2">
-        <v>-4.33018811296645</v>
+        <v>-0.451879083351518</v>
       </c>
       <c r="GN2" s="2">
-        <v>-4.31470111382563</v>
+        <v>-0.439229189090363</v>
       </c>
       <c r="GO2" s="2">
-        <v>-4.26949456292613</v>
+        <v>-0.422573794098378</v>
       </c>
       <c r="GP2" s="2">
-        <v>-4.23252152292776</v>
+        <v>-0.437343161343563</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-4.21469588093636</v>
+        <v>-0.428468483506372</v>
       </c>
       <c r="GR2" s="2">
-        <v>-4.18046002259814</v>
+        <v>-0.424255220996117</v>
       </c>
       <c r="GS2" s="2">
-        <v>-4.173402784638</v>
+        <v>-0.430044061831632</v>
       </c>
       <c r="GT2" s="2">
-        <v>-4.11097371185697</v>
+        <v>-0.407616874159162</v>
       </c>
       <c r="GU2" s="2">
-        <v>-4.08522213124889</v>
+        <v>-0.426891592493867</v>
       </c>
       <c r="GV2" s="2">
-        <v>-4.03710754302422</v>
+        <v>-0.414125909594491</v>
       </c>
       <c r="GW2" s="2">
-        <v>-4.01302397687861</v>
+        <v>-0.410031523475206</v>
       </c>
       <c r="GX2" s="2">
-        <v>-3.96305908748725</v>
+        <v>-0.425593758765957</v>
       </c>
       <c r="GY2" s="2">
-        <v>-3.93732531999364</v>
+        <v>-0.384598251237023</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-3.89340951980716</v>
+        <v>-0.412864449033663</v>
       </c>
       <c r="HA2" s="2">
-        <v>-3.86062031871969</v>
+        <v>-0.396399741051169</v>
       </c>
       <c r="HB2" s="2">
-        <v>-3.79468647360875</v>
+        <v>-0.384862129546444</v>
       </c>
       <c r="HC2" s="2">
-        <v>-3.81223662831408</v>
+        <v>-0.399706948201756</v>
       </c>
       <c r="HD2" s="2">
-        <v>-3.74216040661473</v>
+        <v>-0.381752617655966</v>
       </c>
       <c r="HE2" s="2">
-        <v>-3.72715275130675</v>
+        <v>-0.385864576060734</v>
       </c>
       <c r="HF2" s="2">
-        <v>-3.68606472636433</v>
+        <v>-0.383452684939342</v>
       </c>
       <c r="HG2" s="2">
-        <v>-3.65630466407067</v>
+        <v>-0.377808504896887</v>
       </c>
       <c r="HH2" s="2">
-        <v>-3.62602578883179</v>
+        <v>-0.37797183113799</v>
       </c>
       <c r="HI2" s="2">
-        <v>-3.57785529230668</v>
+        <v>-0.374196651472502</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-3.57490509080702</v>
+        <v>-0.350545899502125</v>
       </c>
       <c r="HK2" s="2">
-        <v>-3.53441938726423</v>
+        <v>-0.361122477452638</v>
       </c>
       <c r="HL2" s="2">
-        <v>-3.49534337800087</v>
+        <v>-0.353849456143064</v>
       </c>
       <c r="HM2" s="2">
-        <v>-3.48497266106525</v>
+        <v>-0.364670438506503</v>
       </c>
       <c r="HN2" s="2">
-        <v>-3.4638744418204</v>
+        <v>-0.357875162831651</v>
       </c>
       <c r="HO2" s="2">
-        <v>-3.42219438076126</v>
+        <v>-0.359415199191933</v>
       </c>
       <c r="HP2" s="2">
-        <v>-3.40784920644743</v>
+        <v>-0.35759709795747</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-3.38037713915571</v>
+        <v>-0.366772134421361</v>
       </c>
       <c r="HR2" s="2">
-        <v>-3.35796879455538</v>
+        <v>-0.350085942472509</v>
       </c>
       <c r="HS2" s="2">
-        <v>-3.31957360772388</v>
+        <v>-0.366166796597839</v>
       </c>
       <c r="HT2" s="2">
-        <v>-3.330664023645</v>
+        <v>-0.354882221342319</v>
       </c>
       <c r="HU2" s="2">
-        <v>-3.28056418864782</v>
+        <v>-0.354425816673473</v>
       </c>
       <c r="HV2" s="2">
-        <v>-3.29458205674426</v>
+        <v>-0.349881201839584</v>
       </c>
       <c r="HW2" s="2">
-        <v>-3.28848529071546</v>
+        <v>-0.349500458163282</v>
       </c>
       <c r="HX2" s="2">
-        <v>-3.25770683997178</v>
+        <v>-0.347329207672863</v>
       </c>
       <c r="HY2" s="2">
-        <v>-3.22451991454229</v>
+        <v>-0.351666997606205</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-3.21456628977752</v>
+        <v>-0.368590989674676</v>
       </c>
       <c r="IA2" s="2">
-        <v>-3.2205690173263</v>
+        <v>-0.368670941339992</v>
       </c>
       <c r="IB2" s="2">
-        <v>-3.18759381623272</v>
+        <v>-0.376158997275664</v>
       </c>
       <c r="IC2" s="2">
-        <v>-3.20214588504329</v>
+        <v>-0.358702562857939</v>
       </c>
       <c r="ID2" s="2">
-        <v>-3.15751920805993</v>
+        <v>-0.375589354439778</v>
       </c>
       <c r="IE2" s="2">
-        <v>-3.15790547218304</v>
+        <v>-0.370133031974352</v>
       </c>
       <c r="IF2" s="2">
-        <v>-3.14818867911786</v>
+        <v>-0.375273644805551</v>
       </c>
       <c r="IG2" s="2">
-        <v>-3.11735604168886</v>
+        <v>-0.376020448842967</v>
       </c>
       <c r="IH2" s="2">
-        <v>-3.12473678298487</v>
+        <v>-0.388468959104665</v>
       </c>
       <c r="II2" s="2">
-        <v>-3.1229691794113</v>
+        <v>-0.381510602421709</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-3.12272307630269</v>
+        <v>-0.389079754146576</v>
       </c>
       <c r="IK2" s="2">
-        <v>-3.10875420256041</v>
+        <v>-0.380437074575661</v>
       </c>
       <c r="IL2" s="2">
-        <v>-3.11151035428233</v>
+        <v>-0.390969154077376</v>
       </c>
       <c r="IM2" s="2">
-        <v>-3.09695486206302</v>
+        <v>-0.398052584914352</v>
       </c>
       <c r="IN2" s="2">
-        <v>-3.07752422319686</v>
+        <v>-0.412440219781759</v>
       </c>
       <c r="IO2" s="2">
-        <v>-3.0953409046594</v>
+        <v>-0.399303463217782</v>
       </c>
       <c r="IP2" s="2">
-        <v>-3.07047281027889</v>
+        <v>-0.41649690967561</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-3.08529807667259</v>
+        <v>-0.423451993536722</v>
       </c>
       <c r="IR2" s="2">
-        <v>-3.06469469667373</v>
+        <v>-0.42295006152115</v>
       </c>
       <c r="IS2" s="2">
-        <v>-3.05819453814513</v>
+        <v>-0.432875241601827</v>
       </c>
       <c r="IT2" s="2">
-        <v>-3.09036329787177</v>
+        <v>-0.44825202174962</v>
       </c>
       <c r="IU2" s="2">
-        <v>-3.03630671463773</v>
+        <v>-0.441030251449324</v>
       </c>
       <c r="IV2" s="2">
-        <v>-3.0822434842602</v>
+        <v>-0.462886398668135</v>
       </c>
       <c r="IW2" s="2">
-        <v>-3.0451350765084</v>
+        <v>-0.461568987371565</v>
       </c>
       <c r="IX2" s="2">
-        <v>-3.05771701076499</v>
+        <v>-0.472216927987015</v>
       </c>
       <c r="IY2" s="2">
-        <v>-3.0647943349829</v>
+        <v>-0.485009260274393</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-3.07795350228618</v>
+        <v>-0.48427915548396</v>
       </c>
       <c r="JA2" s="2">
-        <v>-3.07675503850168</v>
+        <v>-0.480531244235821</v>
       </c>
       <c r="JB2" s="2">
-        <v>-3.0480529133019</v>
+        <v>-0.497332448300096</v>
       </c>
       <c r="JC2" s="2">
-        <v>-3.05855463820618</v>
+        <v>-0.510095139577152</v>
       </c>
       <c r="JD2" s="2">
-        <v>-3.06407216850875</v>
+        <v>-0.513644308392239</v>
       </c>
       <c r="JE2" s="2">
-        <v>-3.03575356862898</v>
+        <v>-0.519237737715359</v>
       </c>
       <c r="JF2" s="2">
-        <v>-3.03365137349057</v>
+        <v>-0.52991445923476</v>
       </c>
       <c r="JG2" s="2">
-        <v>-3.05489859571105</v>
+        <v>-0.518568792360249</v>
       </c>
       <c r="JH2" s="2">
-        <v>-3.05617998511383</v>
+        <v>-0.5506789207250889</v>
       </c>
       <c r="JI2" s="2">
-        <v>-3.0654741796543</v>
+        <v>-0.549411901857965</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-3.06038455988451</v>
+        <v>-0.552645175761295</v>
       </c>
       <c r="JK2" s="2">
-        <v>-3.08114702200785</v>
+        <v>-0.565763047670526</v>
       </c>
       <c r="JL2" s="2">
-        <v>-3.05539825888617</v>
+        <v>-0.568231157087799</v>
       </c>
       <c r="JM2" s="2">
-        <v>-3.05371646977223</v>
+        <v>-0.56753926158076</v>
       </c>
       <c r="JN2" s="2">
-        <v>-3.06849619311179</v>
+        <v>-0.576984779186013</v>
       </c>
       <c r="JO2" s="2">
-        <v>-3.05854009706327</v>
+        <v>-0.597059545239528</v>
       </c>
       <c r="JP2" s="2">
-        <v>-3.04397946399314</v>
+        <v>-0.586599195019294</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-3.06009695962516</v>
+        <v>-0.595798793188687</v>
       </c>
       <c r="JR2" s="2">
-        <v>-3.07791205077232</v>
+        <v>-0.587331143828696</v>
       </c>
       <c r="JS2" s="2">
-        <v>-3.09667786805499</v>
+        <v>-0.595943814260161</v>
       </c>
       <c r="JT2" s="2">
-        <v>-3.04561797548375</v>
+        <v>-0.605094325170091</v>
       </c>
       <c r="JU2" s="2">
-        <v>-3.08089929594961</v>
+        <v>-0.606818768707386</v>
       </c>
       <c r="JV2" s="2">
-        <v>-3.06602970521894</v>
+        <v>-0.616764573024922</v>
       </c>
       <c r="JW2" s="2">
-        <v>-3.08738919204045</v>
+        <v>-0.613465541168816</v>
       </c>
       <c r="JX2" s="2">
-        <v>-3.08698457390874</v>
+        <v>-0.634659894241159</v>
       </c>
       <c r="JY2" s="2">
-        <v>-3.07272307500633</v>
+        <v>-0.629798817924479</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-3.08722680424245</v>
+        <v>-0.631679140785432</v>
       </c>
       <c r="KA2" s="2">
-        <v>-3.08995193288413</v>
+        <v>-0.617771689948014</v>
       </c>
       <c r="KB2" s="2">
-        <v>-3.06752687660104</v>
+        <v>-0.636491696384805</v>
       </c>
       <c r="KC2" s="2">
-        <v>-3.09303230832703</v>
+        <v>-0.633783989467002</v>
       </c>
       <c r="KD2" s="2">
-        <v>-3.08735547627288</v>
+        <v>-0.643524805941646</v>
       </c>
       <c r="KE2" s="2">
-        <v>-3.08430856127564</v>
+        <v>-0.64742956691186</v>
       </c>
       <c r="KF2" s="2">
-        <v>-3.10975600285841</v>
+        <v>-0.634283553029008</v>
       </c>
       <c r="KG2" s="2">
-        <v>-3.09449871595105</v>
+        <v>-0.643049824874965</v>
       </c>
       <c r="KH2" s="2">
-        <v>-3.1051585566364</v>
+        <v>-0.652337324735771</v>
       </c>
       <c r="KI2" s="2">
-        <v>-3.10470345770284</v>
+        <v>-0.644844291995191</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-3.12314463257113</v>
+        <v>-0.62398401171235</v>
       </c>
       <c r="KK2" s="2">
-        <v>-3.12124422774063</v>
+        <v>-0.654075980665985</v>
       </c>
       <c r="KL2" s="2">
-        <v>-3.12406237343147</v>
+        <v>-0.639189561121897</v>
       </c>
       <c r="KM2" s="2">
-        <v>-3.14709310902396</v>
+        <v>-0.624717002769824</v>
       </c>
       <c r="KN2" s="2">
-        <v>-3.13874563607478</v>
+        <v>-0.618751766838833</v>
       </c>
       <c r="KO2" s="2">
-        <v>-3.10383163159444</v>
+        <v>-0.626168014532529</v>
       </c>
       <c r="KP2" s="2">
-        <v>-3.14835021896031</v>
+        <v>-0.626770568832687</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-3.12491913121969</v>
+        <v>-0.611767213330326</v>
       </c>
       <c r="KR2" s="2">
-        <v>-3.14722028369147</v>
+        <v>-0.616653009958419</v>
       </c>
       <c r="KS2" s="2">
-        <v>-3.16057584604101</v>
+        <v>-0.61523899446259</v>
       </c>
       <c r="KT2" s="2">
-        <v>-3.14395309237425</v>
+        <v>-0.615402160739673</v>
       </c>
       <c r="KU2" s="2">
-        <v>-3.18082221485922</v>
+        <v>-0.607613183748009</v>
       </c>
       <c r="KV2" s="2">
-        <v>-3.16292897854047</v>
+        <v>-0.596412420701581</v>
       </c>
       <c r="KW2" s="2">
-        <v>-3.16782247715022</v>
+        <v>-0.609820570009958</v>
       </c>
       <c r="KX2" s="2">
-        <v>-3.17194296321901</v>
+        <v>-0.5830203697841631</v>
       </c>
       <c r="KY2" s="2">
-        <v>-3.19318293351813</v>
+        <v>-0.6057713959643301</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-3.18366109252036</v>
+        <v>-0.597468123105576</v>
       </c>
       <c r="LA2" s="2">
-        <v>-3.17831176047256</v>
+        <v>-0.569721820347702</v>
       </c>
       <c r="LB2" s="2">
-        <v>-3.19364829492602</v>
+        <v>-0.593144489128474</v>
       </c>
       <c r="LC2" s="2">
-        <v>-3.21098087377667</v>
+        <v>-0.58998870210235</v>
       </c>
       <c r="LD2" s="2">
-        <v>-3.23582917834629</v>
+        <v>-0.5678290300420999</v>
       </c>
       <c r="LE2" s="2">
-        <v>-3.22255775862356</v>
+        <v>-0.57014904396732</v>
       </c>
       <c r="LF2" s="2">
-        <v>-3.23700089897362</v>
+        <v>-0.569105980896358</v>
       </c>
       <c r="LG2" s="2">
-        <v>-3.23079272002176</v>
+        <v>-0.561120293787054</v>
       </c>
       <c r="LH2" s="2">
-        <v>-3.23647172437404</v>
+        <v>-0.561445678518402</v>
       </c>
       <c r="LI2" s="2">
-        <v>-3.25049785834082</v>
+        <v>-0.565050474363859</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-3.25384993417764</v>
+        <v>-0.545941108053821</v>
       </c>
       <c r="LK2" s="2">
-        <v>-3.27051199995773</v>
+        <v>-0.558922303033929</v>
       </c>
       <c r="LL2" s="2">
-        <v>-3.28445545049978</v>
+        <v>-0.548575286236</v>
       </c>
       <c r="LM2" s="2">
-        <v>-3.27956746911476</v>
+        <v>-0.529027160831401</v>
       </c>
       <c r="LN2" s="2">
-        <v>-3.29695347408416</v>
+        <v>-0.532331051499527</v>
       </c>
       <c r="LO2" s="2">
-        <v>-3.30257253292992</v>
+        <v>-0.544495227847134</v>
       </c>
       <c r="LP2" s="2">
-        <v>-3.3239293895054</v>
+        <v>-0.520370992639925</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-3.31799920654073</v>
+        <v>-0.523273361319076</v>
       </c>
       <c r="LR2" s="2">
-        <v>-3.32832712182373</v>
+        <v>-0.529519234414022</v>
       </c>
       <c r="LS2" s="2">
-        <v>-3.35737321104565</v>
+        <v>-0.525505442118067</v>
       </c>
       <c r="LT2" s="2">
-        <v>-3.35184528283093</v>
+        <v>-0.516964844056269</v>
       </c>
       <c r="LU2" s="2">
-        <v>-3.38024329596369</v>
+        <v>-0.515398931126016</v>
       </c>
       <c r="LV2" s="2">
-        <v>-3.37152247841659</v>
+        <v>-0.51344352464914</v>
       </c>
       <c r="LW2" s="2">
-        <v>-3.38065297829583</v>
+        <v>-0.516258142743408</v>
       </c>
       <c r="LX2" s="2">
-        <v>-3.38698968783595</v>
+        <v>-0.51088006081753</v>
       </c>
       <c r="LY2" s="2">
-        <v>-3.40065968643872</v>
+        <v>-0.492037017098323</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-3.42393929890189</v>
+        <v>-0.502419311764942</v>
       </c>
       <c r="MA2" s="2">
-        <v>-3.44923634115631</v>
+        <v>-0.5098458636302849</v>
       </c>
       <c r="MB2" s="2">
-        <v>-3.43255395373883</v>
+        <v>-0.510641612722446</v>
       </c>
       <c r="MC2" s="2">
-        <v>-3.43259171523799</v>
+        <v>-0.512804914144108</v>
       </c>
       <c r="MD2" s="2">
-        <v>-3.43791478417969</v>
+        <v>-0.506889197318193</v>
       </c>
       <c r="ME2" s="2">
-        <v>-3.45661172431525</v>
+        <v>-0.512618283272131</v>
       </c>
       <c r="MF2" s="2">
-        <v>-3.43591632698745</v>
+        <v>-0.50788540989027</v>
       </c>
       <c r="MG2" s="2">
-        <v>-3.46744466580308</v>
+        <v>-0.516571539033525</v>
       </c>
       <c r="MH2" s="2">
-        <v>-3.44860088912217</v>
+        <v>-0.495394558752601</v>
       </c>
       <c r="MI2" s="2">
-        <v>-3.4635721898552</v>
+        <v>-0.50940711303733</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-3.48874903303235</v>
+        <v>-0.502954936130942</v>
       </c>
       <c r="MK2" s="2">
-        <v>-3.48039436073437</v>
+        <v>-0.519896866421349</v>
       </c>
       <c r="ML2" s="2">
-        <v>-3.46819989696165</v>
+        <v>-0.516365166764243</v>
       </c>
       <c r="MM2" s="2">
-        <v>-3.49734639335871</v>
+        <v>-0.518430363203226</v>
       </c>
       <c r="MN2" s="2">
-        <v>-3.506135509276</v>
+        <v>-0.531246799527441</v>
       </c>
       <c r="MO2" s="2">
-        <v>-3.50533275932462</v>
+        <v>-0.530994082279293</v>
       </c>
       <c r="MP2" s="2">
-        <v>-3.50463427240027</v>
+        <v>-0.522252551580233</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-3.51627266753809</v>
+        <v>-0.536147717614861</v>
       </c>
       <c r="MR2" s="2">
-        <v>-3.53341792569851</v>
+        <v>-0.531251419112349</v>
       </c>
       <c r="MS2" s="2">
-        <v>-3.50247858215269</v>
+        <v>-0.535193732177049</v>
       </c>
       <c r="MT2" s="2">
-        <v>-3.50340770076244</v>
+        <v>-0.541272688787795</v>
       </c>
       <c r="MU2" s="2">
-        <v>-3.48908002981459</v>
+        <v>-0.54989650678744</v>
       </c>
       <c r="MV2" s="2">
-        <v>-3.4807656214327</v>
+        <v>-0.567362983633639</v>
       </c>
       <c r="MW2" s="2">
-        <v>-3.50199846041723</v>
+        <v>-0.561360245312762</v>
       </c>
       <c r="MX2" s="2">
-        <v>-3.51486345891584</v>
+        <v>-0.553038528388325</v>
       </c>
       <c r="MY2" s="2">
-        <v>-3.50620959228694</v>
+        <v>-0.560821706680911</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-3.50955923751355</v>
+        <v>-0.58260211389641</v>
       </c>
       <c r="NA2" s="2">
-        <v>-3.51658914574446</v>
+        <v>-0.574462841243745</v>
       </c>
       <c r="NB2" s="2">
-        <v>-3.4980326142126</v>
+        <v>-0.58409602485848</v>
       </c>
       <c r="NC2" s="2">
-        <v>-3.51438711166636</v>
+        <v>-0.593770213328918</v>
       </c>
       <c r="ND2" s="2">
-        <v>-3.51265596876621</v>
+        <v>-0.599297713429106</v>
       </c>
       <c r="NE2" s="2">
-        <v>-3.50395301859842</v>
+        <v>-0.609565248682252</v>
       </c>
       <c r="NF2" s="2">
-        <v>-3.49488875931126</v>
+        <v>-0.602345983669662</v>
       </c>
       <c r="NG2" s="2">
-        <v>-3.48885893868453</v>
+        <v>-0.620344327387665</v>
       </c>
       <c r="NH2" s="2">
-        <v>-3.50601509028997</v>
+        <v>-0.629216054802903</v>
       </c>
       <c r="NI2" s="2">
-        <v>-3.4962794989175</v>
+        <v>-0.632989234675584</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-3.49000105657109</v>
+        <v>-0.639653366418934</v>
       </c>
       <c r="NK2" s="2">
-        <v>-3.48059855028695</v>
+        <v>-0.636453204777913</v>
       </c>
       <c r="NL2" s="2">
-        <v>-3.44585019075004</v>
+        <v>-0.653284474078654</v>
       </c>
       <c r="NM2" s="2">
-        <v>-3.46028100972684</v>
+        <v>-0.665421339617041</v>
       </c>
       <c r="NN2" s="2">
-        <v>-3.43941507667791</v>
+        <v>-0.653602174530127</v>
       </c>
       <c r="NO2" s="2">
-        <v>-3.4307504257756</v>
+        <v>-0.673992368029642</v>
       </c>
       <c r="NP2" s="2">
-        <v>-3.42101896097281</v>
+        <v>-0.682694040509626</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-3.43550183833104</v>
+        <v>-0.693395933111403</v>
       </c>
       <c r="NR2" s="2">
-        <v>-3.42774022757707</v>
+        <v>-0.704462698912339</v>
       </c>
       <c r="NS2" s="2">
-        <v>-3.40583680313758</v>
+        <v>-0.703346567085533</v>
       </c>
       <c r="NT2" s="2">
-        <v>-3.39942588010354</v>
+        <v>-0.711377166588275</v>
       </c>
       <c r="NU2" s="2">
-        <v>-3.39711996922615</v>
+        <v>-0.706739028945535</v>
       </c>
       <c r="NV2" s="2">
-        <v>-3.36791432372517</v>
+        <v>-0.713569151082193</v>
       </c>
       <c r="NW2" s="2">
-        <v>-3.36904037644127</v>
+        <v>-0.720095865884364</v>
       </c>
       <c r="NX2" s="2">
-        <v>-3.36024138092452</v>
+        <v>-0.721875354950146</v>
       </c>
       <c r="NY2" s="2">
-        <v>-3.34955052689947</v>
+        <v>-0.7326151757468931</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-3.34393642351776</v>
+        <v>-0.743005021918963</v>
       </c>
       <c r="OA2" s="2">
-        <v>-3.32045266395855</v>
+        <v>-0.751299787925198</v>
       </c>
       <c r="OB2" s="2">
-        <v>-3.3140075824283</v>
+        <v>-0.747939080818824</v>
       </c>
       <c r="OC2" s="2">
-        <v>-3.3343058540589</v>
+        <v>-0.731093815137954</v>
       </c>
       <c r="OD2" s="2">
-        <v>-3.27966800196277</v>
+        <v>-0.7548104794109221</v>
       </c>
       <c r="OE2" s="2">
-        <v>-3.2902679617756</v>
+        <v>-0.760596905672588</v>
       </c>
       <c r="OF2" s="2">
-        <v>-3.2604904540258</v>
+        <v>-0.769919124310305</v>
       </c>
       <c r="OG2" s="2">
-        <v>-3.26416710426802</v>
+        <v>-0.763892836112379</v>
       </c>
       <c r="OH2" s="2">
-        <v>-3.24806345021923</v>
+        <v>-0.759479692337361</v>
       </c>
       <c r="OI2" s="2">
-        <v>-3.24637774033495</v>
+        <v>-0.765800339135983</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-3.24017486987849</v>
+        <v>-0.76815459104088</v>
       </c>
       <c r="OK2" s="2">
-        <v>-3.22104752546093</v>
+        <v>-0.759385514047894</v>
       </c>
       <c r="OL2" s="2">
-        <v>-3.18692469122031</v>
+        <v>-0.7676486217881739</v>
       </c>
       <c r="OM2" s="2">
-        <v>-3.18347823456488</v>
+        <v>-0.765730517068728</v>
       </c>
       <c r="ON2" s="2">
-        <v>-3.1572204425832</v>
+        <v>-0.7602161715628371</v>
       </c>
       <c r="OO2" s="2">
-        <v>-3.14006373669057</v>
+        <v>-0.779561238307971</v>
       </c>
       <c r="OP2" s="2">
-        <v>-3.14829374343258</v>
+        <v>-0.760740956943439</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-3.1582867710888</v>
+        <v>-0.778845653680544</v>
       </c>
       <c r="OR2" s="2">
-        <v>-3.11003024820741</v>
+        <v>-0.779834577918513</v>
       </c>
       <c r="OS2" s="2">
-        <v>-3.10873820372846</v>
+        <v>-0.776754191144401</v>
       </c>
       <c r="OT2" s="2">
-        <v>-3.11933925477745</v>
+        <v>-0.7667862983107649</v>
       </c>
       <c r="OU2" s="2">
-        <v>-3.08691601693016</v>
+        <v>-0.755313090092268</v>
       </c>
       <c r="OV2" s="2">
-        <v>-3.07821325369171</v>
+        <v>-0.772946001327296</v>
       </c>
       <c r="OW2" s="2">
-        <v>-3.0485462688741</v>
+        <v>-0.748842799572311</v>
       </c>
       <c r="OX2" s="2">
-        <v>-3.05167545557688</v>
+        <v>-0.752221366564535</v>
       </c>
       <c r="OY2" s="2">
-        <v>-3.02800465940725</v>
+        <v>-0.763875021941045</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-3.00919902443674</v>
+        <v>-0.755480702299556</v>
       </c>
       <c r="PA2" s="2">
-        <v>-2.98326052511406</v>
+        <v>-0.763632645308384</v>
       </c>
       <c r="PB2" s="2">
-        <v>-2.98556504229082</v>
+        <v>-0.760488297768927</v>
       </c>
       <c r="PC2" s="2">
-        <v>-2.96233050585181</v>
+        <v>-0.755574287675102</v>
       </c>
       <c r="PD2" s="2">
-        <v>-2.96965445750919</v>
+        <v>-0.755574412418907</v>
       </c>
       <c r="PE2" s="2">
-        <v>-2.9421518159413</v>
+        <v>-0.720318967355543</v>
       </c>
       <c r="PF2" s="2">
-        <v>-2.93605323180174</v>
+        <v>-0.737882155827575</v>
       </c>
       <c r="PG2" s="2">
-        <v>-2.90608801626937</v>
+        <v>-0.73049720837336</v>
       </c>
       <c r="PH2" s="2">
-        <v>-2.90785229247331</v>
+        <v>-0.731498541125177</v>
       </c>
       <c r="PI2" s="2">
-        <v>-2.89250076566614</v>
+        <v>-0.731025703833965</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-2.87576924214484</v>
+        <v>-0.728010709870086</v>
       </c>
       <c r="PK2" s="2">
-        <v>-2.8396071937426</v>
+        <v>-0.714657373003084</v>
       </c>
       <c r="PL2" s="2">
-        <v>-2.850115545856</v>
+        <v>-0.709400489531418</v>
       </c>
       <c r="PM2" s="2">
-        <v>-2.83122058072545</v>
+        <v>-0.706144574606635</v>
       </c>
       <c r="PN2" s="2">
-        <v>-2.82559362699729</v>
+        <v>-0.713108195335586</v>
       </c>
       <c r="PO2" s="2">
-        <v>-2.80967615173046</v>
+        <v>-0.698681994455182</v>
       </c>
       <c r="PP2" s="2">
-        <v>-2.82325684798493</v>
+        <v>-0.7017318231037249</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-2.80749700088891</v>
+        <v>-0.685385331846772</v>
       </c>
       <c r="PR2" s="2">
-        <v>-2.78123972589367</v>
+        <v>-0.680400044717502</v>
       </c>
       <c r="PS2" s="2">
-        <v>-2.77249055484416</v>
+        <v>-0.684438363838594</v>
       </c>
       <c r="PT2" s="2">
-        <v>-2.75137706697334</v>
+        <v>-0.686508353890233</v>
       </c>
       <c r="PU2" s="2">
-        <v>-2.74510443253468</v>
+        <v>-0.684903315774318</v>
       </c>
       <c r="PV2" s="2">
-        <v>-2.73628431294474</v>
+        <v>-0.6859407745491</v>
       </c>
       <c r="PW2" s="2">
-        <v>-2.74146497182722</v>
+        <v>-0.673252317018465</v>
       </c>
       <c r="PX2" s="2">
-        <v>-2.70450234762676</v>
+        <v>-0.669020670475845</v>
       </c>
       <c r="PY2" s="2">
-        <v>-2.70872123057354</v>
+        <v>-0.668278499008189</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-2.70346489379832</v>
+        <v>-0.671736121888772</v>
       </c>
       <c r="QA2" s="2">
-        <v>-2.6983758806462</v>
+        <v>-0.668295310657541</v>
       </c>
       <c r="QB2" s="2">
-        <v>-2.68378854487599</v>
+        <v>-0.667293536380869</v>
       </c>
       <c r="QC2" s="2">
-        <v>-2.68155083459372</v>
+        <v>-0.6536178985248819</v>
       </c>
       <c r="QD2" s="2">
-        <v>-2.65728220361273</v>
+        <v>-0.650081028147537</v>
       </c>
       <c r="QE2" s="2">
-        <v>-2.68010213260988</v>
+        <v>-0.655399194209523</v>
       </c>
       <c r="QF2" s="2">
-        <v>-2.65116929804077</v>
+        <v>-0.667403289428358</v>
       </c>
       <c r="QG2" s="2">
-        <v>-2.65891659816163</v>
+        <v>-0.643893181990819</v>
       </c>
       <c r="QH2" s="2">
-        <v>-2.66238391293526</v>
+        <v>-0.657044941937757</v>
       </c>
       <c r="QI2" s="2">
-        <v>-2.67009103684556</v>
+        <v>-0.659703797357579</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-2.64731636844263</v>
+        <v>-0.642548817416839</v>
       </c>
       <c r="QK2" s="2">
-        <v>-2.64256473255847</v>
+        <v>-0.63454127710172</v>
       </c>
       <c r="QL2" s="2">
-        <v>-2.67394823420928</v>
+        <v>-0.6526066872562259</v>
       </c>
       <c r="QM2" s="2">
-        <v>-2.64939588002584</v>
+        <v>-0.644739113865254</v>
       </c>
       <c r="QN2" s="2">
-        <v>-2.6604130459532</v>
+        <v>-0.645140026811864</v>
       </c>
       <c r="QO2" s="2">
-        <v>-2.66291994418088</v>
+        <v>-0.648948034395306</v>
       </c>
       <c r="QP2" s="2">
-        <v>-2.65831200467433</v>
+        <v>-0.6544166289109919</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-2.63962300768018</v>
+        <v>-0.64820343420312</v>
       </c>
       <c r="QR2" s="2">
-        <v>-2.63356936276518</v>
+        <v>-0.665746352604338</v>
       </c>
       <c r="QS2" s="2">
-        <v>-2.66800648861401</v>
+        <v>-0.647415649984691</v>
       </c>
       <c r="QT2" s="2">
-        <v>-2.66884693010105</v>
+        <v>-0.665346557762053</v>
       </c>
       <c r="QU2" s="2">
-        <v>-2.66910708366067</v>
+        <v>-0.655884230484728</v>
       </c>
       <c r="QV2" s="2">
-        <v>-2.70400782129512</v>
+        <v>-0.6745989977887999</v>
       </c>
       <c r="QW2" s="2">
-        <v>-2.67643680647291</v>
+        <v>-0.652894083500586</v>
       </c>
       <c r="QX2" s="2">
-        <v>-2.6860313469574</v>
+        <v>-0.678861433104802</v>
       </c>
       <c r="QY2" s="2">
-        <v>-2.69031866132937</v>
+        <v>-0.678476105969565</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-2.68685267547489</v>
+        <v>-0.658233321966925</v>
       </c>
       <c r="RA2" s="2">
-        <v>-2.71183493382711</v>
+        <v>-0.667353544874242</v>
       </c>
       <c r="RB2" s="2">
-        <v>-2.71342668392089</v>
+        <v>-0.677304013201701</v>
       </c>
       <c r="RC2" s="2">
-        <v>-2.72625004491581</v>
+        <v>-0.675805077392155</v>
       </c>
       <c r="RD2" s="2">
-        <v>-2.72881624928386</v>
+        <v>-0.689656533948996</v>
       </c>
       <c r="RE2" s="2">
-        <v>-2.78096880148112</v>
+        <v>-0.6699980430189451</v>
       </c>
       <c r="RF2" s="2">
-        <v>-2.76746851365599</v>
+        <v>-0.694395104578421</v>
       </c>
       <c r="RG2" s="2">
-        <v>-2.77933930017322</v>
+        <v>-0.688456947337887</v>
       </c>
       <c r="RH2" s="2">
-        <v>-2.78366541958044</v>
+        <v>-0.701902659120772</v>
       </c>
       <c r="RI2" s="2">
-        <v>-2.81232036609779</v>
+        <v>-0.702509285046374</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-2.83159764366079</v>
+        <v>-0.715171254085296</v>
       </c>
       <c r="RK2" s="2">
-        <v>-2.85128878849892</v>
+        <v>-0.713726949012669</v>
       </c>
       <c r="RL2" s="2">
-        <v>-2.83170306390667</v>
+        <v>-0.72269886884134</v>
       </c>
       <c r="RM2" s="2">
-        <v>-2.8557243934324</v>
+        <v>-0.725308597575818</v>
       </c>
       <c r="RN2" s="2">
-        <v>-2.87046142717758</v>
+        <v>-0.729972861517769</v>
       </c>
       <c r="RO2" s="2">
-        <v>-2.89753429132713</v>
+        <v>-0.729646199027006</v>
       </c>
       <c r="RP2" s="2">
-        <v>-2.89197014574498</v>
+        <v>-0.736951053333922</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-2.91392838016097</v>
+        <v>-0.737694663288332</v>
       </c>
       <c r="RR2" s="2">
-        <v>-2.88150475109441</v>
+        <v>-0.760614893070009</v>
       </c>
       <c r="RS2" s="2">
-        <v>-2.91532044758412</v>
+        <v>-0.7571987952410431</v>
       </c>
       <c r="RT2" s="2">
-        <v>-2.92063232137034</v>
+        <v>-0.762702631302884</v>
       </c>
       <c r="RU2" s="2">
-        <v>-2.94129012810895</v>
+        <v>-0.766968608905238</v>
       </c>
       <c r="RV2" s="2">
-        <v>-2.97134202050389</v>
+        <v>-0.763063326519076</v>
       </c>
       <c r="RW2" s="2">
-        <v>-2.94429574495304</v>
+        <v>-0.784216580334447</v>
       </c>
       <c r="RX2" s="2">
-        <v>-2.96450115385665</v>
+        <v>-0.79284743173038</v>
       </c>
       <c r="RY2" s="2">
-        <v>-2.98172366597608</v>
+        <v>-0.796025693098939</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-2.95989911495768</v>
+        <v>-0.785075325940001</v>
       </c>
       <c r="SA2" s="2">
-        <v>-2.97099540900776</v>
+        <v>-0.782974871129031</v>
       </c>
       <c r="SB2" s="2">
-        <v>-2.95550685016847</v>
+        <v>-0.811347510811632</v>
       </c>
       <c r="SC2" s="2">
-        <v>-2.95450032574863</v>
+        <v>-0.80244669010831</v>
       </c>
       <c r="SD2" s="2">
-        <v>-2.97044400571061</v>
+        <v>-0.811388404689215</v>
       </c>
       <c r="SE2" s="2">
-        <v>-2.96490989135382</v>
+        <v>-0.816798003456478</v>
       </c>
       <c r="SF2" s="2">
-        <v>-2.94797139970993</v>
+        <v>-0.804490226805621</v>
       </c>
       <c r="SG2" s="2">
-        <v>-2.97114969990816</v>
+        <v>-0.800313602720704</v>
       </c>
       <c r="SH2" s="2">
-        <v>-2.93933846363643</v>
+        <v>-0.82953668268712</v>
       </c>
       <c r="SI2" s="2">
-        <v>-2.9134781639805</v>
+        <v>-0.826997986239264</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-2.92298127444143</v>
+        <v>-0.807727787701647</v>
       </c>
       <c r="SK2" s="2">
-        <v>-2.90743463085586</v>
+        <v>-0.8279981869087411</v>
       </c>
       <c r="SL2" s="2">
-        <v>-2.89946471604308</v>
+        <v>-0.848753701885455</v>
       </c>
       <c r="SM2" s="2">
-        <v>-2.87466865982204</v>
+        <v>-0.825717829075465</v>
       </c>
       <c r="SN2" s="2">
-        <v>-2.87604553414076</v>
+        <v>-0.844475469685415</v>
       </c>
       <c r="SO2" s="2">
-        <v>-2.85561076800359</v>
+        <v>-0.851800436144787</v>
       </c>
       <c r="SP2" s="2">
-        <v>-2.83768698958018</v>
+        <v>-0.846956482235638</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-2.8259672928314</v>
+        <v>-0.8502971261803139</v>
       </c>
       <c r="SR2" s="2">
-        <v>-2.80779783400219</v>
+        <v>-0.844494336944821</v>
       </c>
       <c r="SS2" s="2">
-        <v>-2.7803069161774</v>
+        <v>-0.848651392042639</v>
       </c>
       <c r="ST2" s="2">
-        <v>-2.77847617471972</v>
+        <v>-0.8466527260091949</v>
       </c>
       <c r="SU2" s="2">
-        <v>-2.75037856119519</v>
+        <v>-0.835636892441342</v>
       </c>
       <c r="SV2" s="2">
-        <v>-2.73256653735845</v>
+        <v>-0.839368968797265</v>
       </c>
       <c r="SW2" s="2">
-        <v>-2.72710956494884</v>
+        <v>-0.845820299532867</v>
       </c>
       <c r="SX2" s="2">
-        <v>-2.72984094503143</v>
+        <v>-0.854232410530811</v>
       </c>
       <c r="SY2" s="2">
-        <v>-2.69113879960888</v>
+        <v>-0.825567882593673</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-2.67561208569044</v>
+        <v>-0.853184186742732</v>
       </c>
       <c r="TA2" s="2">
-        <v>-2.64579093400229</v>
+        <v>-0.857714581402385</v>
       </c>
       <c r="TB2" s="2">
-        <v>-2.64433141206281</v>
+        <v>-0.857128604533358</v>
       </c>
       <c r="TC2" s="2">
-        <v>-2.62532003774113</v>
+        <v>-0.852769148193516</v>
       </c>
       <c r="TD2" s="2">
-        <v>-2.62454416210838</v>
+        <v>-0.853555152688912</v>
       </c>
       <c r="TE2" s="2">
-        <v>-2.59930189721339</v>
+        <v>-0.85196644712494</v>
       </c>
       <c r="TF2" s="2">
-        <v>-2.57956096461111</v>
+        <v>-0.841549257649911</v>
       </c>
       <c r="TG2" s="2">
-        <v>-2.58562433421969</v>
+        <v>-0.831020773626625</v>
       </c>
       <c r="TH2" s="2">
-        <v>-2.56844582024432</v>
+        <v>-0.83461895058697</v>
       </c>
       <c r="TI2" s="2">
-        <v>-2.53242234647536</v>
+        <v>-0.832213632333602</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-2.53549727540752</v>
+        <v>-0.846432797247912</v>
       </c>
       <c r="TK2" s="2">
-        <v>-2.5387316577465</v>
+        <v>-0.824574855260417</v>
       </c>
       <c r="TL2" s="2">
-        <v>-2.49003248852833</v>
+        <v>-0.836806807638202</v>
       </c>
       <c r="TM2" s="2">
-        <v>-2.49211984336523</v>
+        <v>-0.82312940097786</v>
       </c>
       <c r="TN2" s="2">
-        <v>-2.46764514197245</v>
+        <v>-0.829095965827561</v>
       </c>
       <c r="TO2" s="2">
-        <v>-2.45185166601627</v>
+        <v>-0.819565399000571</v>
       </c>
       <c r="TP2" s="2">
-        <v>-2.40680386730677</v>
+        <v>-0.823469589301118</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-2.41700973693618</v>
+        <v>-0.817147703459832</v>
       </c>
       <c r="TR2" s="2">
-        <v>-2.4284482341617</v>
+        <v>-0.817945000553947</v>
       </c>
       <c r="TS2" s="2">
-        <v>-2.41788709614812</v>
+        <v>-0.817593257159534</v>
       </c>
       <c r="TT2" s="2">
-        <v>-2.41963633191729</v>
+        <v>-0.810866802059105</v>
       </c>
       <c r="TU2" s="2">
-        <v>-2.40047894866656</v>
+        <v>-0.822629699750331</v>
       </c>
       <c r="TV2" s="2">
-        <v>-2.3863705205876</v>
+        <v>-0.8029008404000419</v>
       </c>
       <c r="TW2" s="2">
-        <v>-2.39135428568638</v>
+        <v>-0.804654116364853</v>
       </c>
       <c r="TX2" s="2">
-        <v>-2.39003432171002</v>
+        <v>-0.793216041241118</v>
       </c>
       <c r="TY2" s="2">
-        <v>-2.38701476656562</v>
+        <v>-0.784547105524098</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-2.37001811285539</v>
+        <v>-0.803095624031682</v>
       </c>
       <c r="UA2" s="2">
-        <v>-2.35552165186258</v>
+        <v>-0.788801903140865</v>
       </c>
       <c r="UB2" s="2">
-        <v>-2.36255085959992</v>
+        <v>-0.7936163658037581</v>
       </c>
       <c r="UC2" s="2">
-        <v>-2.3478941793452</v>
+        <v>-0.797502038910593</v>
       </c>
       <c r="UD2" s="2">
-        <v>-2.34580416191283</v>
+        <v>-0.7758804087114231</v>
       </c>
       <c r="UE2" s="2">
-        <v>-2.33342902831229</v>
+        <v>-0.7952365218925</v>
       </c>
       <c r="UF2" s="2">
-        <v>-2.35970412822425</v>
+        <v>-0.772170810499714</v>
       </c>
       <c r="UG2" s="2">
-        <v>-2.32725473413384</v>
+        <v>-0.770591060537664</v>
       </c>
       <c r="UH2" s="2">
-        <v>-2.33061352967521</v>
+        <v>-0.782884623108427</v>
       </c>
       <c r="UI2" s="2">
-        <v>-2.34164377517771</v>
+        <v>-0.777037375294177</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-2.30924391146264</v>
+        <v>-0.780798765376667</v>
       </c>
       <c r="UK2" s="2">
-        <v>-2.3310927204442</v>
+        <v>-0.7728849462766439</v>
       </c>
       <c r="UL2" s="2">
-        <v>-2.34259028404654</v>
+        <v>-0.767819262639756</v>
       </c>
       <c r="UM2" s="2">
-        <v>-2.33312877275433</v>
+        <v>-0.774391928309811</v>
       </c>
       <c r="UN2" s="2">
-        <v>-2.32788440304995</v>
+        <v>-0.783760399780155</v>
       </c>
       <c r="UO2" s="2">
-        <v>-2.31725647238262</v>
+        <v>-0.7788099386431711</v>
       </c>
       <c r="UP2" s="2">
-        <v>-2.34621207587925</v>
+        <v>-0.765949164692598</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-2.32495582030026</v>
+        <v>-0.77410155122422</v>
       </c>
       <c r="UR2" s="2">
-        <v>-2.31114309706844</v>
+        <v>-0.763336368904864</v>
       </c>
       <c r="US2" s="2">
-        <v>-2.3000180343087</v>
+        <v>-0.769025756816926</v>
       </c>
       <c r="UT2" s="2">
-        <v>-2.3242643564342</v>
+        <v>-0.76852045417016</v>
       </c>
       <c r="UU2" s="2">
-        <v>-2.31858008669427</v>
+        <v>-0.7697591684945559</v>
       </c>
       <c r="UV2" s="2">
-        <v>-2.33420906898023</v>
+        <v>-0.770359751828634</v>
       </c>
       <c r="UW2" s="2">
-        <v>-2.32254884712145</v>
+        <v>-0.768838253508099</v>
       </c>
       <c r="UX2" s="2">
-        <v>-2.34433276869285</v>
+        <v>-0.766609597085627</v>
       </c>
       <c r="UY2" s="2">
-        <v>-2.33391809476052</v>
+        <v>-0.76247878587291</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-2.32355028703798</v>
+        <v>-0.772416993512699</v>
       </c>
       <c r="VA2" s="2">
-        <v>-2.32154337795278</v>
+        <v>-0.768389803577312</v>
       </c>
       <c r="VB2" s="2">
-        <v>-2.33330857137768</v>
+        <v>-0.767249385003803</v>
       </c>
       <c r="VC2" s="2">
-        <v>-2.34328548765322</v>
+        <v>-0.781699001319641</v>
       </c>
       <c r="VD2" s="2">
-        <v>-2.34187285518891</v>
+        <v>-0.770419655655383</v>
       </c>
       <c r="VE2" s="2">
-        <v>-2.33996249469605</v>
+        <v>-0.772076096694256</v>
       </c>
       <c r="VF2" s="2">
-        <v>-2.36201821217367</v>
+        <v>-0.792255657296026</v>
       </c>
       <c r="VG2" s="2">
-        <v>-2.37726263172446</v>
+        <v>-0.784063996771163</v>
       </c>
       <c r="VH2" s="2">
-        <v>-2.35580051414825</v>
+        <v>-0.787714479687038</v>
       </c>
       <c r="VI2" s="2">
-        <v>-2.36966052429342</v>
+        <v>-0.7741364422646561</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-2.37484992345485</v>
+        <v>-0.787782866669443</v>
       </c>
       <c r="VK2" s="2">
-        <v>-2.38516346999799</v>
+        <v>-0.793335625291542</v>
       </c>
       <c r="VL2" s="2">
-        <v>-2.39402880275475</v>
+        <v>-0.793434990025555</v>
       </c>
       <c r="VM2" s="2">
-        <v>-2.38049875220644</v>
+        <v>-0.7780089570681979</v>
       </c>
       <c r="VN2" s="2">
-        <v>-2.40458059994204</v>
+        <v>-0.790233040077527</v>
       </c>
       <c r="VO2" s="2">
-        <v>-2.41470725458408</v>
+        <v>-0.794468558672316</v>
       </c>
       <c r="VP2" s="2">
-        <v>-2.41109045586987</v>
+        <v>-0.808535776453236</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-2.40458217643201</v>
+        <v>-0.810682514217736</v>
       </c>
       <c r="VR2" s="2">
-        <v>-2.41676460848211</v>
+        <v>-0.797361140689766</v>
       </c>
       <c r="VS2" s="2">
-        <v>-2.42868571536585</v>
+        <v>-0.809282619632031</v>
       </c>
       <c r="VT2" s="2">
-        <v>-2.45376908180931</v>
+        <v>-0.815689481367345</v>
       </c>
       <c r="VU2" s="2">
-        <v>-2.46953420707681</v>
+        <v>-0.811302640416851</v>
       </c>
       <c r="VV2" s="2">
-        <v>-2.47604513808828</v>
+        <v>-0.826659027327256</v>
       </c>
       <c r="VW2" s="2">
-        <v>-2.46830325371745</v>
+        <v>-0.822234573416965</v>
       </c>
       <c r="VX2" s="2">
-        <v>-2.4746147777642</v>
+        <v>-0.834162254057632</v>
       </c>
       <c r="VY2" s="2">
-        <v>-2.47468620624873</v>
+        <v>-0.807929869693938</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-2.50739042040172</v>
+        <v>-0.823395526850217</v>
       </c>
       <c r="WA2" s="2">
-        <v>-2.50571958554909</v>
+        <v>-0.842812523518051</v>
       </c>
       <c r="WB2" s="2">
-        <v>-2.53845322041754</v>
+        <v>-0.8348671466838961</v>
       </c>
       <c r="WC2" s="2">
-        <v>-2.54227257573842</v>
+        <v>-0.825781898536863</v>
       </c>
       <c r="WD2" s="2">
-        <v>-2.56531565051108</v>
+        <v>-0.843998301307579</v>
       </c>
       <c r="WE2" s="2">
-        <v>-2.54797741388025</v>
+        <v>-0.839142290043917</v>
       </c>
       <c r="WF2" s="2">
-        <v>-2.58526092133343</v>
+        <v>-0.834072831901531</v>
       </c>
       <c r="WG2" s="2">
-        <v>-2.58497487842242</v>
+        <v>-0.858591026693812</v>
       </c>
       <c r="WH2" s="2">
-        <v>-2.58544866221788</v>
+        <v>-0.833174892982792</v>
       </c>
       <c r="WI2" s="2">
-        <v>-2.58557893734537</v>
+        <v>-0.84154373549657</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-2.62998904373078</v>
+        <v>-0.871081660413479</v>
       </c>
       <c r="WK2" s="2">
-        <v>-2.63660588290082</v>
+        <v>-0.864261889052279</v>
       </c>
       <c r="WL2" s="2">
-        <v>-2.61975725970907</v>
+        <v>-0.858244968849696</v>
       </c>
       <c r="WM2" s="2">
-        <v>-2.65091557466567</v>
+        <v>-0.847901935321753</v>
       </c>
       <c r="WN2" s="2">
-        <v>-2.65338186371196</v>
+        <v>-0.845767541018986</v>
       </c>
       <c r="WO2" s="2">
-        <v>-2.65569575756056</v>
+        <v>-0.8681457576614739</v>
       </c>
       <c r="WP2" s="2">
-        <v>-2.6668276933719</v>
+        <v>-0.854156270573332</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-2.67843582479781</v>
+        <v>-0.86377008728617</v>
       </c>
       <c r="WR2" s="2">
-        <v>-2.72107578358357</v>
+        <v>-0.859755015717021</v>
       </c>
       <c r="WS2" s="2">
-        <v>-2.7055319732295</v>
+        <v>-0.861611360329802</v>
       </c>
       <c r="WT2" s="2">
-        <v>-2.71265202194205</v>
+        <v>-0.868464803979336</v>
       </c>
       <c r="WU2" s="2">
-        <v>-2.73305850684057</v>
+        <v>-0.8702765449556</v>
       </c>
       <c r="WV2" s="2">
-        <v>-2.72468316248853</v>
+        <v>-0.8770124925525</v>
       </c>
       <c r="WW2" s="2">
-        <v>-2.74896351042018</v>
+        <v>-0.880708891406494</v>
       </c>
       <c r="WX2" s="2">
-        <v>-2.72794681361373</v>
+        <v>-0.859178224349698</v>
       </c>
       <c r="WY2" s="2">
-        <v>-2.73895341073078</v>
+        <v>-0.867350880758103</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-2.74716910756374</v>
+        <v>-0.881070924292529</v>
       </c>
       <c r="XA2" s="2">
-        <v>-2.77212708427564</v>
+        <v>-0.877387501310146</v>
       </c>
       <c r="XB2" s="2">
-        <v>-2.75314865879458</v>
+        <v>-0.873851215324308</v>
       </c>
       <c r="XC2" s="2">
-        <v>-2.76309731971833</v>
+        <v>-0.872945619475022</v>
       </c>
       <c r="XD2" s="2">
-        <v>-2.76182491253369</v>
+        <v>-0.875268181756651</v>
       </c>
       <c r="XE2" s="2">
-        <v>-2.74516301200201</v>
+        <v>-0.866135173060008</v>
       </c>
       <c r="XF2" s="2">
-        <v>-2.75005588346105</v>
+        <v>-0.869603710452569</v>
       </c>
       <c r="XG2" s="2">
-        <v>-2.76903840957942</v>
+        <v>-0.871965866742255</v>
       </c>
       <c r="XH2" s="2">
-        <v>-2.8153616446076</v>
+        <v>-0.870537390213068</v>
       </c>
       <c r="XI2" s="2">
-        <v>-2.77432763235432</v>
+        <v>-0.877480640923304</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-2.77855301850951</v>
+        <v>-0.862738861098874</v>
       </c>
       <c r="XK2" s="2">
-        <v>-2.7685024836678</v>
+        <v>-0.86366281011474</v>
       </c>
       <c r="XL2" s="2">
-        <v>-2.77015622446238</v>
+        <v>-0.879684594843918</v>
       </c>
       <c r="XM2" s="2">
-        <v>-2.73001148855374</v>
+        <v>-0.868691302183111</v>
       </c>
       <c r="XN2" s="2">
-        <v>-2.74904186677388</v>
+        <v>-0.865877305018282</v>
       </c>
       <c r="XO2" s="2">
-        <v>-2.75176289889973</v>
+        <v>-0.870091922346408</v>
       </c>
       <c r="XP2" s="2">
-        <v>-2.73267653919714</v>
+        <v>-0.862462264509113</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-2.74950025675065</v>
+        <v>-0.869114312409266</v>
       </c>
       <c r="XR2" s="2">
-        <v>-2.70930401464729</v>
+        <v>-0.8645538517558</v>
       </c>
       <c r="XS2" s="2">
-        <v>-2.71698451115256</v>
+        <v>-0.870976070889923</v>
       </c>
       <c r="XT2" s="2">
-        <v>-2.72900389409669</v>
+        <v>-0.866298438068007</v>
       </c>
       <c r="XU2" s="2">
-        <v>-2.69629354907675</v>
+        <v>-0.866997916064455</v>
       </c>
       <c r="XV2" s="2">
-        <v>-2.71701855551372</v>
+        <v>-0.862717940012768</v>
       </c>
       <c r="XW2" s="2">
-        <v>-2.66787435568179</v>
+        <v>-0.871167594603882</v>
       </c>
       <c r="XX2" s="2">
-        <v>-2.68231806564681</v>
+        <v>-0.864909321057398</v>
       </c>
       <c r="XY2" s="2">
-        <v>-2.66703035683699</v>
+        <v>-0.851924959591296</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-2.67248532187292</v>
+        <v>-0.870249858078659</v>
       </c>
       <c r="YA2" s="2">
-        <v>-2.65011483866755</v>
+        <v>-0.860350567312286</v>
       </c>
       <c r="YB2" s="2">
-        <v>-2.63401873898779</v>
+        <v>-0.8524076801860681</v>
       </c>
       <c r="YC2" s="2">
-        <v>-2.6483385883515</v>
+        <v>-0.854199645639575</v>
       </c>
       <c r="YD2" s="2">
-        <v>-2.64263298918456</v>
+        <v>-0.863760219299302</v>
       </c>
       <c r="YE2" s="2">
-        <v>-2.62726086501837</v>
+        <v>-0.860727481323154</v>
       </c>
       <c r="YF2" s="2">
-        <v>-2.60234095933659</v>
+        <v>-0.862065463663594</v>
       </c>
       <c r="YG2" s="2">
-        <v>-2.61377008230361</v>
+        <v>-0.86820988066502</v>
       </c>
       <c r="YH2" s="2">
-        <v>-2.59800516769061</v>
+        <v>-0.858048108631028</v>
       </c>
       <c r="YI2" s="2">
-        <v>-2.57124182214029</v>
+        <v>-0.85666313288715</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-2.57010670268416</v>
+        <v>-0.8531118824799649</v>
       </c>
       <c r="YK2" s="2">
-        <v>-2.54232791911692</v>
+        <v>-0.864124249141651</v>
       </c>
       <c r="YL2" s="2">
-        <v>-2.54467061379018</v>
+        <v>-0.862956511787365</v>
       </c>
       <c r="YM2" s="2">
-        <v>-2.54635432994517</v>
+        <v>-0.860388061415533</v>
       </c>
       <c r="YN2" s="2">
-        <v>-2.52616338383096</v>
+        <v>-0.863904054834693</v>
       </c>
       <c r="YO2" s="2">
-        <v>-2.53641163857433</v>
+        <v>-0.862771760586981</v>
       </c>
       <c r="YP2" s="2">
-        <v>-2.50523546143896</v>
+        <v>-0.8671270167430341</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-2.50054882281222</v>
+        <v>-0.86908790670472</v>
       </c>
       <c r="YR2" s="2">
-        <v>-2.48871196159295</v>
+        <v>-0.872183791107459</v>
       </c>
       <c r="YS2" s="2">
-        <v>-2.49604662373139</v>
+        <v>-0.871540050511571</v>
       </c>
       <c r="YT2" s="2">
-        <v>-2.48371604691104</v>
+        <v>-0.8768862588183129</v>
       </c>
       <c r="YU2" s="2">
-        <v>-2.43803923808082</v>
+        <v>-0.870106676898784</v>
       </c>
       <c r="YV2" s="2">
-        <v>-2.46255681324147</v>
+        <v>-0.873760483783401</v>
       </c>
       <c r="YW2" s="2">
-        <v>-2.46531731738057</v>
+        <v>-0.877740755925247</v>
       </c>
       <c r="YX2" s="2">
-        <v>-2.46792374160914</v>
+        <v>-0.878548605843991</v>
       </c>
       <c r="YY2" s="2">
-        <v>-2.42860702894012</v>
+        <v>-0.871806531878615</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-2.45333136811053</v>
+        <v>-0.875955967762905</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-2.44283459398776</v>
+        <v>-0.889263273335222</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-2.44269718770461</v>
+        <v>-0.881937725547624</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-2.44816456290256</v>
+        <v>-0.874574643924948</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-2.40869732546968</v>
+        <v>-0.8911821430138041</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-2.4171723152665</v>
+        <v>-0.87705230839947</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-2.41619456585331</v>
+        <v>-0.887624658792749</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-2.38547473660076</v>
+        <v>-0.886180703745837</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-2.39885705457076</v>
+        <v>-0.893269186984162</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-2.41051003891781</v>
+        <v>-0.889939050639052</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-2.39598338593474</v>
+        <v>-0.895626646688391</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-2.3728192945405</v>
+        <v>-0.913597871690882</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-2.38089461136609</v>
+        <v>-0.918164601702268</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-2.38295312204797</v>
+        <v>-0.908046200190442</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-2.35881926195109</v>
+        <v>-0.916625079117332</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-2.34992052545351</v>
+        <v>-0.897299821180368</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-2.36677184214012</v>
+        <v>-0.917279694970718</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-2.37061168461172</v>
+        <v>-0.914696052329934</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-2.35792463525664</v>
+        <v>-0.905600122502713</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-2.33590491577731</v>
+        <v>-0.90420817392453</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-2.35049293187904</v>
+        <v>-0.896719058382734</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-2.35791151078514</v>
+        <v>-0.9192328657905871</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-2.3580209501355</v>
+        <v>-0.923346443278286</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-2.35393970827332</v>
+        <v>-0.926203443762095</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-2.36111363591928</v>
+        <v>-0.913707948432119</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-2.34272138416337</v>
+        <v>-0.923709012124071</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-2.33959259916513</v>
+        <v>-0.909432216163517</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-2.32731528993285</v>
+        <v>-0.929193580735845</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-2.32166967531328</v>
+        <v>-0.9383136469476701</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-2.33878506136917</v>
+        <v>-0.92632246663592</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-2.33860362618496</v>
+        <v>-0.921945078937034</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-2.31634767284365</v>
+        <v>-0.933757490601036</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-2.33380527936834</v>
+        <v>-0.906745707897611</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-2.32234206327614</v>
+        <v>-0.934342380149716</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-2.31489420285484</v>
+        <v>-0.942352977532804</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-2.30960863931106</v>
+        <v>-0.931928634118611</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-2.33021713534195</v>
+        <v>-0.9412035288296851</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-2.304777204034</v>
+        <v>-0.920353427608487</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-2.3026050477541</v>
+        <v>-0.930759692198825</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-2.3255109911955</v>
+        <v>-0.952407485713436</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-2.30234926784799</v>
+        <v>-0.929887347244338</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-2.29008945129268</v>
+        <v>-0.920290435226644</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-2.29938467798005</v>
+        <v>-0.937058386663121</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-2.29742185801362</v>
+        <v>-0.922443768356016</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-2.32021296495692</v>
+        <v>-0.941280643403073</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-2.31116240820932</v>
+        <v>-0.923940236964678</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-2.31398334265407</v>
+        <v>-0.9322642149931351</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-2.30431219114398</v>
+        <v>-0.935013172293791</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-2.30587764320951</v>
+        <v>-0.919835062897663</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-2.30401789699422</v>
+        <v>-0.922288785081134</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-2.30597626018252</v>
+        <v>-0.939259156454251</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-2.30536144108326</v>
+        <v>-0.910397453624219</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-2.28935976987376</v>
+        <v>-0.9388044074052589</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-2.29272551144945</v>
+        <v>-0.919742434487253</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-2.29142849761618</v>
+        <v>-0.920758168664169</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-2.30392912347271</v>
+        <v>-0.916600222872215</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-2.30929365885942</v>
+        <v>-0.926654436069012</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-2.3087230152204</v>
+        <v>-0.927222035056836</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-2.30907454292955</v>
+        <v>-0.920853387270375</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-2.31870504186075</v>
+        <v>-0.9321072261316961</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-2.28617516252784</v>
+        <v>-0.9135731983783399</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-2.32854737034113</v>
+        <v>-0.904305952684897</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-2.32554938214685</v>
+        <v>-0.921279600662707</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-2.28688789507689</v>
+        <v>-0.911707923767445</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-2.31305431173027</v>
+        <v>-0.9065985932449649</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-2.31731360992408</v>
+        <v>-0.9086876441246901</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-2.30059271496923</v>
+        <v>-0.917370265360605</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-2.30061108266863</v>
+        <v>-0.915887571294914</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-2.32646595594366</v>
+        <v>-0.909727595191224</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-2.33016160994964</v>
+        <v>-0.908403607534967</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-2.32459925204574</v>
+        <v>-0.89059623280128</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-2.3333366482678</v>
+        <v>-0.89572613571514</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-2.32141976481984</v>
+        <v>-0.894155586299044</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-2.33431756656957</v>
+        <v>-0.909839232344739</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-2.33961708927688</v>
+        <v>-0.914120782992033</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-2.32996340541546</v>
+        <v>-0.896996487053689</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-2.33861015910975</v>
+        <v>-0.897269948872479</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-2.36397489726148</v>
+        <v>-0.887967083160348</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-2.34435507352214</v>
+        <v>-0.901912702000197</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-2.37257515488086</v>
+        <v>-0.9010691686283679</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-2.35826197828551</v>
+        <v>-0.917497179581747</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-2.37748453064699</v>
+        <v>-0.896176206405356</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-2.40287239476397</v>
+        <v>-0.903495625331925</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-2.38490469819287</v>
+        <v>-0.9049745253109081</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-2.38855365873079</v>
+        <v>-0.911793222998859</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-2.38541780229474</v>
+        <v>-0.924920658321969</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-2.38995887145115</v>
+        <v>-0.918867599335254</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-2.38901755859699</v>
+        <v>-0.925033086294664</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-2.41053932066587</v>
+        <v>-0.9060793887320781</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-2.3905066682878</v>
+        <v>-0.932264367457922</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-2.40697597636565</v>
+        <v>-0.915556937691295</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-2.38519124048661</v>
+        <v>-0.925761786224695</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-2.42944942045415</v>
+        <v>-0.938727801427879</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-2.41084603207354</v>
+        <v>-0.938065273087062</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-2.44786584859679</v>
+        <v>-0.926795421799364</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-2.44357565755338</v>
+        <v>-0.940610408337985</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-2.44052053258618</v>
+        <v>-0.953935961915913</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-2.43858383657552</v>
+        <v>-0.943244499308836</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-2.43662339582789</v>
+        <v>-0.951695463051606</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-2.4477042327332</v>
+        <v>-0.954104312668132</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-2.45355067538688</v>
+        <v>-0.955447898575815</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-2.44738094345989</v>
+        <v>-0.96243173290335</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-2.45423302506679</v>
+        <v>-0.964648097424466</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-2.47323086902237</v>
+        <v>-0.9629510416873009</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-2.45549079923564</v>
+        <v>-0.980626095337463</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-2.48531163380033</v>
+        <v>-0.983038104181302</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-2.44970656680054</v>
+        <v>-0.989442288292395</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-2.50083466047696</v>
+        <v>-0.9832344327686799</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-2.45242871065143</v>
+        <v>-0.987660214261422</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-2.47294859749577</v>
+        <v>-1.00764632649254</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-2.4629947334689</v>
+        <v>-1.00429854202987</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-2.45979861476061</v>
+        <v>-1.01036126690392</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-2.47639961869486</v>
+        <v>-1.02535717892274</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-2.46083069981487</v>
+        <v>-1.03071253498025</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-2.48268566224661</v>
+        <v>-1.03484477165092</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-2.46540134454626</v>
+        <v>-1.03206656073862</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-2.4463991871794</v>
+        <v>-1.03407916513066</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-2.44575317038097</v>
+        <v>-1.06065579206088</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-2.45401696143878</v>
+        <v>-1.03508250819921</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-2.43572404824685</v>
+        <v>-1.05394172249517</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-2.45169824452604</v>
+        <v>-1.05835225940622</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-2.43116171331546</v>
+        <v>-1.06157068880024</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-2.44296118473176</v>
+        <v>-1.05560517212264</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-2.4241655596857</v>
+        <v>-1.0692253161192</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-2.41120827100606</v>
+        <v>-1.09561042099761</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-2.40346090426048</v>
+        <v>-1.0730336527646</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-2.40526345827289</v>
+        <v>-1.07749007037256</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-2.39823412328054</v>
+        <v>-1.07730769896525</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-2.39798003431349</v>
+        <v>-1.09027870321865</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-2.37995616220984</v>
+        <v>-1.08499955781049</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-2.37376538591243</v>
+        <v>-1.1010208115249</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-2.3501010395047</v>
+        <v>-1.07754880858707</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-2.35732524730063</v>
+        <v>-1.10283733231244</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-2.34742358701557</v>
+        <v>-1.10033093125991</v>
       </c>
       <c r="AED2" s="2">
-        <v>-2.35348851101655</v>
+        <v>-1.09243134288694</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-2.34248368144959</v>
+        <v>-1.09973928739421</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-2.32319046373301</v>
+        <v>-1.11483874560038</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-2.3225058206175</v>
+        <v>-1.10941846429243</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-2.30403953961981</v>
+        <v>-1.12451115269205</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-2.29322282979747</v>
+        <v>-1.08400128144942</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-2.30345383324905</v>
+        <v>-1.12859328259337</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-2.29139351671853</v>
+        <v>-1.1160897268086</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-2.26989118482708</v>
+        <v>-1.11591438364359</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-2.26646231768301</v>
+        <v>-1.11927051565978</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-2.2479834376445</v>
+        <v>-1.1117294509806</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-2.26346776578908</v>
+        <v>-1.11935676069871</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-2.22190491589149</v>
+        <v>-1.1166724474541</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-2.20091885234476</v>
+        <v>-1.11209912421479</v>
       </c>
       <c r="AER2" s="2">
-        <v>-2.23462592007596</v>
+        <v>-1.12404849663474</v>
       </c>
       <c r="AES2" s="2">
-        <v>-2.24099246560065</v>
+        <v>-1.11557089379359</v>
       </c>
       <c r="AET2" s="2">
-        <v>-2.22145562588353</v>
+        <v>-1.10512953619807</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-2.21567239986961</v>
+        <v>-1.10341926704809</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-2.2062857268522</v>
+        <v>-1.1004186848703</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-2.1985953072161</v>
+        <v>-1.10226161500643</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-2.17556841003789</v>
+        <v>-1.10523669937044</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-2.19465996406033</v>
+        <v>-1.10160142628286</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-2.17184107374175</v>
+        <v>-1.09081224134029</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-2.17345625358636</v>
+        <v>-1.07810385516122</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-2.1804370745389</v>
+        <v>-1.08300358475022</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-2.16675764081395</v>
+        <v>-1.09394156992189</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-2.14965088186201</v>
+        <v>-1.08889459862417</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-2.14207550877607</v>
+        <v>-1.0841112494307</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-2.1377930313399</v>
+        <v>-1.06809297738819</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-2.12299894179522</v>
+        <v>-1.06462924091493</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-2.13958985193567</v>
+        <v>-1.06822343102175</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-2.14897988123904</v>
+        <v>-1.05953112891217</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-2.13816920553589</v>
+        <v>-1.05139945132368</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-2.13364177632079</v>
+        <v>-1.04849797640029</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-2.11678806343313</v>
+        <v>-1.05420485825745</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-2.12340767211779</v>
+        <v>-1.02905136180741</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-2.11002696113851</v>
+        <v>-1.04160264047319</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-2.11412643172631</v>
+        <v>-1.04332065926332</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-2.12186763878749</v>
+        <v>-1.03758144734402</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-2.1071238709226</v>
+        <v>-1.03975689146534</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-2.11633541681875</v>
+        <v>-1.02217299403083</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-2.10009406183794</v>
+        <v>-1.02559605128996</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-2.11012310827445</v>
+        <v>-1.01857941085389</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-2.10660564979172</v>
+        <v>-1.01601673342657</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-2.12186749987351</v>
+        <v>-1.0277627073507</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-2.12704227436207</v>
+        <v>-1.00592146947502</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-2.10552587737829</v>
+        <v>-1.02771602268635</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-2.09726927780127</v>
+        <v>-1.01896364269391</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-2.09608839156801</v>
+        <v>-1.01061324700402</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-2.10694129799978</v>
+        <v>-0.997161026241554</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-2.08191243658815</v>
+        <v>-1.00610386367784</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-2.09818399380402</v>
+        <v>-0.98992600981947</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-2.07789254823074</v>
+        <v>-0.984290741376316</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-2.10204623121268</v>
+        <v>-1.00812030962808</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-2.12350194511049</v>
+        <v>-1.01304457798935</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-2.07887929472808</v>
+        <v>-0.986775671957682</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-2.12233295884041</v>
+        <v>-0.996389519785926</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-2.0982334748062</v>
+        <v>-1.00271880890047</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-2.0871259356264</v>
+        <v>-0.995686032579202</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-2.0914841033817</v>
+        <v>-1.00770065445502</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-2.09954494246954</v>
+        <v>-0.99459258465415</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-2.0918223658211</v>
+        <v>-1.0125671337133</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-2.10436516722515</v>
+        <v>-1.00220225364019</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-2.10216667626311</v>
+        <v>-1.00571622832428</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-2.09471486556697</v>
+        <v>-1.01260319372704</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-2.07657241999152</v>
+        <v>-1.01637708130375</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-2.11299516881058</v>
+        <v>-1.01902610697679</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-2.08420350423834</v>
+        <v>-1.02074893889232</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-2.08486137941483</v>
+        <v>-1.02428453912216</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-2.11252400988043</v>
+        <v>-1.03710926918011</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-2.11264997507322</v>
+        <v>-1.04407770435294</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-2.11798065109477</v>
+        <v>-1.03976905390178</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-2.11298956431111</v>
+        <v>-1.04463010204595</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-2.12585745279694</v>
+        <v>-1.05697799067047</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-2.1126682456811</v>
+        <v>-1.0619582858279</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-2.13556593293472</v>
+        <v>-1.08573464715804</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-2.12760529780839</v>
+        <v>-1.07884121383284</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-2.11544139935949</v>
+        <v>-1.08749661626129</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-2.12640841127635</v>
+        <v>-1.09916052810326</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-2.14642147327323</v>
+        <v>-1.10174127351893</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-2.11598221436186</v>
+        <v>-1.10823950497773</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-2.15494815962876</v>
+        <v>-1.11601217296057</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-2.13758598095431</v>
+        <v>-1.13231765641116</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-2.1564300584705</v>
+        <v>-1.14277933711222</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-2.15489422037608</v>
+        <v>-1.13936354143258</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-2.16799726265281</v>
+        <v>-1.15082057060043</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-2.14837241254461</v>
+        <v>-1.17277162779117</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-2.18679761204372</v>
+        <v>-1.17016528680939</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-2.16983386118118</v>
+        <v>-1.2101155617709</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-2.17771245059587</v>
+        <v>-1.20773009561007</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-2.17965753840465</v>
+        <v>-1.21638771933584</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-2.17383464702851</v>
+        <v>-1.21073456085983</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-2.18132204033971</v>
+        <v>-1.22349142652554</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-2.19098145259812</v>
+        <v>-1.23190125429173</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-2.18187520667581</v>
+        <v>-1.24392969278979</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-2.19534936649803</v>
+        <v>-1.2530324456447</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-2.23182240755558</v>
+        <v>-1.27106566057624</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-2.20290043123858</v>
+        <v>-1.27528496236667</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-2.21192143920332</v>
+        <v>-1.27699466879172</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-2.21412967835548</v>
+        <v>-1.29610394645586</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-2.22095960355852</v>
+        <v>-1.28871257470562</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-2.23069435719884</v>
+        <v>-1.31435981693381</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-2.25377546553119</v>
+        <v>-1.32156300664007</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-2.24430829201503</v>
+        <v>-1.3295702486613</v>
       </c>
       <c r="AID2" s="2">
-        <v>-2.2620225069027</v>
+        <v>-1.32932315944293</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-2.25036202984041</v>
+        <v>-1.3208351128617</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-2.27187050528847</v>
+        <v>-1.34167687131846</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-2.28410724635557</v>
+        <v>-1.34166538567709</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-2.29104055090821</v>
+        <v>-1.34698587505831</v>
       </c>
       <c r="AII2" s="2">
-        <v>-2.27736365756926</v>
+        <v>-1.35875445490761</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-2.28783866395237</v>
+        <v>-1.36222689070122</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-2.30315299299847</v>
+        <v>-1.36399506703501</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-2.29148962065351</v>
+        <v>-1.37271187430168</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-2.31735333148</v>
+        <v>-1.38362925115839</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-2.30647190500419</v>
+        <v>-1.38811209712992</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-2.31230856207416</v>
+        <v>-1.38701203226568</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-2.3166133083387</v>
+        <v>-1.37737288252636</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-2.30022340384211</v>
+        <v>-1.38260522703472</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-2.32638420847823</v>
+        <v>-1.39855032598363</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-2.31148802456318</v>
+        <v>-1.39539678137919</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-2.30394057745148</v>
+        <v>-1.39671686222332</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-2.32630862627094</v>
+        <v>-1.38389713638558</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-2.32807834378764</v>
+        <v>-1.38679784664659</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-2.35180728094049</v>
+        <v>-1.39727237829023</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-2.33918927360127</v>
+        <v>-1.38713001761775</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-2.33233290844597</v>
+        <v>-1.38988788657763</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-2.33358664640559</v>
+        <v>-1.37239837792004</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-2.32655533830581</v>
+        <v>-1.37133908712888</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-2.32593852332483</v>
+        <v>-1.368915464428</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-2.32803436966802</v>
+        <v>-1.36823660129372</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-2.32698117284977</v>
+        <v>-1.37559830014124</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-2.31893701416362</v>
+        <v>-1.35682821552172</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-2.32825212210014</v>
+        <v>-1.35534263892465</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-2.33808247421044</v>
+        <v>-1.35242799237824</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-2.35411836150583</v>
+        <v>-1.35221222847837</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-2.31325212396892</v>
+        <v>-1.34171362598256</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-2.3312493206771</v>
+        <v>-1.34749678260559</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-2.31182255855229</v>
+        <v>-1.32391837916831</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-2.32457104235183</v>
+        <v>-1.32543599365145</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-2.32603184402379</v>
+        <v>-1.34033580273068</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-2.31056055805511</v>
+        <v>-1.3094359595688</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-2.31501755838325</v>
+        <v>-1.29946289632817</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-2.31922942038647</v>
+        <v>-1.29437683633018</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-2.30140166996645</v>
+        <v>-1.28796136143491</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-2.32111183666405</v>
+        <v>-1.28702116955589</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-2.31081937108002</v>
+        <v>-1.26838863562625</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-2.29474802008675</v>
+        <v>-1.28176850657949</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-2.29848508033103</v>
+        <v>-1.26344873238806</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-2.27973954563109</v>
+        <v>-1.27378967824248</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-2.29158218178973</v>
+        <v>-1.25331734161193</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-2.2764844416565</v>
+        <v>-1.24411502061955</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-2.29062335791991</v>
+        <v>-1.25354288644212</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-2.2541161544807</v>
+        <v>-1.23618238447862</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-2.27630148985993</v>
+        <v>-1.2289608203888</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-2.25737626638823</v>
+        <v>-1.22554180760666</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-2.27389068909846</v>
+        <v>-1.22434240469245</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-2.23363402813432</v>
+        <v>-1.20618139333741</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-2.26197766287566</v>
+        <v>-1.20444789904187</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-2.25807488340261</v>
+        <v>-1.21073705276623</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-2.24795580737137</v>
+        <v>-1.19434126077442</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-2.24190763825664</v>
+        <v>-1.1817462015371</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-2.22604772192497</v>
+        <v>-1.20330325051162</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-2.24455585540654</v>
+        <v>-1.18738799552359</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-2.21832063686132</v>
+        <v>-1.1781180599708</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-2.2149782199742</v>
+        <v>-1.18859017217275</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-2.22934010221335</v>
+        <v>-1.18820713522978</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-2.23452804670547</v>
+        <v>-1.18732600491059</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-2.20261775727779</v>
+        <v>-1.18739453987423</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-2.20299819220574</v>
+        <v>-1.18776227094431</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-2.21363944412477</v>
+        <v>-1.19006103855814</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-2.18059921886511</v>
+        <v>-1.17329257229335</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-2.18880650390261</v>
+        <v>-1.18880813194773</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-2.19132914527786</v>
+        <v>-1.19437094196737</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-2.17962197242296</v>
+        <v>-1.18842341733169</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-2.17184302871224</v>
+        <v>-1.18803630642919</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-2.17835594353992</v>
+        <v>-1.18489200641144</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-2.15830482979984</v>
+        <v>-1.19419390371127</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-2.16662782577498</v>
+        <v>-1.19769007794053</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-2.18393858532326</v>
+        <v>-1.21662895307841</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-2.16981529617728</v>
+        <v>-1.20766528087843</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-2.14519148907164</v>
+        <v>-1.21960534186113</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-2.15641604770261</v>
+        <v>-1.22324142212411</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-2.14893226870733</v>
+        <v>-1.23501309392844</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-2.13865728868081</v>
+        <v>-1.2549116477904</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-2.11883125905869</v>
+        <v>-1.23523430507814</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-2.13842961547668</v>
+        <v>-1.26780606764092</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-2.1194483086218</v>
+        <v>-1.25794964712574</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-2.11616545985252</v>
+        <v>-1.27649449458599</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-2.10938346584451</v>
+        <v>-1.29386647990059</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-2.12756990444057</v>
+        <v>-1.29359369535663</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-2.12388686738009</v>
+        <v>-1.31002699291713</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-2.10450996659874</v>
+        <v>-1.320941488413</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi2.xlsx
+++ b/python/Pi2.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>0.139248256665389</v>
+        <v>-16.381069818558</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0295947716699865</v>
+        <v>-4.59608636870492</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0187168463667705</v>
+        <v>-2.57244949097709</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0135141871363862</v>
+        <v>-2.78043849985307</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0264012356850779</v>
+        <v>6.85504575547423</v>
       </c>
       <c r="F2" s="2">
-        <v>0.00044459836928299</v>
+        <v>0.388468323253279</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0271007067471758</v>
+        <v>7.74177106823504</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0133648671488399</v>
+        <v>-3.05734561193878</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.00310662258292192</v>
+        <v>-4.96120194605937</v>
       </c>
       <c r="J2" s="2">
-        <v>0.00953809913010902</v>
+        <v>-6.67035347349027</v>
       </c>
       <c r="K2" s="2">
-        <v>0.00675043286428442</v>
+        <v>-11.3055715534159</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0187534256272214</v>
+        <v>5.71172789417847</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.00757553441400605</v>
+        <v>-8.12147072953668</v>
       </c>
       <c r="N2" s="2">
-        <v>0.00764650777618832</v>
+        <v>-12.6986904229145</v>
       </c>
       <c r="O2" s="2">
-        <v>-0.00729143658795858</v>
+        <v>-6.67292713815164</v>
       </c>
       <c r="P2" s="2">
-        <v>0.000204638850415093</v>
+        <v>-1.41860314249289</v>
       </c>
       <c r="Q2" s="2">
-        <v>-0.0113383536878367</v>
+        <v>0.79089989359118</v>
       </c>
       <c r="R2" s="2">
-        <v>-0.0021408760825405</v>
+        <v>-4.5288664500609</v>
       </c>
       <c r="S2" s="2">
-        <v>-0.0168778541288187</v>
+        <v>0.614421433167146</v>
       </c>
       <c r="T2" s="2">
-        <v>-0.0168782683840298</v>
+        <v>-7.19492600513717</v>
       </c>
       <c r="U2" s="2">
-        <v>-0.0189722732805514</v>
+        <v>10.7314885655817</v>
       </c>
       <c r="V2" s="2">
-        <v>-0.0192249757350994</v>
+        <v>-1.74504426857827</v>
       </c>
       <c r="W2" s="2">
-        <v>-0.0295308019532431</v>
+        <v>-8.741778707834341</v>
       </c>
       <c r="X2" s="2">
-        <v>-0.0244595040842894</v>
+        <v>-21.6895654470027</v>
       </c>
       <c r="Y2" s="2">
-        <v>-0.0303117459418013</v>
+        <v>3.92697373880082</v>
       </c>
       <c r="Z2" s="2">
-        <v>-0.0475030409987339</v>
+        <v>-6.0661952058634</v>
       </c>
       <c r="AA2" s="2">
-        <v>-0.0464594976493712</v>
+        <v>2.86374909744652</v>
       </c>
       <c r="AB2" s="2">
-        <v>-0.052110811698963</v>
+        <v>-4.39082562742954</v>
       </c>
       <c r="AC2" s="2">
-        <v>-0.0723227791623737</v>
+        <v>-7.59010980606812</v>
       </c>
       <c r="AD2" s="2">
-        <v>-0.0637113694626294</v>
+        <v>-5.75706330429557</v>
       </c>
       <c r="AE2" s="2">
-        <v>-0.0807192830219861</v>
+        <v>3.60729898326693</v>
       </c>
       <c r="AF2" s="2">
-        <v>-0.0843768051142301</v>
+        <v>-1.15884729265723</v>
       </c>
       <c r="AG2" s="2">
-        <v>-0.08217617750007621</v>
+        <v>-16.5825329311688</v>
       </c>
       <c r="AH2" s="2">
-        <v>-0.106473850396682</v>
+        <v>-5.6700339358346</v>
       </c>
       <c r="AI2" s="2">
-        <v>-0.100877999963828</v>
+        <v>1.92492132351092</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-0.107254385551848</v>
+        <v>-2.96862449120409</v>
       </c>
       <c r="AK2" s="2">
-        <v>-0.125386296132163</v>
+        <v>2.55634851569449</v>
       </c>
       <c r="AL2" s="2">
-        <v>-0.126742753676377</v>
+        <v>-0.831757915590195</v>
       </c>
       <c r="AM2" s="2">
-        <v>-0.12809824413487</v>
+        <v>-10.3559123745071</v>
       </c>
       <c r="AN2" s="2">
-        <v>-0.129512717570993</v>
+        <v>0.754756623712759</v>
       </c>
       <c r="AO2" s="2">
-        <v>-0.146426230216286</v>
+        <v>12.962248948031</v>
       </c>
       <c r="AP2" s="2">
-        <v>-0.139171146180299</v>
+        <v>-17.2736430965304</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-0.150019485503095</v>
+        <v>1.08328933571982</v>
       </c>
       <c r="AR2" s="2">
-        <v>-0.177297140529794</v>
+        <v>9.07524130820115</v>
       </c>
       <c r="AS2" s="2">
-        <v>-0.172841795366857</v>
+        <v>-4.00659378632294</v>
       </c>
       <c r="AT2" s="2">
-        <v>-0.173222218772464</v>
+        <v>-13.7090555675208</v>
       </c>
       <c r="AU2" s="2">
-        <v>-0.187285667798751</v>
+        <v>-5.73250820245899</v>
       </c>
       <c r="AV2" s="2">
-        <v>-0.182792907181519</v>
+        <v>-2.69681548593346</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.194968947755068</v>
+        <v>-4.36131482097937</v>
       </c>
       <c r="AX2" s="2">
-        <v>-0.200858956585481</v>
+        <v>-12.3544381034819</v>
       </c>
       <c r="AY2" s="2">
-        <v>-0.203697237895955</v>
+        <v>-0.341065539954201</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-0.222093632406999</v>
+        <v>-5.88979201634021</v>
       </c>
       <c r="BA2" s="2">
-        <v>-0.224233551164142</v>
+        <v>-7.80629981103519</v>
       </c>
       <c r="BB2" s="2">
-        <v>-0.222415384566582</v>
+        <v>8.449114112419389</v>
       </c>
       <c r="BC2" s="2">
-        <v>-0.239777210122594</v>
+        <v>-4.82042165820116</v>
       </c>
       <c r="BD2" s="2">
-        <v>-0.236706112718729</v>
+        <v>-4.50071735196854</v>
       </c>
       <c r="BE2" s="2">
-        <v>-0.247666099045214</v>
+        <v>-0.797900568516026</v>
       </c>
       <c r="BF2" s="2">
-        <v>-0.254263520353961</v>
+        <v>-5.77350410848864</v>
       </c>
       <c r="BG2" s="2">
-        <v>-0.24779171385191</v>
+        <v>-2.84151230515258</v>
       </c>
       <c r="BH2" s="2">
-        <v>-0.267229229639557</v>
+        <v>-13.3722416241108</v>
       </c>
       <c r="BI2" s="2">
-        <v>-0.261870399752353</v>
+        <v>-6.254809955589</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-0.282841530549384</v>
+        <v>24.5312804079707</v>
       </c>
       <c r="BK2" s="2">
-        <v>-0.269908821542104</v>
+        <v>-4.69517514770525</v>
       </c>
       <c r="BL2" s="2">
-        <v>-0.272920480388163</v>
+        <v>0.581788886278141</v>
       </c>
       <c r="BM2" s="2">
-        <v>-0.287905493005559</v>
+        <v>5.02357671053876</v>
       </c>
       <c r="BN2" s="2">
-        <v>-0.271665942086917</v>
+        <v>-0.97276834688353</v>
       </c>
       <c r="BO2" s="2">
-        <v>-0.294618674554859</v>
+        <v>5.05497969149197</v>
       </c>
       <c r="BP2" s="2">
-        <v>-0.297046050594627</v>
+        <v>-22.5311657440554</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-0.283296938369809</v>
+        <v>-8.557675014282481</v>
       </c>
       <c r="BR2" s="2">
-        <v>-0.287169676175632</v>
+        <v>-3.51872423418914</v>
       </c>
       <c r="BS2" s="2">
-        <v>-0.279681955188607</v>
+        <v>-5.1392905456083</v>
       </c>
       <c r="BT2" s="2">
-        <v>-0.292072483666397</v>
+        <v>10.8949826636845</v>
       </c>
       <c r="BU2" s="2">
-        <v>-0.292508878340018</v>
+        <v>-13.5899251719406</v>
       </c>
       <c r="BV2" s="2">
-        <v>-0.276740793486457</v>
+        <v>4.75284893554845</v>
       </c>
       <c r="BW2" s="2">
-        <v>-0.295749398574773</v>
+        <v>-4.12945387724116</v>
       </c>
       <c r="BX2" s="2">
-        <v>-0.285771741362028</v>
+        <v>-11.1192221718996</v>
       </c>
       <c r="BY2" s="2">
-        <v>-0.300235518494263</v>
+        <v>-4.89577654390519</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-0.284508501844783</v>
+        <v>-7.26048743587302</v>
       </c>
       <c r="CA2" s="2">
-        <v>-0.295880840360152</v>
+        <v>-2.64638561356346</v>
       </c>
       <c r="CB2" s="2">
-        <v>-0.289574808839556</v>
+        <v>-2.90426646903917</v>
       </c>
       <c r="CC2" s="2">
-        <v>-0.28585863027055</v>
+        <v>4.36902647028184</v>
       </c>
       <c r="CD2" s="2">
-        <v>-0.273245350130649</v>
+        <v>-3.70199142729618</v>
       </c>
       <c r="CE2" s="2">
-        <v>-0.284492034853739</v>
+        <v>-5.19077635516556</v>
       </c>
       <c r="CF2" s="2">
-        <v>-0.264665543346907</v>
+        <v>-1.07005917472975</v>
       </c>
       <c r="CG2" s="2">
-        <v>-0.284235362294692</v>
+        <v>-14.3032375738591</v>
       </c>
       <c r="CH2" s="2">
-        <v>-0.271487901913738</v>
+        <v>-2.01844605457211</v>
       </c>
       <c r="CI2" s="2">
-        <v>-0.274734559339263</v>
+        <v>14.7013086839923</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-0.286109764412066</v>
+        <v>1.93260330615777</v>
       </c>
       <c r="CK2" s="2">
-        <v>-0.26760926371368</v>
+        <v>-10.5093829643728</v>
       </c>
       <c r="CL2" s="2">
-        <v>-0.266144816573504</v>
+        <v>-1.55643498343312</v>
       </c>
       <c r="CM2" s="2">
-        <v>-0.258432271336572</v>
+        <v>-10.3867210603989</v>
       </c>
       <c r="CN2" s="2">
-        <v>-0.272857734381825</v>
+        <v>-0.558292327944974</v>
       </c>
       <c r="CO2" s="2">
-        <v>-0.252291457930599</v>
+        <v>-11.119724360949</v>
       </c>
       <c r="CP2" s="2">
-        <v>-0.242424863242399</v>
+        <v>-4.46100470041082</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-0.246837524888011</v>
+        <v>5.46531822670968</v>
       </c>
       <c r="CR2" s="2">
-        <v>-0.251161037453427</v>
+        <v>-0.9130764755492859</v>
       </c>
       <c r="CS2" s="2">
-        <v>-0.240281041485057</v>
+        <v>7.38295227059072</v>
       </c>
       <c r="CT2" s="2">
-        <v>-0.226407549495259</v>
+        <v>-5.65900259697167</v>
       </c>
       <c r="CU2" s="2">
-        <v>-0.226962607270922</v>
+        <v>1.70433426144253</v>
       </c>
       <c r="CV2" s="2">
-        <v>-0.237832371201713</v>
+        <v>-5.18229382505592</v>
       </c>
       <c r="CW2" s="2">
-        <v>-0.236817309944975</v>
+        <v>0.81416501594641</v>
       </c>
       <c r="CX2" s="2">
-        <v>-0.231633823810123</v>
+        <v>-13.1442197964377</v>
       </c>
       <c r="CY2" s="2">
-        <v>-0.221321162256169</v>
+        <v>11.8310470961852</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-0.217556728549616</v>
+        <v>0.996670629812091</v>
       </c>
       <c r="DA2" s="2">
-        <v>-0.217670241240939</v>
+        <v>-1.644723891653</v>
       </c>
       <c r="DB2" s="2">
-        <v>-0.222544534870514</v>
+        <v>-8.85816761651725</v>
       </c>
       <c r="DC2" s="2">
-        <v>-0.212324286260935</v>
+        <v>0.370748788690958</v>
       </c>
       <c r="DD2" s="2">
-        <v>-0.216742891633052</v>
+        <v>-4.85159344091995</v>
       </c>
       <c r="DE2" s="2">
-        <v>-0.208877381962437</v>
+        <v>-4.90081924444463</v>
       </c>
       <c r="DF2" s="2">
-        <v>-0.212767457974577</v>
+        <v>-14.865346300293</v>
       </c>
       <c r="DG2" s="2">
-        <v>-0.22975666500724</v>
+        <v>10.5917116704964</v>
       </c>
       <c r="DH2" s="2">
-        <v>-0.212369394312028</v>
+        <v>-2.18043563743654</v>
       </c>
       <c r="DI2" s="2">
-        <v>-0.20003725792297</v>
+        <v>2.87893399689543</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-0.217279483534611</v>
+        <v>-7.34460176432412</v>
       </c>
       <c r="DK2" s="2">
-        <v>-0.217864443838519</v>
+        <v>-8.963610676550401</v>
       </c>
       <c r="DL2" s="2">
-        <v>-0.214573987653886</v>
+        <v>-0.258775944135208</v>
       </c>
       <c r="DM2" s="2">
-        <v>-0.207669700499515</v>
+        <v>-6.72052120270885</v>
       </c>
       <c r="DN2" s="2">
-        <v>-0.210449555724692</v>
+        <v>5.69700410827599</v>
       </c>
       <c r="DO2" s="2">
-        <v>-0.221420037102042</v>
+        <v>-40.1879874306948</v>
       </c>
       <c r="DP2" s="2">
-        <v>-0.205448041640152</v>
+        <v>-6.37986911172262</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-0.214302923055944</v>
+        <v>-21.4597579116166</v>
       </c>
       <c r="DR2" s="2">
-        <v>-0.201646231861889</v>
+        <v>-4.08043360571532</v>
       </c>
       <c r="DS2" s="2">
-        <v>-0.213967137534835</v>
+        <v>3.09495333118766</v>
       </c>
       <c r="DT2" s="2">
-        <v>-0.213867331590216</v>
+        <v>-10.7992640377788</v>
       </c>
       <c r="DU2" s="2">
-        <v>-0.218902850268932</v>
+        <v>-15.99155017384</v>
       </c>
       <c r="DV2" s="2">
-        <v>-0.215940221079224</v>
+        <v>0.380064598870542</v>
       </c>
       <c r="DW2" s="2">
-        <v>-0.228438130843259</v>
+        <v>-12.8515047431303</v>
       </c>
       <c r="DX2" s="2">
-        <v>-0.231017262105309</v>
+        <v>-18.6090773246294</v>
       </c>
       <c r="DY2" s="2">
-        <v>-0.226368983403243</v>
+        <v>4.80724349807374</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-0.231589537930116</v>
+        <v>2.73404045240769</v>
       </c>
       <c r="EA2" s="2">
-        <v>-0.245323300691883</v>
+        <v>-8.685049575685101</v>
       </c>
       <c r="EB2" s="2">
-        <v>-0.238526855265507</v>
+        <v>-1.46569200058166</v>
       </c>
       <c r="EC2" s="2">
-        <v>-0.245828236129813</v>
+        <v>-1.74782220556037</v>
       </c>
       <c r="ED2" s="2">
-        <v>-0.24133238947233</v>
+        <v>-4.4955011268685</v>
       </c>
       <c r="EE2" s="2">
-        <v>-0.247354295313848</v>
+        <v>-0.0451345865176179</v>
       </c>
       <c r="EF2" s="2">
-        <v>-0.253168339158266</v>
+        <v>-20.4811489853577</v>
       </c>
       <c r="EG2" s="2">
-        <v>-0.258939334002941</v>
+        <v>-1.40068241583995</v>
       </c>
       <c r="EH2" s="2">
-        <v>-0.275093414851233</v>
+        <v>-4.44330796704314</v>
       </c>
       <c r="EI2" s="2">
-        <v>-0.270263708655623</v>
+        <v>-3.74725835713675</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-0.273467311585807</v>
+        <v>-0.40873613920293</v>
       </c>
       <c r="EK2" s="2">
-        <v>-0.290914154922081</v>
+        <v>13.0938400942474</v>
       </c>
       <c r="EL2" s="2">
-        <v>-0.294324078794849</v>
+        <v>-18.0224898762415</v>
       </c>
       <c r="EM2" s="2">
-        <v>-0.295312873611812</v>
+        <v>-9.03135640942955</v>
       </c>
       <c r="EN2" s="2">
-        <v>-0.302927573917087</v>
+        <v>-7.0190686976261</v>
       </c>
       <c r="EO2" s="2">
-        <v>-0.314175597825495</v>
+        <v>-0.669174835404476</v>
       </c>
       <c r="EP2" s="2">
-        <v>-0.313666120136143</v>
+        <v>0.379147102426819</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-0.318004673374392</v>
+        <v>8.62905564767782</v>
       </c>
       <c r="ER2" s="2">
-        <v>-0.329288067580449</v>
+        <v>5.11053677414406</v>
       </c>
       <c r="ES2" s="2">
-        <v>-0.331481404758843</v>
+        <v>-22.651720622763</v>
       </c>
       <c r="ET2" s="2">
-        <v>-0.345116443736404</v>
+        <v>-7.28487167828289</v>
       </c>
       <c r="EU2" s="2">
-        <v>-0.33852057834306</v>
+        <v>-4.381732464252</v>
       </c>
       <c r="EV2" s="2">
-        <v>-0.351300179679467</v>
+        <v>0.27863695954563</v>
       </c>
       <c r="EW2" s="2">
-        <v>-0.362173393337207</v>
+        <v>2.50239362412325</v>
       </c>
       <c r="EX2" s="2">
-        <v>-0.363802629504421</v>
+        <v>-11.6640708192466</v>
       </c>
       <c r="EY2" s="2">
-        <v>-0.375910530870855</v>
+        <v>3.03840180556123</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-0.370421137792458</v>
+        <v>-8.113080475820629</v>
       </c>
       <c r="FA2" s="2">
-        <v>-0.383386787729443</v>
+        <v>-26.8854765674616</v>
       </c>
       <c r="FB2" s="2">
-        <v>-0.394249143240403</v>
+        <v>-7.8365550730429</v>
       </c>
       <c r="FC2" s="2">
-        <v>-0.381364564906388</v>
+        <v>14.6404867020611</v>
       </c>
       <c r="FD2" s="2">
-        <v>-0.393103071095076</v>
+        <v>-9.544288763834359</v>
       </c>
       <c r="FE2" s="2">
-        <v>-0.415209798975767</v>
+        <v>0.274989672939212</v>
       </c>
       <c r="FF2" s="2">
-        <v>-0.415011683315447</v>
+        <v>-0.807687698795744</v>
       </c>
       <c r="FG2" s="2">
-        <v>-0.411012959183436</v>
+        <v>-2.55215221796557</v>
       </c>
       <c r="FH2" s="2">
-        <v>-0.426118254627141</v>
+        <v>-17.6163428636616</v>
       </c>
       <c r="FI2" s="2">
-        <v>-0.436895888018945</v>
+        <v>2.45692432862821</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-0.435021757952237</v>
+        <v>-14.0260220694152</v>
       </c>
       <c r="FK2" s="2">
-        <v>-0.446064796355941</v>
+        <v>-0.331116656544015</v>
       </c>
       <c r="FL2" s="2">
-        <v>-0.438148196273924</v>
+        <v>-27.7085177632368</v>
       </c>
       <c r="FM2" s="2">
-        <v>-0.443420597578295</v>
+        <v>-23.6656068393697</v>
       </c>
       <c r="FN2" s="2">
-        <v>-0.442109586267101</v>
+        <v>-10.8856565277227</v>
       </c>
       <c r="FO2" s="2">
-        <v>-0.454653788555968</v>
+        <v>-21.2026751561155</v>
       </c>
       <c r="FP2" s="2">
-        <v>-0.450094473563968</v>
+        <v>-12.3139137270847</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-0.453522373926844</v>
+        <v>-4.97369674178516</v>
       </c>
       <c r="FR2" s="2">
-        <v>-0.470430320468721</v>
+        <v>-22.5883672705141</v>
       </c>
       <c r="FS2" s="2">
-        <v>-0.468160698665327</v>
+        <v>-2.53955561064464</v>
       </c>
       <c r="FT2" s="2">
-        <v>-0.456930465594662</v>
+        <v>-3.08143577271774</v>
       </c>
       <c r="FU2" s="2">
-        <v>-0.470866459443466</v>
+        <v>2.80230726549141</v>
       </c>
       <c r="FV2" s="2">
-        <v>-0.453182783548308</v>
+        <v>4.36836225246019</v>
       </c>
       <c r="FW2" s="2">
-        <v>-0.473321756525315</v>
+        <v>-17.6720332191069</v>
       </c>
       <c r="FX2" s="2">
-        <v>-0.469304919433772</v>
+        <v>-5.76557528285828</v>
       </c>
       <c r="FY2" s="2">
-        <v>-0.469649610339065</v>
+        <v>-15.1524510263111</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-0.47207389558083</v>
+        <v>-38.4581619589924</v>
       </c>
       <c r="GA2" s="2">
-        <v>-0.458661240639482</v>
+        <v>-9.04587552772465</v>
       </c>
       <c r="GB2" s="2">
-        <v>-0.462503543488358</v>
+        <v>-8.038343022671089</v>
       </c>
       <c r="GC2" s="2">
-        <v>-0.470883304195204</v>
+        <v>-0.788135131777478</v>
       </c>
       <c r="GD2" s="2">
-        <v>-0.460733542445552</v>
+        <v>-0.665671198110555</v>
       </c>
       <c r="GE2" s="2">
-        <v>-0.45879815148511</v>
+        <v>1.40802003972706</v>
       </c>
       <c r="GF2" s="2">
-        <v>-0.475013032487485</v>
+        <v>-2.07644554916551</v>
       </c>
       <c r="GG2" s="2">
-        <v>-0.470207347749602</v>
+        <v>-10.5595709569493</v>
       </c>
       <c r="GH2" s="2">
-        <v>-0.455648423722655</v>
+        <v>0.0798542871402373</v>
       </c>
       <c r="GI2" s="2">
-        <v>-0.443177712257086</v>
+        <v>-24.1262335297833</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-0.454255485418782</v>
+        <v>-8.72765594409657</v>
       </c>
       <c r="GK2" s="2">
-        <v>-0.458756910338942</v>
+        <v>-9.51140780510946</v>
       </c>
       <c r="GL2" s="2">
-        <v>-0.452988598158796</v>
+        <v>-2.11147192048999</v>
       </c>
       <c r="GM2" s="2">
-        <v>-0.451879083351518</v>
+        <v>-14.9795539710333</v>
       </c>
       <c r="GN2" s="2">
-        <v>-0.439229189090363</v>
+        <v>-9.75902082186453</v>
       </c>
       <c r="GO2" s="2">
-        <v>-0.422573794098378</v>
+        <v>-7.76733795399982</v>
       </c>
       <c r="GP2" s="2">
-        <v>-0.437343161343563</v>
+        <v>-7.46288014668418</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-0.428468483506372</v>
+        <v>-9.277400732483651</v>
       </c>
       <c r="GR2" s="2">
-        <v>-0.424255220996117</v>
+        <v>-39.9551096789073</v>
       </c>
       <c r="GS2" s="2">
-        <v>-0.430044061831632</v>
+        <v>-12.0050019738263</v>
       </c>
       <c r="GT2" s="2">
-        <v>-0.407616874159162</v>
+        <v>-10.4946609145815</v>
       </c>
       <c r="GU2" s="2">
-        <v>-0.426891592493867</v>
+        <v>-0.116653116845046</v>
       </c>
       <c r="GV2" s="2">
-        <v>-0.414125909594491</v>
+        <v>-4.58493433280207</v>
       </c>
       <c r="GW2" s="2">
-        <v>-0.410031523475206</v>
+        <v>0.173657766793567</v>
       </c>
       <c r="GX2" s="2">
-        <v>-0.425593758765957</v>
+        <v>-0.0574920732284628</v>
       </c>
       <c r="GY2" s="2">
-        <v>-0.384598251237023</v>
+        <v>16.4879282650883</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-0.412864449033663</v>
+        <v>-9.5486619147912</v>
       </c>
       <c r="HA2" s="2">
-        <v>-0.396399741051169</v>
+        <v>-8.390406176498949</v>
       </c>
       <c r="HB2" s="2">
-        <v>-0.384862129546444</v>
+        <v>-2.31857802610489</v>
       </c>
       <c r="HC2" s="2">
-        <v>-0.399706948201756</v>
+        <v>-15.9676402004409</v>
       </c>
       <c r="HD2" s="2">
-        <v>-0.381752617655966</v>
+        <v>5.81707621675245</v>
       </c>
       <c r="HE2" s="2">
-        <v>-0.385864576060734</v>
+        <v>-1.18262181585529</v>
       </c>
       <c r="HF2" s="2">
-        <v>-0.383452684939342</v>
+        <v>5.14499743286453</v>
       </c>
       <c r="HG2" s="2">
-        <v>-0.377808504896887</v>
+        <v>6.77718294973029</v>
       </c>
       <c r="HH2" s="2">
-        <v>-0.37797183113799</v>
+        <v>-16.247608834965</v>
       </c>
       <c r="HI2" s="2">
-        <v>-0.374196651472502</v>
+        <v>-15.9218880637836</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-0.350545899502125</v>
+        <v>-2.01365464420391</v>
       </c>
       <c r="HK2" s="2">
-        <v>-0.361122477452638</v>
+        <v>-1.32930471770123</v>
       </c>
       <c r="HL2" s="2">
-        <v>-0.353849456143064</v>
+        <v>0.663844722208305</v>
       </c>
       <c r="HM2" s="2">
-        <v>-0.364670438506503</v>
+        <v>-23.5645241420559</v>
       </c>
       <c r="HN2" s="2">
-        <v>-0.357875162831651</v>
+        <v>-12.8102942639597</v>
       </c>
       <c r="HO2" s="2">
-        <v>-0.359415199191933</v>
+        <v>1.90681668117818</v>
       </c>
       <c r="HP2" s="2">
-        <v>-0.35759709795747</v>
+        <v>0.424970120303213</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-0.366772134421361</v>
+        <v>-3.69987139272793</v>
       </c>
       <c r="HR2" s="2">
-        <v>-0.350085942472509</v>
+        <v>-3.66688665929119</v>
       </c>
       <c r="HS2" s="2">
-        <v>-0.366166796597839</v>
+        <v>2.41226441336553</v>
       </c>
       <c r="HT2" s="2">
-        <v>-0.354882221342319</v>
+        <v>-4.06751644930725</v>
       </c>
       <c r="HU2" s="2">
-        <v>-0.354425816673473</v>
+        <v>5.86292826118242</v>
       </c>
       <c r="HV2" s="2">
-        <v>-0.349881201839584</v>
+        <v>-17.5846770169734</v>
       </c>
       <c r="HW2" s="2">
-        <v>-0.349500458163282</v>
+        <v>1.19711584701064</v>
       </c>
       <c r="HX2" s="2">
-        <v>-0.347329207672863</v>
+        <v>-2.05263890180768</v>
       </c>
       <c r="HY2" s="2">
-        <v>-0.351666997606205</v>
+        <v>2.12368544105703</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-0.368590989674676</v>
+        <v>-3.92817462386161</v>
       </c>
       <c r="IA2" s="2">
-        <v>-0.368670941339992</v>
+        <v>2.66359778201527</v>
       </c>
       <c r="IB2" s="2">
-        <v>-0.376158997275664</v>
+        <v>-4.12541156533197</v>
       </c>
       <c r="IC2" s="2">
-        <v>-0.358702562857939</v>
+        <v>5.19897932076134</v>
       </c>
       <c r="ID2" s="2">
-        <v>-0.375589354439778</v>
+        <v>5.23030598849088</v>
       </c>
       <c r="IE2" s="2">
-        <v>-0.370133031974352</v>
+        <v>-4.59682644603153</v>
       </c>
       <c r="IF2" s="2">
-        <v>-0.375273644805551</v>
+        <v>0.428270416999238</v>
       </c>
       <c r="IG2" s="2">
-        <v>-0.376020448842967</v>
+        <v>-2.39892281970624</v>
       </c>
       <c r="IH2" s="2">
-        <v>-0.388468959104665</v>
+        <v>-0.638849655443174</v>
       </c>
       <c r="II2" s="2">
-        <v>-0.381510602421709</v>
+        <v>2.22327390930534</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-0.389079754146576</v>
+        <v>-2.7655589769615</v>
       </c>
       <c r="IK2" s="2">
-        <v>-0.380437074575661</v>
+        <v>-0.0439618766626498</v>
       </c>
       <c r="IL2" s="2">
-        <v>-0.390969154077376</v>
+        <v>-3.18079652813473</v>
       </c>
       <c r="IM2" s="2">
-        <v>-0.398052584914352</v>
+        <v>-6.15693168960197</v>
       </c>
       <c r="IN2" s="2">
-        <v>-0.412440219781759</v>
+        <v>-8.76645489958953</v>
       </c>
       <c r="IO2" s="2">
-        <v>-0.399303463217782</v>
+        <v>-16.1336607565795</v>
       </c>
       <c r="IP2" s="2">
-        <v>-0.41649690967561</v>
+        <v>19.7796113726917</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-0.423451993536722</v>
+        <v>2.93513957761321</v>
       </c>
       <c r="IR2" s="2">
-        <v>-0.42295006152115</v>
+        <v>-6.26090557429801</v>
       </c>
       <c r="IS2" s="2">
-        <v>-0.432875241601827</v>
+        <v>-22.1741031791492</v>
       </c>
       <c r="IT2" s="2">
-        <v>-0.44825202174962</v>
+        <v>0.149883053406205</v>
       </c>
       <c r="IU2" s="2">
-        <v>-0.441030251449324</v>
+        <v>-1.43404346871437</v>
       </c>
       <c r="IV2" s="2">
-        <v>-0.462886398668135</v>
+        <v>-6.55519490680693</v>
       </c>
       <c r="IW2" s="2">
-        <v>-0.461568987371565</v>
+        <v>-3.8359811936899</v>
       </c>
       <c r="IX2" s="2">
-        <v>-0.472216927987015</v>
+        <v>-12.6998298571739</v>
       </c>
       <c r="IY2" s="2">
-        <v>-0.485009260274393</v>
+        <v>-27.7367690919731</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-0.48427915548396</v>
+        <v>-3.1585742503108</v>
       </c>
       <c r="JA2" s="2">
-        <v>-0.480531244235821</v>
+        <v>-8.05225854007162</v>
       </c>
       <c r="JB2" s="2">
-        <v>-0.497332448300096</v>
+        <v>-37.1177830296949</v>
       </c>
       <c r="JC2" s="2">
-        <v>-0.510095139577152</v>
+        <v>-3.6946475142837</v>
       </c>
       <c r="JD2" s="2">
-        <v>-0.513644308392239</v>
+        <v>0.533364265055476</v>
       </c>
       <c r="JE2" s="2">
-        <v>-0.519237737715359</v>
+        <v>-1.74414532339898</v>
       </c>
       <c r="JF2" s="2">
-        <v>-0.52991445923476</v>
+        <v>-12.6795825210969</v>
       </c>
       <c r="JG2" s="2">
-        <v>-0.518568792360249</v>
+        <v>-3.13946057783109</v>
       </c>
       <c r="JH2" s="2">
-        <v>-0.5506789207250889</v>
+        <v>-7.69482432809237</v>
       </c>
       <c r="JI2" s="2">
-        <v>-0.549411901857965</v>
+        <v>-0.548075841602814</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-0.552645175761295</v>
+        <v>2.47882641645548</v>
       </c>
       <c r="JK2" s="2">
-        <v>-0.565763047670526</v>
+        <v>2.07507226043658</v>
       </c>
       <c r="JL2" s="2">
-        <v>-0.568231157087799</v>
+        <v>0.8856230295065149</v>
       </c>
       <c r="JM2" s="2">
-        <v>-0.56753926158076</v>
+        <v>3.93645329394041</v>
       </c>
       <c r="JN2" s="2">
-        <v>-0.576984779186013</v>
+        <v>-1.29767159936925</v>
       </c>
       <c r="JO2" s="2">
-        <v>-0.597059545239528</v>
+        <v>8.22027759866746</v>
       </c>
       <c r="JP2" s="2">
-        <v>-0.586599195019294</v>
+        <v>-9.82958820461034</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-0.595798793188687</v>
+        <v>-38.2032215242422</v>
       </c>
       <c r="JR2" s="2">
-        <v>-0.587331143828696</v>
+        <v>3.1149909218703</v>
       </c>
       <c r="JS2" s="2">
-        <v>-0.595943814260161</v>
+        <v>-13.9283820338968</v>
       </c>
       <c r="JT2" s="2">
-        <v>-0.605094325170091</v>
+        <v>-14.3148365891808</v>
       </c>
       <c r="JU2" s="2">
-        <v>-0.606818768707386</v>
+        <v>-0.958596292623167</v>
       </c>
       <c r="JV2" s="2">
-        <v>-0.616764573024922</v>
+        <v>-5.90644187114932</v>
       </c>
       <c r="JW2" s="2">
-        <v>-0.613465541168816</v>
+        <v>0.249837341054645</v>
       </c>
       <c r="JX2" s="2">
-        <v>-0.634659894241159</v>
+        <v>6.57839217220014</v>
       </c>
       <c r="JY2" s="2">
-        <v>-0.629798817924479</v>
+        <v>-7.24714393166426</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-0.631679140785432</v>
+        <v>0.0653048939224827</v>
       </c>
       <c r="KA2" s="2">
-        <v>-0.617771689948014</v>
+        <v>-4.86709420290852</v>
       </c>
       <c r="KB2" s="2">
-        <v>-0.636491696384805</v>
+        <v>-0.941012172647695</v>
       </c>
       <c r="KC2" s="2">
-        <v>-0.633783989467002</v>
+        <v>3.642908200507</v>
       </c>
       <c r="KD2" s="2">
-        <v>-0.643524805941646</v>
+        <v>-6.97678014989128</v>
       </c>
       <c r="KE2" s="2">
-        <v>-0.64742956691186</v>
+        <v>1.74177274733022</v>
       </c>
       <c r="KF2" s="2">
-        <v>-0.634283553029008</v>
+        <v>-2.02587996573317</v>
       </c>
       <c r="KG2" s="2">
-        <v>-0.643049824874965</v>
+        <v>-23.3392922159843</v>
       </c>
       <c r="KH2" s="2">
-        <v>-0.652337324735771</v>
+        <v>12.7581963894886</v>
       </c>
       <c r="KI2" s="2">
-        <v>-0.644844291995191</v>
+        <v>-0.210625987430552</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-0.62398401171235</v>
+        <v>-5.79898203798771</v>
       </c>
       <c r="KK2" s="2">
-        <v>-0.654075980665985</v>
+        <v>-1.6228601967111</v>
       </c>
       <c r="KL2" s="2">
-        <v>-0.639189561121897</v>
+        <v>1.34828788082903</v>
       </c>
       <c r="KM2" s="2">
-        <v>-0.624717002769824</v>
+        <v>-0.586968311905769</v>
       </c>
       <c r="KN2" s="2">
-        <v>-0.618751766838833</v>
+        <v>9.84223641360138</v>
       </c>
       <c r="KO2" s="2">
-        <v>-0.626168014532529</v>
+        <v>-13.0024853695365</v>
       </c>
       <c r="KP2" s="2">
-        <v>-0.626770568832687</v>
+        <v>1.2519896473365</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-0.611767213330326</v>
+        <v>-25.6846524233331</v>
       </c>
       <c r="KR2" s="2">
-        <v>-0.616653009958419</v>
+        <v>-17.650925880431</v>
       </c>
       <c r="KS2" s="2">
-        <v>-0.61523899446259</v>
+        <v>-6.73451447667973</v>
       </c>
       <c r="KT2" s="2">
-        <v>-0.615402160739673</v>
+        <v>0.8067587312858771</v>
       </c>
       <c r="KU2" s="2">
-        <v>-0.607613183748009</v>
+        <v>-15.3318607820802</v>
       </c>
       <c r="KV2" s="2">
-        <v>-0.596412420701581</v>
+        <v>-4.91001158579724</v>
       </c>
       <c r="KW2" s="2">
-        <v>-0.609820570009958</v>
+        <v>-4.51941596944684</v>
       </c>
       <c r="KX2" s="2">
-        <v>-0.5830203697841631</v>
+        <v>-10.1687979302394</v>
       </c>
       <c r="KY2" s="2">
-        <v>-0.6057713959643301</v>
+        <v>-5.5551810333737</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-0.597468123105576</v>
+        <v>-4.00631843258401</v>
       </c>
       <c r="LA2" s="2">
-        <v>-0.569721820347702</v>
+        <v>-11.1117395468251</v>
       </c>
       <c r="LB2" s="2">
-        <v>-0.593144489128474</v>
+        <v>-6.20878813784416</v>
       </c>
       <c r="LC2" s="2">
-        <v>-0.58998870210235</v>
+        <v>-4.86371388613103</v>
       </c>
       <c r="LD2" s="2">
-        <v>-0.5678290300420999</v>
+        <v>-6.08908292123968</v>
       </c>
       <c r="LE2" s="2">
-        <v>-0.57014904396732</v>
+        <v>2.2400963345303</v>
       </c>
       <c r="LF2" s="2">
-        <v>-0.569105980896358</v>
+        <v>-4.86667197007399</v>
       </c>
       <c r="LG2" s="2">
-        <v>-0.561120293787054</v>
+        <v>-3.38553654018353</v>
       </c>
       <c r="LH2" s="2">
-        <v>-0.561445678518402</v>
+        <v>-3.96062981571392</v>
       </c>
       <c r="LI2" s="2">
-        <v>-0.565050474363859</v>
+        <v>-5.39464873246849</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-0.545941108053821</v>
+        <v>-0.499632682468287</v>
       </c>
       <c r="LK2" s="2">
-        <v>-0.558922303033929</v>
+        <v>-11.1348532507853</v>
       </c>
       <c r="LL2" s="2">
-        <v>-0.548575286236</v>
+        <v>6.43047130876812</v>
       </c>
       <c r="LM2" s="2">
-        <v>-0.529027160831401</v>
+        <v>-10.1051538084674</v>
       </c>
       <c r="LN2" s="2">
-        <v>-0.532331051499527</v>
+        <v>-5.66859507524056</v>
       </c>
       <c r="LO2" s="2">
-        <v>-0.544495227847134</v>
+        <v>-4.00251614016611</v>
       </c>
       <c r="LP2" s="2">
-        <v>-0.520370992639925</v>
+        <v>-2.12225851745095</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-0.523273361319076</v>
+        <v>-5.90017756353363</v>
       </c>
       <c r="LR2" s="2">
-        <v>-0.529519234414022</v>
+        <v>-8.073527641535289</v>
       </c>
       <c r="LS2" s="2">
-        <v>-0.525505442118067</v>
+        <v>1.30271052480744</v>
       </c>
       <c r="LT2" s="2">
-        <v>-0.516964844056269</v>
+        <v>6.47713493058373</v>
       </c>
       <c r="LU2" s="2">
-        <v>-0.515398931126016</v>
+        <v>-4.67755966517118</v>
       </c>
       <c r="LV2" s="2">
-        <v>-0.51344352464914</v>
+        <v>-9.234886410918611</v>
       </c>
       <c r="LW2" s="2">
-        <v>-0.516258142743408</v>
+        <v>-14.0302632181124</v>
       </c>
       <c r="LX2" s="2">
-        <v>-0.51088006081753</v>
+        <v>-8.50664839888117</v>
       </c>
       <c r="LY2" s="2">
-        <v>-0.492037017098323</v>
+        <v>-5.97929753766241</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-0.502419311764942</v>
+        <v>-9.070553406493421</v>
       </c>
       <c r="MA2" s="2">
-        <v>-0.5098458636302849</v>
+        <v>0.674604937098491</v>
       </c>
       <c r="MB2" s="2">
-        <v>-0.510641612722446</v>
+        <v>-1.84654465408231</v>
       </c>
       <c r="MC2" s="2">
-        <v>-0.512804914144108</v>
+        <v>-8.702175628183189</v>
       </c>
       <c r="MD2" s="2">
-        <v>-0.506889197318193</v>
+        <v>0.173596231171781</v>
       </c>
       <c r="ME2" s="2">
-        <v>-0.512618283272131</v>
+        <v>-11.1940121101793</v>
       </c>
       <c r="MF2" s="2">
-        <v>-0.50788540989027</v>
+        <v>-5.48297538520908</v>
       </c>
       <c r="MG2" s="2">
-        <v>-0.516571539033525</v>
+        <v>-27.2133121311483</v>
       </c>
       <c r="MH2" s="2">
-        <v>-0.495394558752601</v>
+        <v>3.24444190485914</v>
       </c>
       <c r="MI2" s="2">
-        <v>-0.50940711303733</v>
+        <v>-23.3275948283719</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-0.502954936130942</v>
+        <v>2.1800507113811</v>
       </c>
       <c r="MK2" s="2">
-        <v>-0.519896866421349</v>
+        <v>-6.62218683747287</v>
       </c>
       <c r="ML2" s="2">
-        <v>-0.516365166764243</v>
+        <v>-3.75807749310584</v>
       </c>
       <c r="MM2" s="2">
-        <v>-0.518430363203226</v>
+        <v>-5.275886496036</v>
       </c>
       <c r="MN2" s="2">
-        <v>-0.531246799527441</v>
+        <v>9.394076252253219</v>
       </c>
       <c r="MO2" s="2">
-        <v>-0.530994082279293</v>
+        <v>-10.8797403194033</v>
       </c>
       <c r="MP2" s="2">
-        <v>-0.522252551580233</v>
+        <v>-9.510443725695261</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-0.536147717614861</v>
+        <v>-11.2695769525031</v>
       </c>
       <c r="MR2" s="2">
-        <v>-0.531251419112349</v>
+        <v>-4.76707462171904</v>
       </c>
       <c r="MS2" s="2">
-        <v>-0.535193732177049</v>
+        <v>-20.0847731201677</v>
       </c>
       <c r="MT2" s="2">
-        <v>-0.541272688787795</v>
+        <v>-20.1780000917725</v>
       </c>
       <c r="MU2" s="2">
-        <v>-0.54989650678744</v>
+        <v>-9.844703517319591</v>
       </c>
       <c r="MV2" s="2">
-        <v>-0.567362983633639</v>
+        <v>-1.36589848298504</v>
       </c>
       <c r="MW2" s="2">
-        <v>-0.561360245312762</v>
+        <v>-9.279661659429729</v>
       </c>
       <c r="MX2" s="2">
-        <v>-0.553038528388325</v>
+        <v>-8.97890537264316</v>
       </c>
       <c r="MY2" s="2">
-        <v>-0.560821706680911</v>
+        <v>-4.27466701243871</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-0.58260211389641</v>
+        <v>-0.430639338329396</v>
       </c>
       <c r="NA2" s="2">
-        <v>-0.574462841243745</v>
+        <v>7.78415951072889</v>
       </c>
       <c r="NB2" s="2">
-        <v>-0.58409602485848</v>
+        <v>-9.148782286345099</v>
       </c>
       <c r="NC2" s="2">
-        <v>-0.593770213328918</v>
+        <v>-10.2363025543775</v>
       </c>
       <c r="ND2" s="2">
-        <v>-0.599297713429106</v>
+        <v>-6.00910036549129</v>
       </c>
       <c r="NE2" s="2">
-        <v>-0.609565248682252</v>
+        <v>2.97425530112594</v>
       </c>
       <c r="NF2" s="2">
-        <v>-0.602345983669662</v>
+        <v>-8.23767437584188</v>
       </c>
       <c r="NG2" s="2">
-        <v>-0.620344327387665</v>
+        <v>-10.0121917735664</v>
       </c>
       <c r="NH2" s="2">
-        <v>-0.629216054802903</v>
+        <v>-6.86058467784002</v>
       </c>
       <c r="NI2" s="2">
-        <v>-0.632989234675584</v>
+        <v>-4.47079216190136</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-0.639653366418934</v>
+        <v>-3.90899973536163</v>
       </c>
       <c r="NK2" s="2">
-        <v>-0.636453204777913</v>
+        <v>-1.50098344524574</v>
       </c>
       <c r="NL2" s="2">
-        <v>-0.653284474078654</v>
+        <v>-0.5365338905488281</v>
       </c>
       <c r="NM2" s="2">
-        <v>-0.665421339617041</v>
+        <v>-6.17094373969622</v>
       </c>
       <c r="NN2" s="2">
-        <v>-0.653602174530127</v>
+        <v>-14.0828824713821</v>
       </c>
       <c r="NO2" s="2">
-        <v>-0.673992368029642</v>
+        <v>-1.05161596954491</v>
       </c>
       <c r="NP2" s="2">
-        <v>-0.682694040509626</v>
+        <v>-4.60851390777972</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-0.693395933111403</v>
+        <v>3.69910941010074</v>
       </c>
       <c r="NR2" s="2">
-        <v>-0.704462698912339</v>
+        <v>-4.92034589156281</v>
       </c>
       <c r="NS2" s="2">
-        <v>-0.703346567085533</v>
+        <v>-3.5460701073818</v>
       </c>
       <c r="NT2" s="2">
-        <v>-0.711377166588275</v>
+        <v>-16.7171871890496</v>
       </c>
       <c r="NU2" s="2">
-        <v>-0.706739028945535</v>
+        <v>-15.9079494565925</v>
       </c>
       <c r="NV2" s="2">
-        <v>-0.713569151082193</v>
+        <v>-11.6014727180733</v>
       </c>
       <c r="NW2" s="2">
-        <v>-0.720095865884364</v>
+        <v>-8.342872945774999</v>
       </c>
       <c r="NX2" s="2">
-        <v>-0.721875354950146</v>
+        <v>-2.79103716137918</v>
       </c>
       <c r="NY2" s="2">
-        <v>-0.7326151757468931</v>
+        <v>1.32830369203822</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-0.743005021918963</v>
+        <v>-0.430694176952272</v>
       </c>
       <c r="OA2" s="2">
-        <v>-0.751299787925198</v>
+        <v>-10.996699709935</v>
       </c>
       <c r="OB2" s="2">
-        <v>-0.747939080818824</v>
+        <v>-24.5406287186575</v>
       </c>
       <c r="OC2" s="2">
-        <v>-0.731093815137954</v>
+        <v>5.55394929951893</v>
       </c>
       <c r="OD2" s="2">
-        <v>-0.7548104794109221</v>
+        <v>3.44504502790033</v>
       </c>
       <c r="OE2" s="2">
-        <v>-0.760596905672588</v>
+        <v>-12.0791205841462</v>
       </c>
       <c r="OF2" s="2">
-        <v>-0.769919124310305</v>
+        <v>1.99430841803706</v>
       </c>
       <c r="OG2" s="2">
-        <v>-0.763892836112379</v>
+        <v>-7.36723757166131</v>
       </c>
       <c r="OH2" s="2">
-        <v>-0.759479692337361</v>
+        <v>-29.8059969282436</v>
       </c>
       <c r="OI2" s="2">
-        <v>-0.765800339135983</v>
+        <v>-0.209904547499049</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-0.76815459104088</v>
+        <v>-2.30326659154437</v>
       </c>
       <c r="OK2" s="2">
-        <v>-0.759385514047894</v>
+        <v>-7.90627602853827</v>
       </c>
       <c r="OL2" s="2">
-        <v>-0.7676486217881739</v>
+        <v>4.04666765305939</v>
       </c>
       <c r="OM2" s="2">
-        <v>-0.765730517068728</v>
+        <v>-33.9797574795389</v>
       </c>
       <c r="ON2" s="2">
-        <v>-0.7602161715628371</v>
+        <v>-1.91806912782366</v>
       </c>
       <c r="OO2" s="2">
-        <v>-0.779561238307971</v>
+        <v>-4.46649770383547</v>
       </c>
       <c r="OP2" s="2">
-        <v>-0.760740956943439</v>
+        <v>-10.322621565163</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-0.778845653680544</v>
+        <v>5.05962385691804</v>
       </c>
       <c r="OR2" s="2">
-        <v>-0.779834577918513</v>
+        <v>-6.19296724848602</v>
       </c>
       <c r="OS2" s="2">
-        <v>-0.776754191144401</v>
+        <v>-4.12038214769783</v>
       </c>
       <c r="OT2" s="2">
-        <v>-0.7667862983107649</v>
+        <v>-7.33093552189433</v>
       </c>
       <c r="OU2" s="2">
-        <v>-0.755313090092268</v>
+        <v>-7.57124128602175</v>
       </c>
       <c r="OV2" s="2">
-        <v>-0.772946001327296</v>
+        <v>-3.5361747561283</v>
       </c>
       <c r="OW2" s="2">
-        <v>-0.748842799572311</v>
+        <v>0.314885456650463</v>
       </c>
       <c r="OX2" s="2">
-        <v>-0.752221366564535</v>
+        <v>-16.4751189848854</v>
       </c>
       <c r="OY2" s="2">
-        <v>-0.763875021941045</v>
+        <v>-26.5944670161039</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-0.755480702299556</v>
+        <v>-1.13888626386273</v>
       </c>
       <c r="PA2" s="2">
-        <v>-0.763632645308384</v>
+        <v>-25.7905948503539</v>
       </c>
       <c r="PB2" s="2">
-        <v>-0.760488297768927</v>
+        <v>4.08844372013806</v>
       </c>
       <c r="PC2" s="2">
-        <v>-0.755574287675102</v>
+        <v>-16.8221066844235</v>
       </c>
       <c r="PD2" s="2">
-        <v>-0.755574412418907</v>
+        <v>-9.894985397544991</v>
       </c>
       <c r="PE2" s="2">
-        <v>-0.720318967355543</v>
+        <v>7.43936526529787</v>
       </c>
       <c r="PF2" s="2">
-        <v>-0.737882155827575</v>
+        <v>-10.4243510358102</v>
       </c>
       <c r="PG2" s="2">
-        <v>-0.73049720837336</v>
+        <v>3.61446343452555</v>
       </c>
       <c r="PH2" s="2">
-        <v>-0.731498541125177</v>
+        <v>-0.5800752709825731</v>
       </c>
       <c r="PI2" s="2">
-        <v>-0.731025703833965</v>
+        <v>3.49514212989253</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-0.728010709870086</v>
+        <v>2.11777790442292</v>
       </c>
       <c r="PK2" s="2">
-        <v>-0.714657373003084</v>
+        <v>-0.376244152447782</v>
       </c>
       <c r="PL2" s="2">
-        <v>-0.709400489531418</v>
+        <v>0.926511602148842</v>
       </c>
       <c r="PM2" s="2">
-        <v>-0.706144574606635</v>
+        <v>-15.9698508190888</v>
       </c>
       <c r="PN2" s="2">
-        <v>-0.713108195335586</v>
+        <v>3.47832951789173</v>
       </c>
       <c r="PO2" s="2">
-        <v>-0.698681994455182</v>
+        <v>-9.350962819451111</v>
       </c>
       <c r="PP2" s="2">
-        <v>-0.7017318231037249</v>
+        <v>-4.51288656565667</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-0.685385331846772</v>
+        <v>-5.57140113869806</v>
       </c>
       <c r="PR2" s="2">
-        <v>-0.680400044717502</v>
+        <v>0.066636606385253</v>
       </c>
       <c r="PS2" s="2">
-        <v>-0.684438363838594</v>
+        <v>-7.29450168461033</v>
       </c>
       <c r="PT2" s="2">
-        <v>-0.686508353890233</v>
+        <v>-9.870037137620329</v>
       </c>
       <c r="PU2" s="2">
-        <v>-0.684903315774318</v>
+        <v>-18.5541229860197</v>
       </c>
       <c r="PV2" s="2">
-        <v>-0.6859407745491</v>
+        <v>1.08193474054591</v>
       </c>
       <c r="PW2" s="2">
-        <v>-0.673252317018465</v>
+        <v>-10.0054393719894</v>
       </c>
       <c r="PX2" s="2">
-        <v>-0.669020670475845</v>
+        <v>1.33681263335468</v>
       </c>
       <c r="PY2" s="2">
-        <v>-0.668278499008189</v>
+        <v>1.06167571098239</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-0.671736121888772</v>
+        <v>1.6714778029248</v>
       </c>
       <c r="QA2" s="2">
-        <v>-0.668295310657541</v>
+        <v>-3.30448816720132</v>
       </c>
       <c r="QB2" s="2">
-        <v>-0.667293536380869</v>
+        <v>-10.9053050376456</v>
       </c>
       <c r="QC2" s="2">
-        <v>-0.6536178985248819</v>
+        <v>7.62549169234746</v>
       </c>
       <c r="QD2" s="2">
-        <v>-0.650081028147537</v>
+        <v>4.48879709565924</v>
       </c>
       <c r="QE2" s="2">
-        <v>-0.655399194209523</v>
+        <v>-2.13852167158799</v>
       </c>
       <c r="QF2" s="2">
-        <v>-0.667403289428358</v>
+        <v>0.781219759254918</v>
       </c>
       <c r="QG2" s="2">
-        <v>-0.643893181990819</v>
+        <v>3.09531631204536</v>
       </c>
       <c r="QH2" s="2">
-        <v>-0.657044941937757</v>
+        <v>-0.22700258354934</v>
       </c>
       <c r="QI2" s="2">
-        <v>-0.659703797357579</v>
+        <v>0.990959666101324</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-0.642548817416839</v>
+        <v>-1.56640637508288</v>
       </c>
       <c r="QK2" s="2">
-        <v>-0.63454127710172</v>
+        <v>-0.07254259656693959</v>
       </c>
       <c r="QL2" s="2">
-        <v>-0.6526066872562259</v>
+        <v>-6.2875400826897</v>
       </c>
       <c r="QM2" s="2">
-        <v>-0.644739113865254</v>
+        <v>6.11272876425412</v>
       </c>
       <c r="QN2" s="2">
-        <v>-0.645140026811864</v>
+        <v>-17.3852269070636</v>
       </c>
       <c r="QO2" s="2">
-        <v>-0.648948034395306</v>
+        <v>-15.4620464013728</v>
       </c>
       <c r="QP2" s="2">
-        <v>-0.6544166289109919</v>
+        <v>6.37783987996152</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-0.64820343420312</v>
+        <v>0.331381389491812</v>
       </c>
       <c r="QR2" s="2">
-        <v>-0.665746352604338</v>
+        <v>7.14832624029309</v>
       </c>
       <c r="QS2" s="2">
-        <v>-0.647415649984691</v>
+        <v>-22.3474984497326</v>
       </c>
       <c r="QT2" s="2">
-        <v>-0.665346557762053</v>
+        <v>10.0504782409409</v>
       </c>
       <c r="QU2" s="2">
-        <v>-0.655884230484728</v>
+        <v>-0.173058700678751</v>
       </c>
       <c r="QV2" s="2">
-        <v>-0.6745989977887999</v>
+        <v>-3.15820788909299</v>
       </c>
       <c r="QW2" s="2">
-        <v>-0.652894083500586</v>
+        <v>-0.607737336338108</v>
       </c>
       <c r="QX2" s="2">
-        <v>-0.678861433104802</v>
+        <v>0.0419342369047337</v>
       </c>
       <c r="QY2" s="2">
-        <v>-0.678476105969565</v>
+        <v>-0.983831548842638</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-0.658233321966925</v>
+        <v>-4.77464012768538</v>
       </c>
       <c r="RA2" s="2">
-        <v>-0.667353544874242</v>
+        <v>-5.1511705680814</v>
       </c>
       <c r="RB2" s="2">
-        <v>-0.677304013201701</v>
+        <v>11.0804439231946</v>
       </c>
       <c r="RC2" s="2">
-        <v>-0.675805077392155</v>
+        <v>-8.363907289811999</v>
       </c>
       <c r="RD2" s="2">
-        <v>-0.689656533948996</v>
+        <v>-0.302823054667418</v>
       </c>
       <c r="RE2" s="2">
-        <v>-0.6699980430189451</v>
+        <v>-10.1921835639689</v>
       </c>
       <c r="RF2" s="2">
-        <v>-0.694395104578421</v>
+        <v>7.89137907257942</v>
       </c>
       <c r="RG2" s="2">
-        <v>-0.688456947337887</v>
+        <v>-3.14331618527936</v>
       </c>
       <c r="RH2" s="2">
-        <v>-0.701902659120772</v>
+        <v>0.793302170249911</v>
       </c>
       <c r="RI2" s="2">
-        <v>-0.702509285046374</v>
+        <v>-6.23042665343682</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-0.715171254085296</v>
+        <v>3.98035916620824</v>
       </c>
       <c r="RK2" s="2">
-        <v>-0.713726949012669</v>
+        <v>-4.36855664707993</v>
       </c>
       <c r="RL2" s="2">
-        <v>-0.72269886884134</v>
+        <v>-2.68221203667945</v>
       </c>
       <c r="RM2" s="2">
-        <v>-0.725308597575818</v>
+        <v>-15.0794067901158</v>
       </c>
       <c r="RN2" s="2">
-        <v>-0.729972861517769</v>
+        <v>-1.21642451494324</v>
       </c>
       <c r="RO2" s="2">
-        <v>-0.729646199027006</v>
+        <v>1.21700937556525</v>
       </c>
       <c r="RP2" s="2">
-        <v>-0.736951053333922</v>
+        <v>-7.29367170470668</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-0.737694663288332</v>
+        <v>-6.27653502859933</v>
       </c>
       <c r="RR2" s="2">
-        <v>-0.760614893070009</v>
+        <v>0.404255358284756</v>
       </c>
       <c r="RS2" s="2">
-        <v>-0.7571987952410431</v>
+        <v>-10.0656400163449</v>
       </c>
       <c r="RT2" s="2">
-        <v>-0.762702631302884</v>
+        <v>-14.90545345327</v>
       </c>
       <c r="RU2" s="2">
-        <v>-0.766968608905238</v>
+        <v>-0.903931281074949</v>
       </c>
       <c r="RV2" s="2">
-        <v>-0.763063326519076</v>
+        <v>-17.2377095422461</v>
       </c>
       <c r="RW2" s="2">
-        <v>-0.784216580334447</v>
+        <v>10.0529047664493</v>
       </c>
       <c r="RX2" s="2">
-        <v>-0.79284743173038</v>
+        <v>-2.22845973132444</v>
       </c>
       <c r="RY2" s="2">
-        <v>-0.796025693098939</v>
+        <v>-12.664923920649</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-0.785075325940001</v>
+        <v>-6.60586650536229</v>
       </c>
       <c r="SA2" s="2">
-        <v>-0.782974871129031</v>
+        <v>-22.9083271983893</v>
       </c>
       <c r="SB2" s="2">
-        <v>-0.811347510811632</v>
+        <v>-9.328261125770551</v>
       </c>
       <c r="SC2" s="2">
-        <v>-0.80244669010831</v>
+        <v>-7.49001556854032</v>
       </c>
       <c r="SD2" s="2">
-        <v>-0.811388404689215</v>
+        <v>-15.5527073243617</v>
       </c>
       <c r="SE2" s="2">
-        <v>-0.816798003456478</v>
+        <v>-1.23027832125914</v>
       </c>
       <c r="SF2" s="2">
-        <v>-0.804490226805621</v>
+        <v>-17.5747440169109</v>
       </c>
       <c r="SG2" s="2">
-        <v>-0.800313602720704</v>
+        <v>3.34385037084559</v>
       </c>
       <c r="SH2" s="2">
-        <v>-0.82953668268712</v>
+        <v>4.38821514262714</v>
       </c>
       <c r="SI2" s="2">
-        <v>-0.826997986239264</v>
+        <v>-19.5029366644841</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-0.807727787701647</v>
+        <v>-2.44909157879453</v>
       </c>
       <c r="SK2" s="2">
-        <v>-0.8279981869087411</v>
+        <v>-1.77949768219522</v>
       </c>
       <c r="SL2" s="2">
-        <v>-0.848753701885455</v>
+        <v>-6.54547951595379</v>
       </c>
       <c r="SM2" s="2">
-        <v>-0.825717829075465</v>
+        <v>-27.4815396195297</v>
       </c>
       <c r="SN2" s="2">
-        <v>-0.844475469685415</v>
+        <v>-1.84642034280021</v>
       </c>
       <c r="SO2" s="2">
-        <v>-0.851800436144787</v>
+        <v>4.74853171184275</v>
       </c>
       <c r="SP2" s="2">
-        <v>-0.846956482235638</v>
+        <v>-6.30651337240466</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-0.8502971261803139</v>
+        <v>-7.63032202060884</v>
       </c>
       <c r="SR2" s="2">
-        <v>-0.844494336944821</v>
+        <v>-9.62250032526004</v>
       </c>
       <c r="SS2" s="2">
-        <v>-0.848651392042639</v>
+        <v>-9.6272643680466</v>
       </c>
       <c r="ST2" s="2">
-        <v>-0.8466527260091949</v>
+        <v>-9.11329550076092</v>
       </c>
       <c r="SU2" s="2">
-        <v>-0.835636892441342</v>
+        <v>2.56110733356832</v>
       </c>
       <c r="SV2" s="2">
-        <v>-0.839368968797265</v>
+        <v>-14.0766682091008</v>
       </c>
       <c r="SW2" s="2">
-        <v>-0.845820299532867</v>
+        <v>-1.76343548004244</v>
       </c>
       <c r="SX2" s="2">
-        <v>-0.854232410530811</v>
+        <v>-12.9265045424931</v>
       </c>
       <c r="SY2" s="2">
-        <v>-0.825567882593673</v>
+        <v>-11.0563976280611</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-0.853184186742732</v>
+        <v>-6.3288002715995</v>
       </c>
       <c r="TA2" s="2">
-        <v>-0.857714581402385</v>
+        <v>-10.8362610870071</v>
       </c>
       <c r="TB2" s="2">
-        <v>-0.857128604533358</v>
+        <v>-7.63649384935623</v>
       </c>
       <c r="TC2" s="2">
-        <v>-0.852769148193516</v>
+        <v>-25.5618227944439</v>
       </c>
       <c r="TD2" s="2">
-        <v>-0.853555152688912</v>
+        <v>-6.12442174744569</v>
       </c>
       <c r="TE2" s="2">
-        <v>-0.85196644712494</v>
+        <v>-3.90559281315785</v>
       </c>
       <c r="TF2" s="2">
-        <v>-0.841549257649911</v>
+        <v>-6.96026103297614</v>
       </c>
       <c r="TG2" s="2">
-        <v>-0.831020773626625</v>
+        <v>5.79619222449199</v>
       </c>
       <c r="TH2" s="2">
-        <v>-0.83461895058697</v>
+        <v>-4.92271911887079</v>
       </c>
       <c r="TI2" s="2">
-        <v>-0.832213632333602</v>
+        <v>-14.4391295299347</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-0.846432797247912</v>
+        <v>-14.9620491739662</v>
       </c>
       <c r="TK2" s="2">
-        <v>-0.824574855260417</v>
+        <v>-2.31886484909416</v>
       </c>
       <c r="TL2" s="2">
-        <v>-0.836806807638202</v>
+        <v>5.80764802791792</v>
       </c>
       <c r="TM2" s="2">
-        <v>-0.82312940097786</v>
+        <v>10.4537788494965</v>
       </c>
       <c r="TN2" s="2">
-        <v>-0.829095965827561</v>
+        <v>-14.6009527738091</v>
       </c>
       <c r="TO2" s="2">
-        <v>-0.819565399000571</v>
+        <v>-17.8264877425782</v>
       </c>
       <c r="TP2" s="2">
-        <v>-0.823469589301118</v>
+        <v>-5.93641313728028</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-0.817147703459832</v>
+        <v>-3.57530874430128</v>
       </c>
       <c r="TR2" s="2">
-        <v>-0.817945000553947</v>
+        <v>-11.5950058564381</v>
       </c>
       <c r="TS2" s="2">
-        <v>-0.817593257159534</v>
+        <v>-6.12204686154854</v>
       </c>
       <c r="TT2" s="2">
-        <v>-0.810866802059105</v>
+        <v>-3.28889386810622</v>
       </c>
       <c r="TU2" s="2">
-        <v>-0.822629699750331</v>
+        <v>12.6359894899798</v>
       </c>
       <c r="TV2" s="2">
-        <v>-0.8029008404000419</v>
+        <v>-5.69068459599181</v>
       </c>
       <c r="TW2" s="2">
-        <v>-0.804654116364853</v>
+        <v>-7.89973558974519</v>
       </c>
       <c r="TX2" s="2">
-        <v>-0.793216041241118</v>
+        <v>-7.26019307321255</v>
       </c>
       <c r="TY2" s="2">
-        <v>-0.784547105524098</v>
+        <v>0.620578114250247</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-0.803095624031682</v>
+        <v>-3.05702035215872</v>
       </c>
       <c r="UA2" s="2">
-        <v>-0.788801903140865</v>
+        <v>-3.59462672293133</v>
       </c>
       <c r="UB2" s="2">
-        <v>-0.7936163658037581</v>
+        <v>-2.32454691018855</v>
       </c>
       <c r="UC2" s="2">
-        <v>-0.797502038910593</v>
+        <v>-10.9181418162073</v>
       </c>
       <c r="UD2" s="2">
-        <v>-0.7758804087114231</v>
+        <v>5.17217078550048</v>
       </c>
       <c r="UE2" s="2">
-        <v>-0.7952365218925</v>
+        <v>-2.24783226204331</v>
       </c>
       <c r="UF2" s="2">
-        <v>-0.772170810499714</v>
+        <v>7.45412970840285</v>
       </c>
       <c r="UG2" s="2">
-        <v>-0.770591060537664</v>
+        <v>-0.362853540081766</v>
       </c>
       <c r="UH2" s="2">
-        <v>-0.782884623108427</v>
+        <v>-7.88533115056348</v>
       </c>
       <c r="UI2" s="2">
-        <v>-0.777037375294177</v>
+        <v>-2.68471575771639</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-0.780798765376667</v>
+        <v>-16.1261612526395</v>
       </c>
       <c r="UK2" s="2">
-        <v>-0.7728849462766439</v>
+        <v>-1.24092781277026</v>
       </c>
       <c r="UL2" s="2">
-        <v>-0.767819262639756</v>
+        <v>1.18454528202301</v>
       </c>
       <c r="UM2" s="2">
-        <v>-0.774391928309811</v>
+        <v>-3.07344764630355</v>
       </c>
       <c r="UN2" s="2">
-        <v>-0.783760399780155</v>
+        <v>-18.9127719486954</v>
       </c>
       <c r="UO2" s="2">
-        <v>-0.7788099386431711</v>
+        <v>-1.17731872553714</v>
       </c>
       <c r="UP2" s="2">
-        <v>-0.765949164692598</v>
+        <v>-18.4570422637416</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-0.77410155122422</v>
+        <v>15.9314100696579</v>
       </c>
       <c r="UR2" s="2">
-        <v>-0.763336368904864</v>
+        <v>-7.16873712040356</v>
       </c>
       <c r="US2" s="2">
-        <v>-0.769025756816926</v>
+        <v>-16.3756454199877</v>
       </c>
       <c r="UT2" s="2">
-        <v>-0.76852045417016</v>
+        <v>-25.3919420227838</v>
       </c>
       <c r="UU2" s="2">
-        <v>-0.7697591684945559</v>
+        <v>6.1857177797297</v>
       </c>
       <c r="UV2" s="2">
-        <v>-0.770359751828634</v>
+        <v>6.09604363424397</v>
       </c>
       <c r="UW2" s="2">
-        <v>-0.768838253508099</v>
+        <v>-4.08374082042811</v>
       </c>
       <c r="UX2" s="2">
-        <v>-0.766609597085627</v>
+        <v>-7.59797834062557</v>
       </c>
       <c r="UY2" s="2">
-        <v>-0.76247878587291</v>
+        <v>-5.61749799829449</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-0.772416993512699</v>
+        <v>-1.47340048057034</v>
       </c>
       <c r="VA2" s="2">
-        <v>-0.768389803577312</v>
+        <v>-3.2902524770763</v>
       </c>
       <c r="VB2" s="2">
-        <v>-0.767249385003803</v>
+        <v>-2.007162863583</v>
       </c>
       <c r="VC2" s="2">
-        <v>-0.781699001319641</v>
+        <v>-10.0126124109184</v>
       </c>
       <c r="VD2" s="2">
-        <v>-0.770419655655383</v>
+        <v>-0.547769343352517</v>
       </c>
       <c r="VE2" s="2">
-        <v>-0.772076096694256</v>
+        <v>-1.05897866332193</v>
       </c>
       <c r="VF2" s="2">
-        <v>-0.792255657296026</v>
+        <v>-6.15468711264122</v>
       </c>
       <c r="VG2" s="2">
-        <v>-0.784063996771163</v>
+        <v>-9.161296960755401</v>
       </c>
       <c r="VH2" s="2">
-        <v>-0.787714479687038</v>
+        <v>-6.34424332740784</v>
       </c>
       <c r="VI2" s="2">
-        <v>-0.7741364422646561</v>
+        <v>-14.8472435886091</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-0.787782866669443</v>
+        <v>-1.58978293667367</v>
       </c>
       <c r="VK2" s="2">
-        <v>-0.793335625291542</v>
+        <v>4.74592973615278</v>
       </c>
       <c r="VL2" s="2">
-        <v>-0.793434990025555</v>
+        <v>-2.91961985324769</v>
       </c>
       <c r="VM2" s="2">
-        <v>-0.7780089570681979</v>
+        <v>-0.264201919119407</v>
       </c>
       <c r="VN2" s="2">
-        <v>-0.790233040077527</v>
+        <v>-5.04634614695196</v>
       </c>
       <c r="VO2" s="2">
-        <v>-0.794468558672316</v>
+        <v>-8.135792854059799</v>
       </c>
       <c r="VP2" s="2">
-        <v>-0.808535776453236</v>
+        <v>-5.42309763516707</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-0.810682514217736</v>
+        <v>-0.881637271921764</v>
       </c>
       <c r="VR2" s="2">
-        <v>-0.797361140689766</v>
+        <v>-9.987355536734359</v>
       </c>
       <c r="VS2" s="2">
-        <v>-0.809282619632031</v>
+        <v>-3.12594936741416</v>
       </c>
       <c r="VT2" s="2">
-        <v>-0.815689481367345</v>
+        <v>-20.1980024720187</v>
       </c>
       <c r="VU2" s="2">
-        <v>-0.811302640416851</v>
+        <v>-0.0738972476873961</v>
       </c>
       <c r="VV2" s="2">
-        <v>-0.826659027327256</v>
+        <v>-15.3915899605932</v>
       </c>
       <c r="VW2" s="2">
-        <v>-0.822234573416965</v>
+        <v>-0.898927818733475</v>
       </c>
       <c r="VX2" s="2">
-        <v>-0.834162254057632</v>
+        <v>-4.88606163607079</v>
       </c>
       <c r="VY2" s="2">
-        <v>-0.807929869693938</v>
+        <v>-4.63475943513546</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-0.823395526850217</v>
+        <v>-3.4860005304804</v>
       </c>
       <c r="WA2" s="2">
-        <v>-0.842812523518051</v>
+        <v>-5.39742130736131</v>
       </c>
       <c r="WB2" s="2">
-        <v>-0.8348671466838961</v>
+        <v>1.35848838099598</v>
       </c>
       <c r="WC2" s="2">
-        <v>-0.825781898536863</v>
+        <v>-2.71785577508087</v>
       </c>
       <c r="WD2" s="2">
-        <v>-0.843998301307579</v>
+        <v>-7.74091599330949</v>
       </c>
       <c r="WE2" s="2">
-        <v>-0.839142290043917</v>
+        <v>-9.559846711177491</v>
       </c>
       <c r="WF2" s="2">
-        <v>-0.834072831901531</v>
+        <v>-15.7379721326896</v>
       </c>
       <c r="WG2" s="2">
-        <v>-0.858591026693812</v>
+        <v>-8.20744968913084</v>
       </c>
       <c r="WH2" s="2">
-        <v>-0.833174892982792</v>
+        <v>-6.12856435042205</v>
       </c>
       <c r="WI2" s="2">
-        <v>-0.84154373549657</v>
+        <v>2.29188302550392</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-0.871081660413479</v>
+        <v>-32.2267019892599</v>
       </c>
       <c r="WK2" s="2">
-        <v>-0.864261889052279</v>
+        <v>-8.181308671143929</v>
       </c>
       <c r="WL2" s="2">
-        <v>-0.858244968849696</v>
+        <v>-2.90735027976091</v>
       </c>
       <c r="WM2" s="2">
-        <v>-0.847901935321753</v>
+        <v>-1.63584762987761</v>
       </c>
       <c r="WN2" s="2">
-        <v>-0.845767541018986</v>
+        <v>0.8250736882754151</v>
       </c>
       <c r="WO2" s="2">
-        <v>-0.8681457576614739</v>
+        <v>-0.672037560129394</v>
       </c>
       <c r="WP2" s="2">
-        <v>-0.854156270573332</v>
+        <v>-1.23223342017871</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-0.86377008728617</v>
+        <v>-12.86346356694</v>
       </c>
       <c r="WR2" s="2">
-        <v>-0.859755015717021</v>
+        <v>-3.7713382569899</v>
       </c>
       <c r="WS2" s="2">
-        <v>-0.861611360329802</v>
+        <v>4.94253557100726</v>
       </c>
       <c r="WT2" s="2">
-        <v>-0.868464803979336</v>
+        <v>-1.78356966688495</v>
       </c>
       <c r="WU2" s="2">
-        <v>-0.8702765449556</v>
+        <v>1.69844272287755</v>
       </c>
       <c r="WV2" s="2">
-        <v>-0.8770124925525</v>
+        <v>-3.54858753220595</v>
       </c>
       <c r="WW2" s="2">
-        <v>-0.880708891406494</v>
+        <v>-19.5237302598852</v>
       </c>
       <c r="WX2" s="2">
-        <v>-0.859178224349698</v>
+        <v>0.693675079748582</v>
       </c>
       <c r="WY2" s="2">
-        <v>-0.867350880758103</v>
+        <v>17.6224562493566</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-0.881070924292529</v>
+        <v>-10.3318877080105</v>
       </c>
       <c r="XA2" s="2">
-        <v>-0.877387501310146</v>
+        <v>6.57981846409936</v>
       </c>
       <c r="XB2" s="2">
-        <v>-0.873851215324308</v>
+        <v>-8.15673190763161</v>
       </c>
       <c r="XC2" s="2">
-        <v>-0.872945619475022</v>
+        <v>-10.5622962935182</v>
       </c>
       <c r="XD2" s="2">
-        <v>-0.875268181756651</v>
+        <v>-1.92064059605949</v>
       </c>
       <c r="XE2" s="2">
-        <v>-0.866135173060008</v>
+        <v>-4.68854680111301</v>
       </c>
       <c r="XF2" s="2">
-        <v>-0.869603710452569</v>
+        <v>-4.13816031105634</v>
       </c>
       <c r="XG2" s="2">
-        <v>-0.871965866742255</v>
+        <v>-7.38523756540351</v>
       </c>
       <c r="XH2" s="2">
-        <v>-0.870537390213068</v>
+        <v>-14.4274283168275</v>
       </c>
       <c r="XI2" s="2">
-        <v>-0.877480640923304</v>
+        <v>-6.19677937176675</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-0.862738861098874</v>
+        <v>0.485215463654346</v>
       </c>
       <c r="XK2" s="2">
-        <v>-0.86366281011474</v>
+        <v>-17.7119498494697</v>
       </c>
       <c r="XL2" s="2">
-        <v>-0.879684594843918</v>
+        <v>8.6609590397806</v>
       </c>
       <c r="XM2" s="2">
-        <v>-0.868691302183111</v>
+        <v>-17.4783094947706</v>
       </c>
       <c r="XN2" s="2">
-        <v>-0.865877305018282</v>
+        <v>8.3335838116666</v>
       </c>
       <c r="XO2" s="2">
-        <v>-0.870091922346408</v>
+        <v>-7.1537995388031</v>
       </c>
       <c r="XP2" s="2">
-        <v>-0.862462264509113</v>
+        <v>-15.6730935203529</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-0.869114312409266</v>
+        <v>-7.23848154760815</v>
       </c>
       <c r="XR2" s="2">
-        <v>-0.8645538517558</v>
+        <v>-5.12409610330208</v>
       </c>
       <c r="XS2" s="2">
-        <v>-0.870976070889923</v>
+        <v>1.40760432089511</v>
       </c>
       <c r="XT2" s="2">
-        <v>-0.866298438068007</v>
+        <v>-9.10750750670563</v>
       </c>
       <c r="XU2" s="2">
-        <v>-0.866997916064455</v>
+        <v>-5.60220065389485</v>
       </c>
       <c r="XV2" s="2">
-        <v>-0.862717940012768</v>
+        <v>-0.134426882330111</v>
       </c>
       <c r="XW2" s="2">
-        <v>-0.871167594603882</v>
+        <v>-4.70204975066582</v>
       </c>
       <c r="XX2" s="2">
-        <v>-0.864909321057398</v>
+        <v>-16.3738307747261</v>
       </c>
       <c r="XY2" s="2">
-        <v>-0.851924959591296</v>
+        <v>1.1269112451962</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-0.870249858078659</v>
+        <v>-6.88089038900394</v>
       </c>
       <c r="YA2" s="2">
-        <v>-0.860350567312286</v>
+        <v>-12.0273412501319</v>
       </c>
       <c r="YB2" s="2">
-        <v>-0.8524076801860681</v>
+        <v>-4.25491019081604</v>
       </c>
       <c r="YC2" s="2">
-        <v>-0.854199645639575</v>
+        <v>3.52811238864242</v>
       </c>
       <c r="YD2" s="2">
-        <v>-0.863760219299302</v>
+        <v>-13.5920124571933</v>
       </c>
       <c r="YE2" s="2">
-        <v>-0.860727481323154</v>
+        <v>-0.00619431774310668</v>
       </c>
       <c r="YF2" s="2">
-        <v>-0.862065463663594</v>
+        <v>-0.652951612024015</v>
       </c>
       <c r="YG2" s="2">
-        <v>-0.86820988066502</v>
+        <v>1.60838216034572</v>
       </c>
       <c r="YH2" s="2">
-        <v>-0.858048108631028</v>
+        <v>1.39295956093275</v>
       </c>
       <c r="YI2" s="2">
-        <v>-0.85666313288715</v>
+        <v>-3.93431179899148</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-0.8531118824799649</v>
+        <v>-3.96782826405634</v>
       </c>
       <c r="YK2" s="2">
-        <v>-0.864124249141651</v>
+        <v>-5.83076778417767</v>
       </c>
       <c r="YL2" s="2">
-        <v>-0.862956511787365</v>
+        <v>-16.7032766837027</v>
       </c>
       <c r="YM2" s="2">
-        <v>-0.860388061415533</v>
+        <v>4.61279429060449</v>
       </c>
       <c r="YN2" s="2">
-        <v>-0.863904054834693</v>
+        <v>-0.337184986075861</v>
       </c>
       <c r="YO2" s="2">
-        <v>-0.862771760586981</v>
+        <v>4.56604017931098</v>
       </c>
       <c r="YP2" s="2">
-        <v>-0.8671270167430341</v>
+        <v>-13.3294136585835</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-0.86908790670472</v>
+        <v>-24.4518937433396</v>
       </c>
       <c r="YR2" s="2">
-        <v>-0.872183791107459</v>
+        <v>-0.220402651940686</v>
       </c>
       <c r="YS2" s="2">
-        <v>-0.871540050511571</v>
+        <v>-16.7893665557406</v>
       </c>
       <c r="YT2" s="2">
-        <v>-0.8768862588183129</v>
+        <v>-13.9896682085934</v>
       </c>
       <c r="YU2" s="2">
-        <v>-0.870106676898784</v>
+        <v>-5.4696049949392</v>
       </c>
       <c r="YV2" s="2">
-        <v>-0.873760483783401</v>
+        <v>1.47867962355723</v>
       </c>
       <c r="YW2" s="2">
-        <v>-0.877740755925247</v>
+        <v>0.281842104026125</v>
       </c>
       <c r="YX2" s="2">
-        <v>-0.878548605843991</v>
+        <v>6.4136127062283</v>
       </c>
       <c r="YY2" s="2">
-        <v>-0.871806531878615</v>
+        <v>5.24370315981654</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-0.875955967762905</v>
+        <v>-2.15309600722046</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-0.889263273335222</v>
+        <v>7.49444081302391</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-0.881937725547624</v>
+        <v>-3.12396431611459</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-0.874574643924948</v>
+        <v>-1.9420473922929</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-0.8911821430138041</v>
+        <v>-3.0198089566516</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-0.87705230839947</v>
+        <v>-7.35420622996039</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-0.887624658792749</v>
+        <v>-2.21107721175242</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-0.886180703745837</v>
+        <v>-3.91747187293748</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-0.893269186984162</v>
+        <v>1.16329104394739</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-0.889939050639052</v>
+        <v>13.1402012819961</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-0.895626646688391</v>
+        <v>-5.11543393417365</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-0.913597871690882</v>
+        <v>-0.0980881951889573</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-0.918164601702268</v>
+        <v>-2.87738030990762</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-0.908046200190442</v>
+        <v>-14.1914785167118</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-0.916625079117332</v>
+        <v>-4.35443597297882</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-0.897299821180368</v>
+        <v>0.544194911224903</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-0.917279694970718</v>
+        <v>-0.552504236755868</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-0.914696052329934</v>
+        <v>-4.81818848770248</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-0.905600122502713</v>
+        <v>1.62792807540286</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-0.90420817392453</v>
+        <v>11.6007046370239</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-0.896719058382734</v>
+        <v>2.74738610575771</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-0.9192328657905871</v>
+        <v>1.55624796832106</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-0.923346443278286</v>
+        <v>-6.26388763075796</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-0.926203443762095</v>
+        <v>-9.14147733530627</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-0.913707948432119</v>
+        <v>-5.6174040285542</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-0.923709012124071</v>
+        <v>-10.132239935752</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-0.909432216163517</v>
+        <v>4.53500206197723</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-0.929193580735845</v>
+        <v>-9.523740029521781</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-0.9383136469476701</v>
+        <v>-12.92873134575</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-0.92632246663592</v>
+        <v>2.41542512176134</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-0.921945078937034</v>
+        <v>0.688447395324853</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-0.933757490601036</v>
+        <v>-3.03448760095668</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-0.906745707897611</v>
+        <v>-5.08211594130851</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-0.934342380149716</v>
+        <v>-13.9655179331086</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-0.942352977532804</v>
+        <v>0.70547650286047</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-0.931928634118611</v>
+        <v>6.76991505913859</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-0.9412035288296851</v>
+        <v>1.16037878416469</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-0.920353427608487</v>
+        <v>6.31865056315859</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-0.930759692198825</v>
+        <v>4.37099911984327</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-0.952407485713436</v>
+        <v>-0.627738032033651</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-0.929887347244338</v>
+        <v>-0.590712248083625</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-0.920290435226644</v>
+        <v>-2.66137868266216</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-0.937058386663121</v>
+        <v>-22.1806497041473</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-0.922443768356016</v>
+        <v>-8.82365125322074</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-0.941280643403073</v>
+        <v>-0.08604236126836851</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-0.923940236964678</v>
+        <v>-4.66416095129477</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-0.9322642149931351</v>
+        <v>1.38330641153587</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-0.935013172293791</v>
+        <v>1.86169422437436</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-0.919835062897663</v>
+        <v>-6.91024546516914</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-0.922288785081134</v>
+        <v>-8.387525913328609</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-0.939259156454251</v>
+        <v>-14.9376062244866</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-0.910397453624219</v>
+        <v>-4.26935139060701</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-0.9388044074052589</v>
+        <v>-6.49566530662077</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-0.919742434487253</v>
+        <v>-4.7415899291555</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-0.920758168664169</v>
+        <v>-8.11171204845331</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-0.916600222872215</v>
+        <v>-8.588713903404161</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-0.926654436069012</v>
+        <v>-24.2217539261559</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-0.927222035056836</v>
+        <v>-1.71512089940373</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-0.920853387270375</v>
+        <v>0.233798710691965</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-0.9321072261316961</v>
+        <v>-19.5689277875111</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-0.9135731983783399</v>
+        <v>-11.9628821740634</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-0.904305952684897</v>
+        <v>-10.6718570704452</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-0.921279600662707</v>
+        <v>-21.1511967914809</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-0.911707923767445</v>
+        <v>-6.86763751396888</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-0.9065985932449649</v>
+        <v>-11.6341107406307</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-0.9086876441246901</v>
+        <v>3.5948707203053</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-0.917370265360605</v>
+        <v>-12.2217754777625</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-0.915887571294914</v>
+        <v>-2.08020478661044</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-0.909727595191224</v>
+        <v>1.26743214389423</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-0.908403607534967</v>
+        <v>-9.059967568656459</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-0.89059623280128</v>
+        <v>-1.24269380406898</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-0.89572613571514</v>
+        <v>-0.310700945921524</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-0.894155586299044</v>
+        <v>3.08446116191245</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-0.909839232344739</v>
+        <v>-8.12835738009238</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-0.914120782992033</v>
+        <v>6.94509590873643</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-0.896996487053689</v>
+        <v>1.38821163394102</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-0.897269948872479</v>
+        <v>2.70122921331502</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-0.887967083160348</v>
+        <v>-10.7357510276176</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-0.901912702000197</v>
+        <v>-17.3616287701886</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-0.9010691686283679</v>
+        <v>5.31218141771452</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-0.917497179581747</v>
+        <v>7.30926673915052</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-0.896176206405356</v>
+        <v>8.795474449074129</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-0.903495625331925</v>
+        <v>0.0387594091862378</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-0.9049745253109081</v>
+        <v>3.46470256261762</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-0.911793222998859</v>
+        <v>-6.10787242858887</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-0.924920658321969</v>
+        <v>-4.51122567857977</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-0.918867599335254</v>
+        <v>-8.99391298817887</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-0.925033086294664</v>
+        <v>5.77649338137327</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-0.9060793887320781</v>
+        <v>-4.52476154834802</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-0.932264367457922</v>
+        <v>-30.4102454582523</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-0.915556937691295</v>
+        <v>-16.7876648710291</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-0.925761786224695</v>
+        <v>-3.67952878346689</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-0.938727801427879</v>
+        <v>-1.50123321658329</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-0.938065273087062</v>
+        <v>12.3271220005154</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-0.926795421799364</v>
+        <v>-15.900508048755</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-0.940610408337985</v>
+        <v>-3.13170791539841</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-0.953935961915913</v>
+        <v>-22.3144298475331</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-0.943244499308836</v>
+        <v>-12.0678881227404</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-0.951695463051606</v>
+        <v>-9.78923484160207</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-0.954104312668132</v>
+        <v>-15.6736139160899</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-0.955447898575815</v>
+        <v>-7.60284919714816</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-0.96243173290335</v>
+        <v>11.4815169978678</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-0.964648097424466</v>
+        <v>4.96274865434593</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-0.9629510416873009</v>
+        <v>-1.68938229364041</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-0.980626095337463</v>
+        <v>-5.19699913363853</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-0.983038104181302</v>
+        <v>-8.86353836974607</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-0.989442288292395</v>
+        <v>-18.5374863626517</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-0.9832344327686799</v>
+        <v>-5.64579623146413</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-0.987660214261422</v>
+        <v>-1.73201790973244</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-1.00764632649254</v>
+        <v>-9.150364832835811</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-1.00429854202987</v>
+        <v>6.62527066962095</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-1.01036126690392</v>
+        <v>-13.4385262687796</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-1.02535717892274</v>
+        <v>-9.009744159100229</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-1.03071253498025</v>
+        <v>4.29159403188495</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-1.03484477165092</v>
+        <v>-16.6765983667813</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-1.03206656073862</v>
+        <v>-0.659271247653355</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-1.03407916513066</v>
+        <v>-10.391906498916</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-1.06065579206088</v>
+        <v>-21.4038009222998</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-1.03508250819921</v>
+        <v>-7.06429499845437</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-1.05394172249517</v>
+        <v>-0.150336405560873</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-1.05835225940622</v>
+        <v>-9.37146461239529</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-1.06157068880024</v>
+        <v>-1.75661424889711</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-1.05560517212264</v>
+        <v>-13.0874398071222</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-1.0692253161192</v>
+        <v>3.59106424867017</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-1.09561042099761</v>
+        <v>-1.0170570668595</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-1.0730336527646</v>
+        <v>-8.1250461457822</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-1.07749007037256</v>
+        <v>-11.9425906044591</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-1.07730769896525</v>
+        <v>-1.86228900988581</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-1.09027870321865</v>
+        <v>-5.58488233820486</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-1.08499955781049</v>
+        <v>0.0292411092792586</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-1.1010208115249</v>
+        <v>-10.65090551049</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-1.07754880858707</v>
+        <v>-6.82077887083876</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-1.10283733231244</v>
+        <v>-2.38305586281519</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-1.10033093125991</v>
+        <v>-1.91559716965211</v>
       </c>
       <c r="AED2" s="2">
-        <v>-1.09243134288694</v>
+        <v>2.08010645578656</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-1.09973928739421</v>
+        <v>-25.4431579647927</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-1.11483874560038</v>
+        <v>-4.00338836649384</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-1.10941846429243</v>
+        <v>11.939238195147</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-1.12451115269205</v>
+        <v>-0.988733523961003</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-1.08400128144942</v>
+        <v>-20.34093334843</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-1.12859328259337</v>
+        <v>-16.8261175178205</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-1.1160897268086</v>
+        <v>2.83975343402308</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-1.11591438364359</v>
+        <v>-3.94047770325846</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-1.11927051565978</v>
+        <v>-7.8268944252434</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-1.1117294509806</v>
+        <v>-0.332126608940598</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-1.11935676069871</v>
+        <v>-1.93790352885704</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-1.1166724474541</v>
+        <v>-3.26226083969104</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-1.11209912421479</v>
+        <v>1.18277628329784</v>
       </c>
       <c r="AER2" s="2">
-        <v>-1.12404849663474</v>
+        <v>4.91474111830787</v>
       </c>
       <c r="AES2" s="2">
-        <v>-1.11557089379359</v>
+        <v>1.4855763553246</v>
       </c>
       <c r="AET2" s="2">
-        <v>-1.10512953619807</v>
+        <v>-13.9428041066423</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-1.10341926704809</v>
+        <v>15.1876455123854</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-1.1004186848703</v>
+        <v>-0.857474850353696</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-1.10226161500643</v>
+        <v>3.86911977465574</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-1.10523669937044</v>
+        <v>-3.61528015736602</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-1.10160142628286</v>
+        <v>-10.6775357665873</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-1.09081224134029</v>
+        <v>-4.3238953256011</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-1.07810385516122</v>
+        <v>-1.09824148071494</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-1.08300358475022</v>
+        <v>-28.8468144842442</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-1.09394156992189</v>
+        <v>-13.6909057105505</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-1.08889459862417</v>
+        <v>-13.1072454220642</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-1.0841112494307</v>
+        <v>-16.79924060805</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-1.06809297738819</v>
+        <v>2.84526467146783</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-1.06462924091493</v>
+        <v>6.47079985682959</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-1.06822343102175</v>
+        <v>-16.0438143903099</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-1.05953112891217</v>
+        <v>-1.59023247285778</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-1.05139945132368</v>
+        <v>9.93019177152707</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-1.04849797640029</v>
+        <v>-4.64500483208779</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-1.05420485825745</v>
+        <v>-2.7777185142587</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-1.02905136180741</v>
+        <v>-10.455347614929</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-1.04160264047319</v>
+        <v>-9.09972410238186</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-1.04332065926332</v>
+        <v>-8.20916884577067</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-1.03758144734402</v>
+        <v>-1.10626325073434</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-1.03975689146534</v>
+        <v>-23.9077019135607</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-1.02217299403083</v>
+        <v>-6.94770156217315</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-1.02559605128996</v>
+        <v>-22.3228001791484</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-1.01857941085389</v>
+        <v>-9.936946675662311</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-1.01601673342657</v>
+        <v>-27.6284528335186</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-1.0277627073507</v>
+        <v>6.2711968400103</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-1.00592146947502</v>
+        <v>-7.17173031986517</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-1.02771602268635</v>
+        <v>-11.9418635299025</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-1.01896364269391</v>
+        <v>-2.2216999707416</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-1.01061324700402</v>
+        <v>8.15653406002782</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-0.997161026241554</v>
+        <v>-5.97478708230436</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-1.00610386367784</v>
+        <v>-18.7143526980749</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-0.98992600981947</v>
+        <v>4.97259991602135</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-0.984290741376316</v>
+        <v>-1.21236813889544</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-1.00812030962808</v>
+        <v>1.257753114487</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-1.01304457798935</v>
+        <v>1.53504538013315</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-0.986775671957682</v>
+        <v>-14.8669693727823</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-0.996389519785926</v>
+        <v>0.111519560475743</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-1.00271880890047</v>
+        <v>0.786955879162435</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-0.995686032579202</v>
+        <v>-10.132825840336</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-1.00770065445502</v>
+        <v>5.45056763957845</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-0.99459258465415</v>
+        <v>9.425859280781641</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-1.0125671337133</v>
+        <v>2.07420593349632</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-1.00220225364019</v>
+        <v>-2.81682830385017</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-1.00571622832428</v>
+        <v>-3.96238513421488</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-1.01260319372704</v>
+        <v>-7.61214655329559</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-1.01637708130375</v>
+        <v>-5.58556861361488</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-1.01902610697679</v>
+        <v>4.71152916975683</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-1.02074893889232</v>
+        <v>-10.129263317306</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-1.02428453912216</v>
+        <v>-14.882867467089</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-1.03710926918011</v>
+        <v>0.252015877801197</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-1.04407770435294</v>
+        <v>-16.9546505394019</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-1.03976905390178</v>
+        <v>-2.00204887929725</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-1.04463010204595</v>
+        <v>-15.1349199867251</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-1.05697799067047</v>
+        <v>-6.11216680014246</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-1.0619582858279</v>
+        <v>-4.15320501995841</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-1.08573464715804</v>
+        <v>11.0094241960941</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-1.07884121383284</v>
+        <v>-22.8527655808743</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-1.08749661626129</v>
+        <v>-6.25307017126178</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-1.09916052810326</v>
+        <v>-1.65997631276751</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-1.10174127351893</v>
+        <v>-7.39320545516666</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-1.10823950497773</v>
+        <v>-11.9531271298524</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-1.11601217296057</v>
+        <v>-12.2494288520887</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-1.13231765641116</v>
+        <v>-12.2428864128901</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-1.14277933711222</v>
+        <v>-6.9572423608529</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-1.13936354143258</v>
+        <v>-4.30826329009739</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-1.15082057060043</v>
+        <v>-3.12200416123937</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-1.17277162779117</v>
+        <v>-17.4490635472805</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-1.17016528680939</v>
+        <v>19.5506735019199</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-1.2101155617709</v>
+        <v>-3.37361287800205</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-1.20773009561007</v>
+        <v>-1.90434829546998</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-1.21638771933584</v>
+        <v>-5.32507420573788</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-1.21073456085983</v>
+        <v>-0.8067450226942789</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-1.22349142652554</v>
+        <v>8.716621324575369</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-1.23190125429173</v>
+        <v>-4.69202993073791</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-1.24392969278979</v>
+        <v>-19.638886820143</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-1.2530324456447</v>
+        <v>-2.69301338225188</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-1.27106566057624</v>
+        <v>-7.957719606831</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-1.27528496236667</v>
+        <v>-6.50210063931803</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-1.27699466879172</v>
+        <v>-18.7313175458099</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-1.29610394645586</v>
+        <v>6.62532995197651</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-1.28871257470562</v>
+        <v>-7.28026071703762</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-1.31435981693381</v>
+        <v>-14.8931319819516</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-1.32156300664007</v>
+        <v>0.574051606067616</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-1.3295702486613</v>
+        <v>-8.838441544262571</v>
       </c>
       <c r="AID2" s="2">
-        <v>-1.32932315944293</v>
+        <v>1.67220573113983</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-1.3208351128617</v>
+        <v>-14.9297373788917</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-1.34167687131846</v>
+        <v>-5.94758176419268</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-1.34166538567709</v>
+        <v>-11.181303477468</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-1.34698587505831</v>
+        <v>-9.75134504725972</v>
       </c>
       <c r="AII2" s="2">
-        <v>-1.35875445490761</v>
+        <v>-22.9964044907255</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-1.36222689070122</v>
+        <v>9.528296813321839</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-1.36399506703501</v>
+        <v>-9.96250530515074</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-1.37271187430168</v>
+        <v>-17.4208663659739</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-1.38362925115839</v>
+        <v>-10.0243928955157</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-1.38811209712992</v>
+        <v>-4.09187916630026</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-1.38701203226568</v>
+        <v>-5.41497926087226</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-1.37737288252636</v>
+        <v>-5.27023012803478</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-1.38260522703472</v>
+        <v>4.69528471367611</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-1.39855032598363</v>
+        <v>-3.7083770344951</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-1.39539678137919</v>
+        <v>-10.8875021431137</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-1.39671686222332</v>
+        <v>5.14304943016168</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-1.38389713638558</v>
+        <v>-1.47607405591365</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-1.38679784664659</v>
+        <v>0.203598568038174</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-1.39727237829023</v>
+        <v>3.38879029736041</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-1.38713001761775</v>
+        <v>-6.59239011365532</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-1.38988788657763</v>
+        <v>4.45668601877749</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-1.37239837792004</v>
+        <v>11.3216358709175</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-1.37133908712888</v>
+        <v>-0.502530583249175</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-1.368915464428</v>
+        <v>-10.1282349729841</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-1.36823660129372</v>
+        <v>-1.40727919435124</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-1.37559830014124</v>
+        <v>-9.971750811098961</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-1.35682821552172</v>
+        <v>-1.0149096741847</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-1.35534263892465</v>
+        <v>5.13781267841716</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-1.35242799237824</v>
+        <v>-24.5477471358757</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-1.35221222847837</v>
+        <v>-2.27539688353226</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-1.34171362598256</v>
+        <v>-7.94703025635357</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-1.34749678260559</v>
+        <v>-0.331290610999073</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-1.32391837916831</v>
+        <v>-0.550453999098102</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-1.32543599365145</v>
+        <v>2.59750709551475</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-1.34033580273068</v>
+        <v>-4.23278523145691</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-1.3094359595688</v>
+        <v>-0.921747960785317</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-1.29946289632817</v>
+        <v>-8.06064046802887</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-1.29437683633018</v>
+        <v>-0.63802506978314</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-1.28796136143491</v>
+        <v>2.71602190277295</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-1.28702116955589</v>
+        <v>4.34229663266886</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-1.26838863562625</v>
+        <v>2.17954668433217</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-1.28176850657949</v>
+        <v>-1.3095089477172</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-1.26344873238806</v>
+        <v>-8.103206563294471</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-1.27378967824248</v>
+        <v>-8.21592434479936</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-1.25331734161193</v>
+        <v>-18.7637036344451</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-1.24411502061955</v>
+        <v>1.77158300337202</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-1.25354288644212</v>
+        <v>-0.267817428540892</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-1.23618238447862</v>
+        <v>-30.4728198742035</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-1.2289608203888</v>
+        <v>-20.4726484866438</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-1.22554180760666</v>
+        <v>7.33955907474033</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-1.22434240469245</v>
+        <v>-3.72209219791766</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-1.20618139333741</v>
+        <v>-2.15490621711784</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-1.20444789904187</v>
+        <v>0.345457186776546</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-1.21073705276623</v>
+        <v>-3.80692882733982</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-1.19434126077442</v>
+        <v>-8.302659540198629</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-1.1817462015371</v>
+        <v>-5.26490601064691</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-1.20330325051162</v>
+        <v>3.39253928731059</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-1.18738799552359</v>
+        <v>-0.304987896138196</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-1.1781180599708</v>
+        <v>6.02405608901732</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-1.18859017217275</v>
+        <v>-2.30120911267394</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-1.18820713522978</v>
+        <v>0.56981399828688</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-1.18732600491059</v>
+        <v>0.453679892604702</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-1.18739453987423</v>
+        <v>-22.378637211713</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-1.18776227094431</v>
+        <v>-2.12408738341683</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-1.19006103855814</v>
+        <v>-6.93597126834512</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-1.17329257229335</v>
+        <v>1.71421245101405</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-1.18880813194773</v>
+        <v>7.06844543775179</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-1.19437094196737</v>
+        <v>-17.7666904021552</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-1.18842341733169</v>
+        <v>-4.38789467274406</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-1.18803630642919</v>
+        <v>-23.5854650423101</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-1.18489200641144</v>
+        <v>-1.89821547739568</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-1.19419390371127</v>
+        <v>-2.20177734294084</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-1.19769007794053</v>
+        <v>-9.49212585774587</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-1.21662895307841</v>
+        <v>-8.26733647538998</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-1.20766528087843</v>
+        <v>19.6025722507802</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-1.21960534186113</v>
+        <v>-6.05680023205889</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-1.22324142212411</v>
+        <v>14.3742844813053</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-1.23501309392844</v>
+        <v>8.624761955353369</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-1.2549116477904</v>
+        <v>-2.48296312690907</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-1.23523430507814</v>
+        <v>0.0692152670008998</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-1.26780606764092</v>
+        <v>-5.11750288440198</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-1.25794964712574</v>
+        <v>1.87583165712644</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-1.27649449458599</v>
+        <v>-11.564992533778</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-1.29386647990059</v>
+        <v>-11.7825280179322</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-1.29359369535663</v>
+        <v>-9.810538896495689</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-1.31002699291713</v>
+        <v>-31.413055482425</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-1.320941488413</v>
+        <v>-1.37914464532764</v>
       </c>
     </row>
   </sheetData>
